--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3332,7 +3332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -3489,6 +3489,12 @@
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3922,7 +3928,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3970,10 +3976,13 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4314,10 +4323,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D545" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D544" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A552" sqref="A552"/>
+      <selection pane="bottomRight" activeCell="A551" sqref="A551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4388,28 +4397,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4577,28 +4586,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -8084,7 +8093,7 @@
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="17" t="s">
         <v>256</v>
       </c>
       <c r="D64" s="1">
@@ -9054,13 +9063,13 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="1">
@@ -9121,7 +9130,7 @@
       <c r="B81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="1">
@@ -13050,7 +13059,7 @@
       <c r="B146" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D146" s="1">
@@ -13172,7 +13181,7 @@
       <c r="B148" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D148" s="1">
@@ -13721,7 +13730,7 @@
       <c r="B157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="17" t="s">
         <v>190</v>
       </c>
       <c r="D157" s="1">
@@ -13782,7 +13791,7 @@
       <c r="B158" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="17" t="s">
         <v>178</v>
       </c>
       <c r="D158" s="1">
@@ -13904,7 +13913,7 @@
       <c r="B160" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="17" t="s">
         <v>143</v>
       </c>
       <c r="D160" s="1">
@@ -14453,7 +14462,7 @@
       <c r="B169" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D169" s="1">
@@ -14758,7 +14767,7 @@
       <c r="B174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D174" s="1">
@@ -14880,7 +14889,7 @@
       <c r="B176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D176" s="1">
@@ -19602,7 +19611,7 @@
       <c r="B254" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D254" s="1">
@@ -21676,7 +21685,7 @@
       <c r="B288" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D288" s="1">
@@ -24025,28 +24034,28 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="17" t="s">
+      <c r="A328" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
-      <c r="F328" s="18"/>
-      <c r="G328" s="18"/>
-      <c r="H328" s="18"/>
-      <c r="I328" s="18"/>
-      <c r="J328" s="18"/>
-      <c r="K328" s="18"/>
-      <c r="L328" s="18"/>
-      <c r="M328" s="18"/>
-      <c r="N328" s="18"/>
-      <c r="O328" s="18"/>
-      <c r="P328" s="18"/>
-      <c r="Q328" s="18"/>
-      <c r="R328" s="18"/>
-      <c r="S328" s="18"/>
-      <c r="T328" s="19"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="19"/>
+      <c r="G328" s="19"/>
+      <c r="H328" s="19"/>
+      <c r="I328" s="19"/>
+      <c r="J328" s="19"/>
+      <c r="K328" s="19"/>
+      <c r="L328" s="19"/>
+      <c r="M328" s="19"/>
+      <c r="N328" s="19"/>
+      <c r="O328" s="19"/>
+      <c r="P328" s="19"/>
+      <c r="Q328" s="19"/>
+      <c r="R328" s="19"/>
+      <c r="S328" s="19"/>
+      <c r="T328" s="20"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
@@ -34758,28 +34767,28 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="17" t="s">
+      <c r="A506" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="B506" s="18"/>
-      <c r="C506" s="18"/>
-      <c r="D506" s="18"/>
-      <c r="E506" s="18"/>
-      <c r="F506" s="18"/>
-      <c r="G506" s="18"/>
-      <c r="H506" s="18"/>
-      <c r="I506" s="18"/>
-      <c r="J506" s="18"/>
-      <c r="K506" s="18"/>
-      <c r="L506" s="18"/>
-      <c r="M506" s="18"/>
-      <c r="N506" s="18"/>
-      <c r="O506" s="18"/>
-      <c r="P506" s="18"/>
-      <c r="Q506" s="18"/>
-      <c r="R506" s="18"/>
-      <c r="S506" s="18"/>
-      <c r="T506" s="19"/>
+      <c r="B506" s="19"/>
+      <c r="C506" s="19"/>
+      <c r="D506" s="19"/>
+      <c r="E506" s="19"/>
+      <c r="F506" s="19"/>
+      <c r="G506" s="19"/>
+      <c r="H506" s="19"/>
+      <c r="I506" s="19"/>
+      <c r="J506" s="19"/>
+      <c r="K506" s="19"/>
+      <c r="L506" s="19"/>
+      <c r="M506" s="19"/>
+      <c r="N506" s="19"/>
+      <c r="O506" s="19"/>
+      <c r="P506" s="19"/>
+      <c r="Q506" s="19"/>
+      <c r="R506" s="19"/>
+      <c r="S506" s="19"/>
+      <c r="T506" s="20"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
@@ -35182,28 +35191,28 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="17" t="s">
+      <c r="A515" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="B515" s="18"/>
-      <c r="C515" s="18"/>
-      <c r="D515" s="18"/>
-      <c r="E515" s="18"/>
-      <c r="F515" s="18"/>
-      <c r="G515" s="18"/>
-      <c r="H515" s="18"/>
-      <c r="I515" s="18"/>
-      <c r="J515" s="18"/>
-      <c r="K515" s="18"/>
-      <c r="L515" s="18"/>
-      <c r="M515" s="18"/>
-      <c r="N515" s="18"/>
-      <c r="O515" s="18"/>
-      <c r="P515" s="18"/>
-      <c r="Q515" s="18"/>
-      <c r="R515" s="18"/>
-      <c r="S515" s="18"/>
-      <c r="T515" s="19"/>
+      <c r="B515" s="19"/>
+      <c r="C515" s="19"/>
+      <c r="D515" s="19"/>
+      <c r="E515" s="19"/>
+      <c r="F515" s="19"/>
+      <c r="G515" s="19"/>
+      <c r="H515" s="19"/>
+      <c r="I515" s="19"/>
+      <c r="J515" s="19"/>
+      <c r="K515" s="19"/>
+      <c r="L515" s="19"/>
+      <c r="M515" s="19"/>
+      <c r="N515" s="19"/>
+      <c r="O515" s="19"/>
+      <c r="P515" s="19"/>
+      <c r="Q515" s="19"/>
+      <c r="R515" s="19"/>
+      <c r="S515" s="19"/>
+      <c r="T515" s="20"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
@@ -35678,28 +35687,28 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="17" t="s">
+      <c r="A524" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="B524" s="18"/>
-      <c r="C524" s="18"/>
-      <c r="D524" s="18"/>
-      <c r="E524" s="18"/>
-      <c r="F524" s="18"/>
-      <c r="G524" s="18"/>
-      <c r="H524" s="18"/>
-      <c r="I524" s="18"/>
-      <c r="J524" s="18"/>
-      <c r="K524" s="18"/>
-      <c r="L524" s="18"/>
-      <c r="M524" s="18"/>
-      <c r="N524" s="18"/>
-      <c r="O524" s="18"/>
-      <c r="P524" s="18"/>
-      <c r="Q524" s="18"/>
-      <c r="R524" s="18"/>
-      <c r="S524" s="18"/>
-      <c r="T524" s="19"/>
+      <c r="B524" s="19"/>
+      <c r="C524" s="19"/>
+      <c r="D524" s="19"/>
+      <c r="E524" s="19"/>
+      <c r="F524" s="19"/>
+      <c r="G524" s="19"/>
+      <c r="H524" s="19"/>
+      <c r="I524" s="19"/>
+      <c r="J524" s="19"/>
+      <c r="K524" s="19"/>
+      <c r="L524" s="19"/>
+      <c r="M524" s="19"/>
+      <c r="N524" s="19"/>
+      <c r="O524" s="19"/>
+      <c r="P524" s="19"/>
+      <c r="Q524" s="19"/>
+      <c r="R524" s="19"/>
+      <c r="S524" s="19"/>
+      <c r="T524" s="20"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
@@ -36526,7 +36535,7 @@
       <c r="B539" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C539" s="1" t="s">
+      <c r="C539" s="17" t="s">
         <v>975</v>
       </c>
       <c r="D539" s="1">
@@ -36648,7 +36657,7 @@
       <c r="B541" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C541" s="1" t="s">
+      <c r="C541" s="17" t="s">
         <v>968</v>
       </c>
       <c r="D541" s="1">
@@ -36892,7 +36901,7 @@
       <c r="B545" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C545" s="1" t="s">
+      <c r="C545" s="17" t="s">
         <v>1016</v>
       </c>
       <c r="D545" s="1">
@@ -37136,7 +37145,7 @@
       <c r="B549" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C549" s="1" t="s">
+      <c r="C549" s="17" t="s">
         <v>1027</v>
       </c>
       <c r="D549" s="1">
@@ -37258,7 +37267,7 @@
       <c r="B551" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C551" s="1" t="s">
+      <c r="C551" s="17" t="s">
         <v>1032</v>
       </c>
       <c r="D551" s="1">
@@ -37319,7 +37328,7 @@
       <c r="B552" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C552" s="20" t="s">
+      <c r="C552" s="17" t="s">
         <v>1034</v>
       </c>
       <c r="D552" s="1">
@@ -37502,7 +37511,7 @@
       <c r="B555" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C555" s="20" t="s">
+      <c r="C555" s="17" t="s">
         <v>1040</v>
       </c>
       <c r="D555" s="1">
@@ -37563,7 +37572,7 @@
       <c r="B556" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C556" s="1" t="s">
+      <c r="C556" s="17" t="s">
         <v>1042</v>
       </c>
       <c r="D556" s="1">
@@ -37746,7 +37755,7 @@
       <c r="B559" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C559" s="1" t="s">
+      <c r="C559" s="17" t="s">
         <v>1048</v>
       </c>
       <c r="D559" s="1">
@@ -37807,7 +37816,7 @@
       <c r="B560" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C560" s="20" t="s">
+      <c r="C560" s="17" t="s">
         <v>1051</v>
       </c>
       <c r="D560" s="1">
@@ -37929,7 +37938,7 @@
       <c r="B562" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C562" s="1" t="s">
+      <c r="C562" s="17" t="s">
         <v>1060</v>
       </c>
       <c r="D562" s="1">
@@ -38173,7 +38182,7 @@
       <c r="B566" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C566" s="1" t="s">
+      <c r="C566" s="17" t="s">
         <v>1075</v>
       </c>
       <c r="D566" s="1">
@@ -38295,7 +38304,7 @@
       <c r="B568" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C568" s="20" t="s">
+      <c r="C568" s="17" t="s">
         <v>1080</v>
       </c>
       <c r="D568" s="1">
@@ -38623,7 +38632,7 @@
       <c r="B574" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C574" s="1" t="s">
+      <c r="C574" s="17" t="s">
         <v>985</v>
       </c>
       <c r="D574" s="1">
@@ -38845,28 +38854,28 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="17" t="s">
+      <c r="A578" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="B578" s="18"/>
-      <c r="C578" s="18"/>
-      <c r="D578" s="18"/>
-      <c r="E578" s="18"/>
-      <c r="F578" s="18"/>
-      <c r="G578" s="18"/>
-      <c r="H578" s="18"/>
-      <c r="I578" s="18"/>
-      <c r="J578" s="18"/>
-      <c r="K578" s="18"/>
-      <c r="L578" s="18"/>
-      <c r="M578" s="18"/>
-      <c r="N578" s="18"/>
-      <c r="O578" s="18"/>
-      <c r="P578" s="18"/>
-      <c r="Q578" s="18"/>
-      <c r="R578" s="18"/>
-      <c r="S578" s="18"/>
-      <c r="T578" s="19"/>
+      <c r="B578" s="19"/>
+      <c r="C578" s="19"/>
+      <c r="D578" s="19"/>
+      <c r="E578" s="19"/>
+      <c r="F578" s="19"/>
+      <c r="G578" s="19"/>
+      <c r="H578" s="19"/>
+      <c r="I578" s="19"/>
+      <c r="J578" s="19"/>
+      <c r="K578" s="19"/>
+      <c r="L578" s="19"/>
+      <c r="M578" s="19"/>
+      <c r="N578" s="19"/>
+      <c r="O578" s="19"/>
+      <c r="P578" s="19"/>
+      <c r="Q578" s="19"/>
+      <c r="R578" s="19"/>
+      <c r="S578" s="19"/>
+      <c r="T578" s="20"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
@@ -39208,28 +39217,28 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="17" t="s">
+      <c r="A586" s="18" t="s">
         <v>1091</v>
       </c>
-      <c r="B586" s="18"/>
-      <c r="C586" s="18"/>
-      <c r="D586" s="18"/>
-      <c r="E586" s="18"/>
-      <c r="F586" s="18"/>
-      <c r="G586" s="18"/>
-      <c r="H586" s="18"/>
-      <c r="I586" s="18"/>
-      <c r="J586" s="18"/>
-      <c r="K586" s="18"/>
-      <c r="L586" s="18"/>
-      <c r="M586" s="18"/>
-      <c r="N586" s="18"/>
-      <c r="O586" s="18"/>
-      <c r="P586" s="18"/>
-      <c r="Q586" s="18"/>
-      <c r="R586" s="18"/>
-      <c r="S586" s="18"/>
-      <c r="T586" s="19"/>
+      <c r="B586" s="19"/>
+      <c r="C586" s="19"/>
+      <c r="D586" s="19"/>
+      <c r="E586" s="19"/>
+      <c r="F586" s="19"/>
+      <c r="G586" s="19"/>
+      <c r="H586" s="19"/>
+      <c r="I586" s="19"/>
+      <c r="J586" s="19"/>
+      <c r="K586" s="19"/>
+      <c r="L586" s="19"/>
+      <c r="M586" s="19"/>
+      <c r="N586" s="19"/>
+      <c r="O586" s="19"/>
+      <c r="P586" s="19"/>
+      <c r="Q586" s="19"/>
+      <c r="R586" s="19"/>
+      <c r="S586" s="19"/>
+      <c r="T586" s="20"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
@@ -39424,28 +39433,28 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="17" t="s">
+      <c r="A591" s="18" t="s">
         <v>1097</v>
       </c>
-      <c r="B591" s="18"/>
-      <c r="C591" s="18"/>
-      <c r="D591" s="18"/>
-      <c r="E591" s="18"/>
-      <c r="F591" s="18"/>
-      <c r="G591" s="18"/>
-      <c r="H591" s="18"/>
-      <c r="I591" s="18"/>
-      <c r="J591" s="18"/>
-      <c r="K591" s="18"/>
-      <c r="L591" s="18"/>
-      <c r="M591" s="18"/>
-      <c r="N591" s="18"/>
-      <c r="O591" s="18"/>
-      <c r="P591" s="18"/>
-      <c r="Q591" s="18"/>
-      <c r="R591" s="18"/>
-      <c r="S591" s="18"/>
-      <c r="T591" s="19"/>
+      <c r="B591" s="19"/>
+      <c r="C591" s="19"/>
+      <c r="D591" s="19"/>
+      <c r="E591" s="19"/>
+      <c r="F591" s="19"/>
+      <c r="G591" s="19"/>
+      <c r="H591" s="19"/>
+      <c r="I591" s="19"/>
+      <c r="J591" s="19"/>
+      <c r="K591" s="19"/>
+      <c r="L591" s="19"/>
+      <c r="M591" s="19"/>
+      <c r="N591" s="19"/>
+      <c r="O591" s="19"/>
+      <c r="P591" s="19"/>
+      <c r="Q591" s="19"/>
+      <c r="R591" s="19"/>
+      <c r="S591" s="19"/>
+      <c r="T591" s="20"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
@@ -39554,28 +39563,28 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="17" t="s">
+      <c r="A594" s="18" t="s">
         <v>1100</v>
       </c>
-      <c r="B594" s="18"/>
-      <c r="C594" s="18"/>
-      <c r="D594" s="18"/>
-      <c r="E594" s="18"/>
-      <c r="F594" s="18"/>
-      <c r="G594" s="18"/>
-      <c r="H594" s="18"/>
-      <c r="I594" s="18"/>
-      <c r="J594" s="18"/>
-      <c r="K594" s="18"/>
-      <c r="L594" s="18"/>
-      <c r="M594" s="18"/>
-      <c r="N594" s="18"/>
-      <c r="O594" s="18"/>
-      <c r="P594" s="18"/>
-      <c r="Q594" s="18"/>
-      <c r="R594" s="18"/>
-      <c r="S594" s="18"/>
-      <c r="T594" s="19"/>
+      <c r="B594" s="19"/>
+      <c r="C594" s="19"/>
+      <c r="D594" s="19"/>
+      <c r="E594" s="19"/>
+      <c r="F594" s="19"/>
+      <c r="G594" s="19"/>
+      <c r="H594" s="19"/>
+      <c r="I594" s="19"/>
+      <c r="J594" s="19"/>
+      <c r="K594" s="19"/>
+      <c r="L594" s="19"/>
+      <c r="M594" s="19"/>
+      <c r="N594" s="19"/>
+      <c r="O594" s="19"/>
+      <c r="P594" s="19"/>
+      <c r="Q594" s="19"/>
+      <c r="R594" s="19"/>
+      <c r="S594" s="19"/>
+      <c r="T594" s="20"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4323,10 +4323,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D544" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A551" sqref="A551"/>
+      <selection pane="bottomRight" activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -37389,7 +37389,7 @@
       <c r="B553" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C553" s="1" t="s">
+      <c r="C553" s="17" t="s">
         <v>1036</v>
       </c>
       <c r="D553" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3979,12 +3979,12 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4323,10 +4323,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A311" sqref="A311"/>
+      <selection pane="bottomRight" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4397,28 +4397,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4586,28 +4586,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6263,7 +6263,7 @@
       <c r="B34" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="17" t="s">
         <v>405</v>
       </c>
       <c r="D34" s="1">
@@ -6873,7 +6873,7 @@
       <c r="B44" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D44" s="1">
@@ -7605,7 +7605,7 @@
       <c r="B56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D56" s="1">
@@ -8703,7 +8703,7 @@
       <c r="B74" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D74" s="1">
@@ -9008,7 +9008,7 @@
       <c r="B79" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D79" s="1">
@@ -9063,13 +9063,13 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="18" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="1">
@@ -9923,7 +9923,7 @@
       <c r="B94" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D94" s="1">
@@ -10863,7 +10863,7 @@
       <c r="B110" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="17" t="s">
         <v>475</v>
       </c>
       <c r="D110" s="1">
@@ -12998,7 +12998,7 @@
       <c r="B145" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D145" s="1">
@@ -14523,7 +14523,7 @@
       <c r="B170" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="1">
@@ -15829,7 +15829,7 @@
       <c r="B192" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D192" s="1">
@@ -20526,7 +20526,7 @@
       <c r="B269" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D269" s="1">
@@ -20648,7 +20648,7 @@
       <c r="B271" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="17" t="s">
         <v>222</v>
       </c>
       <c r="D271" s="1">
@@ -21563,7 +21563,7 @@
       <c r="B286" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="17" t="s">
         <v>201</v>
       </c>
       <c r="D286" s="1">
@@ -23393,7 +23393,7 @@
       <c r="B316" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D316" s="1">
@@ -23454,7 +23454,7 @@
       <c r="B317" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C317" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D317" s="1">
@@ -24034,28 +24034,28 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="18" t="s">
+      <c r="A328" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="19"/>
-      <c r="E328" s="19"/>
-      <c r="F328" s="19"/>
-      <c r="G328" s="19"/>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="19"/>
-      <c r="K328" s="19"/>
-      <c r="L328" s="19"/>
-      <c r="M328" s="19"/>
-      <c r="N328" s="19"/>
-      <c r="O328" s="19"/>
-      <c r="P328" s="19"/>
-      <c r="Q328" s="19"/>
-      <c r="R328" s="19"/>
-      <c r="S328" s="19"/>
-      <c r="T328" s="20"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="20"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
+      <c r="J328" s="20"/>
+      <c r="K328" s="20"/>
+      <c r="L328" s="20"/>
+      <c r="M328" s="20"/>
+      <c r="N328" s="20"/>
+      <c r="O328" s="20"/>
+      <c r="P328" s="20"/>
+      <c r="Q328" s="20"/>
+      <c r="R328" s="20"/>
+      <c r="S328" s="20"/>
+      <c r="T328" s="21"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
@@ -34767,28 +34767,28 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="18" t="s">
+      <c r="A506" s="19" t="s">
         <v>928</v>
       </c>
-      <c r="B506" s="19"/>
-      <c r="C506" s="19"/>
-      <c r="D506" s="19"/>
-      <c r="E506" s="19"/>
-      <c r="F506" s="19"/>
-      <c r="G506" s="19"/>
-      <c r="H506" s="19"/>
-      <c r="I506" s="19"/>
-      <c r="J506" s="19"/>
-      <c r="K506" s="19"/>
-      <c r="L506" s="19"/>
-      <c r="M506" s="19"/>
-      <c r="N506" s="19"/>
-      <c r="O506" s="19"/>
-      <c r="P506" s="19"/>
-      <c r="Q506" s="19"/>
-      <c r="R506" s="19"/>
-      <c r="S506" s="19"/>
-      <c r="T506" s="20"/>
+      <c r="B506" s="20"/>
+      <c r="C506" s="20"/>
+      <c r="D506" s="20"/>
+      <c r="E506" s="20"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="20"/>
+      <c r="H506" s="20"/>
+      <c r="I506" s="20"/>
+      <c r="J506" s="20"/>
+      <c r="K506" s="20"/>
+      <c r="L506" s="20"/>
+      <c r="M506" s="20"/>
+      <c r="N506" s="20"/>
+      <c r="O506" s="20"/>
+      <c r="P506" s="20"/>
+      <c r="Q506" s="20"/>
+      <c r="R506" s="20"/>
+      <c r="S506" s="20"/>
+      <c r="T506" s="21"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
@@ -35191,28 +35191,28 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="18" t="s">
+      <c r="A515" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="B515" s="19"/>
-      <c r="C515" s="19"/>
-      <c r="D515" s="19"/>
-      <c r="E515" s="19"/>
-      <c r="F515" s="19"/>
-      <c r="G515" s="19"/>
-      <c r="H515" s="19"/>
-      <c r="I515" s="19"/>
-      <c r="J515" s="19"/>
-      <c r="K515" s="19"/>
-      <c r="L515" s="19"/>
-      <c r="M515" s="19"/>
-      <c r="N515" s="19"/>
-      <c r="O515" s="19"/>
-      <c r="P515" s="19"/>
-      <c r="Q515" s="19"/>
-      <c r="R515" s="19"/>
-      <c r="S515" s="19"/>
-      <c r="T515" s="20"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="20"/>
+      <c r="D515" s="20"/>
+      <c r="E515" s="20"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="20"/>
+      <c r="H515" s="20"/>
+      <c r="I515" s="20"/>
+      <c r="J515" s="20"/>
+      <c r="K515" s="20"/>
+      <c r="L515" s="20"/>
+      <c r="M515" s="20"/>
+      <c r="N515" s="20"/>
+      <c r="O515" s="20"/>
+      <c r="P515" s="20"/>
+      <c r="Q515" s="20"/>
+      <c r="R515" s="20"/>
+      <c r="S515" s="20"/>
+      <c r="T515" s="21"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
@@ -35687,28 +35687,28 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="18" t="s">
+      <c r="A524" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="B524" s="19"/>
-      <c r="C524" s="19"/>
-      <c r="D524" s="19"/>
-      <c r="E524" s="19"/>
-      <c r="F524" s="19"/>
-      <c r="G524" s="19"/>
-      <c r="H524" s="19"/>
-      <c r="I524" s="19"/>
-      <c r="J524" s="19"/>
-      <c r="K524" s="19"/>
-      <c r="L524" s="19"/>
-      <c r="M524" s="19"/>
-      <c r="N524" s="19"/>
-      <c r="O524" s="19"/>
-      <c r="P524" s="19"/>
-      <c r="Q524" s="19"/>
-      <c r="R524" s="19"/>
-      <c r="S524" s="19"/>
-      <c r="T524" s="20"/>
+      <c r="B524" s="20"/>
+      <c r="C524" s="20"/>
+      <c r="D524" s="20"/>
+      <c r="E524" s="20"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="20"/>
+      <c r="H524" s="20"/>
+      <c r="I524" s="20"/>
+      <c r="J524" s="20"/>
+      <c r="K524" s="20"/>
+      <c r="L524" s="20"/>
+      <c r="M524" s="20"/>
+      <c r="N524" s="20"/>
+      <c r="O524" s="20"/>
+      <c r="P524" s="20"/>
+      <c r="Q524" s="20"/>
+      <c r="R524" s="20"/>
+      <c r="S524" s="20"/>
+      <c r="T524" s="21"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
@@ -38854,28 +38854,28 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="18" t="s">
+      <c r="A578" s="19" t="s">
         <v>1081</v>
       </c>
-      <c r="B578" s="19"/>
-      <c r="C578" s="19"/>
-      <c r="D578" s="19"/>
-      <c r="E578" s="19"/>
-      <c r="F578" s="19"/>
-      <c r="G578" s="19"/>
-      <c r="H578" s="19"/>
-      <c r="I578" s="19"/>
-      <c r="J578" s="19"/>
-      <c r="K578" s="19"/>
-      <c r="L578" s="19"/>
-      <c r="M578" s="19"/>
-      <c r="N578" s="19"/>
-      <c r="O578" s="19"/>
-      <c r="P578" s="19"/>
-      <c r="Q578" s="19"/>
-      <c r="R578" s="19"/>
-      <c r="S578" s="19"/>
-      <c r="T578" s="20"/>
+      <c r="B578" s="20"/>
+      <c r="C578" s="20"/>
+      <c r="D578" s="20"/>
+      <c r="E578" s="20"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="20"/>
+      <c r="H578" s="20"/>
+      <c r="I578" s="20"/>
+      <c r="J578" s="20"/>
+      <c r="K578" s="20"/>
+      <c r="L578" s="20"/>
+      <c r="M578" s="20"/>
+      <c r="N578" s="20"/>
+      <c r="O578" s="20"/>
+      <c r="P578" s="20"/>
+      <c r="Q578" s="20"/>
+      <c r="R578" s="20"/>
+      <c r="S578" s="20"/>
+      <c r="T578" s="21"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
@@ -39217,28 +39217,28 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="18" t="s">
+      <c r="A586" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="B586" s="19"/>
-      <c r="C586" s="19"/>
-      <c r="D586" s="19"/>
-      <c r="E586" s="19"/>
-      <c r="F586" s="19"/>
-      <c r="G586" s="19"/>
-      <c r="H586" s="19"/>
-      <c r="I586" s="19"/>
-      <c r="J586" s="19"/>
-      <c r="K586" s="19"/>
-      <c r="L586" s="19"/>
-      <c r="M586" s="19"/>
-      <c r="N586" s="19"/>
-      <c r="O586" s="19"/>
-      <c r="P586" s="19"/>
-      <c r="Q586" s="19"/>
-      <c r="R586" s="19"/>
-      <c r="S586" s="19"/>
-      <c r="T586" s="20"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="20"/>
+      <c r="D586" s="20"/>
+      <c r="E586" s="20"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="20"/>
+      <c r="H586" s="20"/>
+      <c r="I586" s="20"/>
+      <c r="J586" s="20"/>
+      <c r="K586" s="20"/>
+      <c r="L586" s="20"/>
+      <c r="M586" s="20"/>
+      <c r="N586" s="20"/>
+      <c r="O586" s="20"/>
+      <c r="P586" s="20"/>
+      <c r="Q586" s="20"/>
+      <c r="R586" s="20"/>
+      <c r="S586" s="20"/>
+      <c r="T586" s="21"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
@@ -39433,28 +39433,28 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="18" t="s">
+      <c r="A591" s="19" t="s">
         <v>1097</v>
       </c>
-      <c r="B591" s="19"/>
-      <c r="C591" s="19"/>
-      <c r="D591" s="19"/>
-      <c r="E591" s="19"/>
-      <c r="F591" s="19"/>
-      <c r="G591" s="19"/>
-      <c r="H591" s="19"/>
-      <c r="I591" s="19"/>
-      <c r="J591" s="19"/>
-      <c r="K591" s="19"/>
-      <c r="L591" s="19"/>
-      <c r="M591" s="19"/>
-      <c r="N591" s="19"/>
-      <c r="O591" s="19"/>
-      <c r="P591" s="19"/>
-      <c r="Q591" s="19"/>
-      <c r="R591" s="19"/>
-      <c r="S591" s="19"/>
-      <c r="T591" s="20"/>
+      <c r="B591" s="20"/>
+      <c r="C591" s="20"/>
+      <c r="D591" s="20"/>
+      <c r="E591" s="20"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="20"/>
+      <c r="H591" s="20"/>
+      <c r="I591" s="20"/>
+      <c r="J591" s="20"/>
+      <c r="K591" s="20"/>
+      <c r="L591" s="20"/>
+      <c r="M591" s="20"/>
+      <c r="N591" s="20"/>
+      <c r="O591" s="20"/>
+      <c r="P591" s="20"/>
+      <c r="Q591" s="20"/>
+      <c r="R591" s="20"/>
+      <c r="S591" s="20"/>
+      <c r="T591" s="21"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
@@ -39563,28 +39563,28 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="18" t="s">
+      <c r="A594" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="B594" s="19"/>
-      <c r="C594" s="19"/>
-      <c r="D594" s="19"/>
-      <c r="E594" s="19"/>
-      <c r="F594" s="19"/>
-      <c r="G594" s="19"/>
-      <c r="H594" s="19"/>
-      <c r="I594" s="19"/>
-      <c r="J594" s="19"/>
-      <c r="K594" s="19"/>
-      <c r="L594" s="19"/>
-      <c r="M594" s="19"/>
-      <c r="N594" s="19"/>
-      <c r="O594" s="19"/>
-      <c r="P594" s="19"/>
-      <c r="Q594" s="19"/>
-      <c r="R594" s="19"/>
-      <c r="S594" s="19"/>
-      <c r="T594" s="20"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="20"/>
+      <c r="D594" s="20"/>
+      <c r="E594" s="20"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="20"/>
+      <c r="H594" s="20"/>
+      <c r="I594" s="20"/>
+      <c r="J594" s="20"/>
+      <c r="K594" s="20"/>
+      <c r="L594" s="20"/>
+      <c r="M594" s="20"/>
+      <c r="N594" s="20"/>
+      <c r="O594" s="20"/>
+      <c r="P594" s="20"/>
+      <c r="Q594" s="20"/>
+      <c r="R594" s="20"/>
+      <c r="S594" s="20"/>
+      <c r="T594" s="21"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4323,10 +4323,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C269" sqref="C269"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -13120,7 +13120,7 @@
       <c r="B147" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D147" s="1">
@@ -14401,7 +14401,7 @@
       <c r="B168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D168" s="1">
@@ -20587,7 +20587,7 @@
       <c r="B270" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D270" s="1">
@@ -20709,7 +20709,7 @@
       <c r="B272" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="17" t="s">
         <v>229</v>
       </c>
       <c r="D272" s="1">
@@ -37694,7 +37694,7 @@
       <c r="B558" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C558" s="1" t="s">
+      <c r="C558" s="17" t="s">
         <v>1046</v>
       </c>
       <c r="D558" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4323,10 +4323,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -5409,7 +5409,7 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="17" t="s">
         <v>429</v>
       </c>
       <c r="D20" s="1">
@@ -6629,7 +6629,7 @@
       <c r="B40" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D40" s="1">
@@ -6690,7 +6690,7 @@
       <c r="B41" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="17" t="s">
         <v>291</v>
       </c>
       <c r="D41" s="1">
@@ -6751,7 +6751,7 @@
       <c r="B42" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D42" s="1">
@@ -7178,7 +7178,7 @@
       <c r="B49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="17" t="s">
         <v>208</v>
       </c>
       <c r="D49" s="1">
@@ -7239,7 +7239,7 @@
       <c r="B50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="17" t="s">
         <v>208</v>
       </c>
       <c r="D50" s="1">
@@ -7300,7 +7300,7 @@
       <c r="B51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="17" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="1">
@@ -7422,7 +7422,7 @@
       <c r="B53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="1">
@@ -7483,7 +7483,7 @@
       <c r="B54" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D54" s="1">
@@ -7544,7 +7544,7 @@
       <c r="B55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="17" t="s">
         <v>218</v>
       </c>
       <c r="D55" s="1">
@@ -8398,7 +8398,7 @@
       <c r="B69" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D69" s="1">
@@ -10106,7 +10106,7 @@
       <c r="B97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D97" s="1">
@@ -10289,7 +10289,7 @@
       <c r="B100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="1">
@@ -10350,7 +10350,7 @@
       <c r="B101" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="17" t="s">
         <v>533</v>
       </c>
       <c r="D101" s="1">
@@ -15133,7 +15133,7 @@
       <c r="B180" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="17" t="s">
         <v>526</v>
       </c>
       <c r="D180" s="1">
@@ -15194,7 +15194,7 @@
       <c r="B181" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D181" s="1">
@@ -36352,7 +36352,7 @@
       <c r="B536" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C536" s="1" t="s">
+      <c r="C536" s="17" t="s">
         <v>1000</v>
       </c>
       <c r="D536" s="1">
@@ -36962,7 +36962,7 @@
       <c r="B546" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C546" s="1" t="s">
+      <c r="C546" s="17" t="s">
         <v>1019</v>
       </c>
       <c r="D546" s="1">
@@ -37084,7 +37084,7 @@
       <c r="B548" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C548" s="1" t="s">
+      <c r="C548" s="17" t="s">
         <v>1025</v>
       </c>
       <c r="D548" s="1">
@@ -37450,7 +37450,7 @@
       <c r="B554" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C554" s="1" t="s">
+      <c r="C554" s="17" t="s">
         <v>1038</v>
       </c>
       <c r="D554" s="1">
@@ -37633,7 +37633,7 @@
       <c r="B557" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C557" s="1" t="s">
+      <c r="C557" s="17" t="s">
         <v>1044</v>
       </c>
       <c r="D557" s="1">
@@ -38121,7 +38121,7 @@
       <c r="B565" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C565" s="1" t="s">
+      <c r="C565" s="17" t="s">
         <v>1071</v>
       </c>
       <c r="D565" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4323,10 +4323,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -7361,7 +7361,7 @@
       <c r="B52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D52" s="1">
@@ -8947,7 +8947,7 @@
       <c r="B78" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D78" s="1">
@@ -38510,7 +38510,7 @@
       <c r="B572" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C572" s="1" t="s">
+      <c r="C572" s="17" t="s">
         <v>1008</v>
       </c>
       <c r="D572" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3499,7 +3499,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3712,6 +3712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3928,7 +3934,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3985,6 +3991,9 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4323,10 +4332,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -10985,7 +10994,7 @@
       <c r="B112" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="17" t="s">
         <v>492</v>
       </c>
       <c r="D112" s="1">
@@ -11229,7 +11238,7 @@
       <c r="B116" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="17" t="s">
         <v>396</v>
       </c>
       <c r="D116" s="1">
@@ -11534,7 +11543,7 @@
       <c r="B121" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D121" s="1">
@@ -12754,7 +12763,7 @@
       <c r="B141" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="17" t="s">
         <v>240</v>
       </c>
       <c r="D141" s="1">
@@ -12937,7 +12946,7 @@
       <c r="B144" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="17" t="s">
         <v>300</v>
       </c>
       <c r="D144" s="1">
@@ -13669,7 +13678,7 @@
       <c r="B156" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="17" t="s">
         <v>250</v>
       </c>
       <c r="D156" s="1">
@@ -15951,7 +15960,7 @@
       <c r="B194" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="17" t="s">
         <v>437</v>
       </c>
       <c r="D194" s="1">
@@ -16195,7 +16204,7 @@
       <c r="B198" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="17" t="s">
         <v>460</v>
       </c>
       <c r="D198" s="1">
@@ -18818,7 +18827,7 @@
       <c r="B241" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D241" s="1">
@@ -21319,7 +21328,7 @@
       <c r="B282" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D282" s="1">
@@ -24308,7 +24317,7 @@
       <c r="B333" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C333" s="17" t="s">
         <v>731</v>
       </c>
       <c r="D333" s="1">
@@ -27075,7 +27084,7 @@
       <c r="B379" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="C379" s="17" t="s">
         <v>795</v>
       </c>
       <c r="D379" s="1">
@@ -29149,7 +29158,7 @@
       <c r="B413" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C413" s="1" t="s">
+      <c r="C413" s="17" t="s">
         <v>744</v>
       </c>
       <c r="D413" s="1">
@@ -34883,7 +34892,7 @@
       <c r="B509" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C509" s="1" t="s">
+      <c r="C509" s="22" t="s">
         <v>937</v>
       </c>
       <c r="D509" s="1">
@@ -35778,7 +35787,7 @@
       <c r="B526" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C526" s="1" t="s">
+      <c r="C526" s="18" t="s">
         <v>992</v>
       </c>
       <c r="D526" s="1">
@@ -36230,7 +36239,7 @@
       <c r="B534" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="C534" s="17" t="s">
         <v>1005</v>
       </c>
       <c r="D534" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3934,7 +3934,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3988,12 +3988,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4332,10 +4335,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C144" sqref="C144"/>
+      <selection pane="bottomRight" activeCell="A406" sqref="A406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4406,28 +4409,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4595,28 +4598,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -10628,7 +10631,7 @@
       <c r="B106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="17" t="s">
         <v>461</v>
       </c>
       <c r="D106" s="1">
@@ -11787,7 +11790,7 @@
       <c r="B125" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D125" s="1">
@@ -11909,7 +11912,7 @@
       <c r="B127" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="17" t="s">
         <v>352</v>
       </c>
       <c r="D127" s="1">
@@ -12702,7 +12705,7 @@
       <c r="B140" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D140" s="1">
@@ -12824,7 +12827,7 @@
       <c r="B142" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="17" t="s">
         <v>240</v>
       </c>
       <c r="D142" s="1">
@@ -12885,7 +12888,7 @@
       <c r="B143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="17" t="s">
         <v>240</v>
       </c>
       <c r="D143" s="1">
@@ -13434,7 +13437,7 @@
       <c r="B152" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D152" s="1">
@@ -13495,7 +13498,7 @@
       <c r="B153" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="17" t="s">
         <v>240</v>
       </c>
       <c r="D153" s="1">
@@ -19071,7 +19074,7 @@
       <c r="B245" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D245" s="1">
@@ -19864,7 +19867,7 @@
       <c r="B258" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D258" s="1">
@@ -21816,7 +21819,7 @@
       <c r="B290" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D290" s="1">
@@ -22182,7 +22185,7 @@
       <c r="B296" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D296" s="1">
@@ -22548,7 +22551,7 @@
       <c r="B302" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D302" s="1">
@@ -22609,7 +22612,7 @@
       <c r="B303" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D303" s="1">
@@ -22731,7 +22734,7 @@
       <c r="B305" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D305" s="1">
@@ -22914,7 +22917,7 @@
       <c r="B308" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D308" s="1">
@@ -24043,28 +24046,28 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="19" t="s">
+      <c r="A328" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="20"/>
-      <c r="E328" s="20"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="20"/>
-      <c r="H328" s="20"/>
-      <c r="I328" s="20"/>
-      <c r="J328" s="20"/>
-      <c r="K328" s="20"/>
-      <c r="L328" s="20"/>
-      <c r="M328" s="20"/>
-      <c r="N328" s="20"/>
-      <c r="O328" s="20"/>
-      <c r="P328" s="20"/>
-      <c r="Q328" s="20"/>
-      <c r="R328" s="20"/>
-      <c r="S328" s="20"/>
-      <c r="T328" s="21"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="22"/>
+      <c r="D328" s="22"/>
+      <c r="E328" s="22"/>
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
+      <c r="H328" s="22"/>
+      <c r="I328" s="22"/>
+      <c r="J328" s="22"/>
+      <c r="K328" s="22"/>
+      <c r="L328" s="22"/>
+      <c r="M328" s="22"/>
+      <c r="N328" s="22"/>
+      <c r="O328" s="22"/>
+      <c r="P328" s="22"/>
+      <c r="Q328" s="22"/>
+      <c r="R328" s="22"/>
+      <c r="S328" s="22"/>
+      <c r="T328" s="23"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
@@ -26047,7 +26050,7 @@
       <c r="B362" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="C362" s="17" t="s">
         <v>761</v>
       </c>
       <c r="D362" s="1">
@@ -28731,7 +28734,7 @@
       <c r="B406" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C406" s="1" t="s">
+      <c r="C406" s="17" t="s">
         <v>749</v>
       </c>
       <c r="D406" s="1">
@@ -30317,7 +30320,7 @@
       <c r="B432" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="C432" s="17" t="s">
         <v>676</v>
       </c>
       <c r="D432" s="1">
@@ -30378,7 +30381,7 @@
       <c r="B433" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C433" s="1" t="s">
+      <c r="C433" s="17" t="s">
         <v>678</v>
       </c>
       <c r="D433" s="1">
@@ -30439,7 +30442,7 @@
       <c r="B434" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="C434" s="17" t="s">
         <v>680</v>
       </c>
       <c r="D434" s="1">
@@ -34776,28 +34779,28 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="19" t="s">
+      <c r="A506" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="B506" s="20"/>
-      <c r="C506" s="20"/>
-      <c r="D506" s="20"/>
-      <c r="E506" s="20"/>
-      <c r="F506" s="20"/>
-      <c r="G506" s="20"/>
-      <c r="H506" s="20"/>
-      <c r="I506" s="20"/>
-      <c r="J506" s="20"/>
-      <c r="K506" s="20"/>
-      <c r="L506" s="20"/>
-      <c r="M506" s="20"/>
-      <c r="N506" s="20"/>
-      <c r="O506" s="20"/>
-      <c r="P506" s="20"/>
-      <c r="Q506" s="20"/>
-      <c r="R506" s="20"/>
-      <c r="S506" s="20"/>
-      <c r="T506" s="21"/>
+      <c r="B506" s="22"/>
+      <c r="C506" s="22"/>
+      <c r="D506" s="22"/>
+      <c r="E506" s="22"/>
+      <c r="F506" s="22"/>
+      <c r="G506" s="22"/>
+      <c r="H506" s="22"/>
+      <c r="I506" s="22"/>
+      <c r="J506" s="22"/>
+      <c r="K506" s="22"/>
+      <c r="L506" s="22"/>
+      <c r="M506" s="22"/>
+      <c r="N506" s="22"/>
+      <c r="O506" s="22"/>
+      <c r="P506" s="22"/>
+      <c r="Q506" s="22"/>
+      <c r="R506" s="22"/>
+      <c r="S506" s="22"/>
+      <c r="T506" s="23"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
@@ -34892,7 +34895,7 @@
       <c r="B509" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C509" s="22" t="s">
+      <c r="C509" s="19" t="s">
         <v>937</v>
       </c>
       <c r="D509" s="1">
@@ -35200,28 +35203,28 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="19" t="s">
+      <c r="A515" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="B515" s="20"/>
-      <c r="C515" s="20"/>
-      <c r="D515" s="20"/>
-      <c r="E515" s="20"/>
-      <c r="F515" s="20"/>
-      <c r="G515" s="20"/>
-      <c r="H515" s="20"/>
-      <c r="I515" s="20"/>
-      <c r="J515" s="20"/>
-      <c r="K515" s="20"/>
-      <c r="L515" s="20"/>
-      <c r="M515" s="20"/>
-      <c r="N515" s="20"/>
-      <c r="O515" s="20"/>
-      <c r="P515" s="20"/>
-      <c r="Q515" s="20"/>
-      <c r="R515" s="20"/>
-      <c r="S515" s="20"/>
-      <c r="T515" s="21"/>
+      <c r="B515" s="22"/>
+      <c r="C515" s="22"/>
+      <c r="D515" s="22"/>
+      <c r="E515" s="22"/>
+      <c r="F515" s="22"/>
+      <c r="G515" s="22"/>
+      <c r="H515" s="22"/>
+      <c r="I515" s="22"/>
+      <c r="J515" s="22"/>
+      <c r="K515" s="22"/>
+      <c r="L515" s="22"/>
+      <c r="M515" s="22"/>
+      <c r="N515" s="22"/>
+      <c r="O515" s="22"/>
+      <c r="P515" s="22"/>
+      <c r="Q515" s="22"/>
+      <c r="R515" s="22"/>
+      <c r="S515" s="22"/>
+      <c r="T515" s="23"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
@@ -35696,28 +35699,28 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="19" t="s">
+      <c r="A524" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="B524" s="20"/>
-      <c r="C524" s="20"/>
-      <c r="D524" s="20"/>
-      <c r="E524" s="20"/>
-      <c r="F524" s="20"/>
-      <c r="G524" s="20"/>
-      <c r="H524" s="20"/>
-      <c r="I524" s="20"/>
-      <c r="J524" s="20"/>
-      <c r="K524" s="20"/>
-      <c r="L524" s="20"/>
-      <c r="M524" s="20"/>
-      <c r="N524" s="20"/>
-      <c r="O524" s="20"/>
-      <c r="P524" s="20"/>
-      <c r="Q524" s="20"/>
-      <c r="R524" s="20"/>
-      <c r="S524" s="20"/>
-      <c r="T524" s="21"/>
+      <c r="B524" s="22"/>
+      <c r="C524" s="22"/>
+      <c r="D524" s="22"/>
+      <c r="E524" s="22"/>
+      <c r="F524" s="22"/>
+      <c r="G524" s="22"/>
+      <c r="H524" s="22"/>
+      <c r="I524" s="22"/>
+      <c r="J524" s="22"/>
+      <c r="K524" s="22"/>
+      <c r="L524" s="22"/>
+      <c r="M524" s="22"/>
+      <c r="N524" s="22"/>
+      <c r="O524" s="22"/>
+      <c r="P524" s="22"/>
+      <c r="Q524" s="22"/>
+      <c r="R524" s="22"/>
+      <c r="S524" s="22"/>
+      <c r="T524" s="23"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
@@ -38863,28 +38866,28 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="19" t="s">
+      <c r="A578" s="21" t="s">
         <v>1081</v>
       </c>
-      <c r="B578" s="20"/>
-      <c r="C578" s="20"/>
-      <c r="D578" s="20"/>
-      <c r="E578" s="20"/>
-      <c r="F578" s="20"/>
-      <c r="G578" s="20"/>
-      <c r="H578" s="20"/>
-      <c r="I578" s="20"/>
-      <c r="J578" s="20"/>
-      <c r="K578" s="20"/>
-      <c r="L578" s="20"/>
-      <c r="M578" s="20"/>
-      <c r="N578" s="20"/>
-      <c r="O578" s="20"/>
-      <c r="P578" s="20"/>
-      <c r="Q578" s="20"/>
-      <c r="R578" s="20"/>
-      <c r="S578" s="20"/>
-      <c r="T578" s="21"/>
+      <c r="B578" s="22"/>
+      <c r="C578" s="22"/>
+      <c r="D578" s="22"/>
+      <c r="E578" s="22"/>
+      <c r="F578" s="22"/>
+      <c r="G578" s="22"/>
+      <c r="H578" s="22"/>
+      <c r="I578" s="22"/>
+      <c r="J578" s="22"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="22"/>
+      <c r="M578" s="22"/>
+      <c r="N578" s="22"/>
+      <c r="O578" s="22"/>
+      <c r="P578" s="22"/>
+      <c r="Q578" s="22"/>
+      <c r="R578" s="22"/>
+      <c r="S578" s="22"/>
+      <c r="T578" s="23"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
@@ -39226,28 +39229,28 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="19" t="s">
+      <c r="A586" s="21" t="s">
         <v>1091</v>
       </c>
-      <c r="B586" s="20"/>
-      <c r="C586" s="20"/>
-      <c r="D586" s="20"/>
-      <c r="E586" s="20"/>
-      <c r="F586" s="20"/>
-      <c r="G586" s="20"/>
-      <c r="H586" s="20"/>
-      <c r="I586" s="20"/>
-      <c r="J586" s="20"/>
-      <c r="K586" s="20"/>
-      <c r="L586" s="20"/>
-      <c r="M586" s="20"/>
-      <c r="N586" s="20"/>
-      <c r="O586" s="20"/>
-      <c r="P586" s="20"/>
-      <c r="Q586" s="20"/>
-      <c r="R586" s="20"/>
-      <c r="S586" s="20"/>
-      <c r="T586" s="21"/>
+      <c r="B586" s="22"/>
+      <c r="C586" s="22"/>
+      <c r="D586" s="22"/>
+      <c r="E586" s="22"/>
+      <c r="F586" s="22"/>
+      <c r="G586" s="22"/>
+      <c r="H586" s="22"/>
+      <c r="I586" s="22"/>
+      <c r="J586" s="22"/>
+      <c r="K586" s="22"/>
+      <c r="L586" s="22"/>
+      <c r="M586" s="22"/>
+      <c r="N586" s="22"/>
+      <c r="O586" s="22"/>
+      <c r="P586" s="22"/>
+      <c r="Q586" s="22"/>
+      <c r="R586" s="22"/>
+      <c r="S586" s="22"/>
+      <c r="T586" s="23"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
@@ -39442,28 +39445,28 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="19" t="s">
+      <c r="A591" s="21" t="s">
         <v>1097</v>
       </c>
-      <c r="B591" s="20"/>
-      <c r="C591" s="20"/>
-      <c r="D591" s="20"/>
-      <c r="E591" s="20"/>
-      <c r="F591" s="20"/>
-      <c r="G591" s="20"/>
-      <c r="H591" s="20"/>
-      <c r="I591" s="20"/>
-      <c r="J591" s="20"/>
-      <c r="K591" s="20"/>
-      <c r="L591" s="20"/>
-      <c r="M591" s="20"/>
-      <c r="N591" s="20"/>
-      <c r="O591" s="20"/>
-      <c r="P591" s="20"/>
-      <c r="Q591" s="20"/>
-      <c r="R591" s="20"/>
-      <c r="S591" s="20"/>
-      <c r="T591" s="21"/>
+      <c r="B591" s="22"/>
+      <c r="C591" s="22"/>
+      <c r="D591" s="22"/>
+      <c r="E591" s="22"/>
+      <c r="F591" s="22"/>
+      <c r="G591" s="22"/>
+      <c r="H591" s="22"/>
+      <c r="I591" s="22"/>
+      <c r="J591" s="22"/>
+      <c r="K591" s="22"/>
+      <c r="L591" s="22"/>
+      <c r="M591" s="22"/>
+      <c r="N591" s="22"/>
+      <c r="O591" s="22"/>
+      <c r="P591" s="22"/>
+      <c r="Q591" s="22"/>
+      <c r="R591" s="22"/>
+      <c r="S591" s="22"/>
+      <c r="T591" s="23"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
@@ -39572,28 +39575,28 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="19" t="s">
+      <c r="A594" s="21" t="s">
         <v>1100</v>
       </c>
-      <c r="B594" s="20"/>
-      <c r="C594" s="20"/>
-      <c r="D594" s="20"/>
-      <c r="E594" s="20"/>
-      <c r="F594" s="20"/>
-      <c r="G594" s="20"/>
-      <c r="H594" s="20"/>
-      <c r="I594" s="20"/>
-      <c r="J594" s="20"/>
-      <c r="K594" s="20"/>
-      <c r="L594" s="20"/>
-      <c r="M594" s="20"/>
-      <c r="N594" s="20"/>
-      <c r="O594" s="20"/>
-      <c r="P594" s="20"/>
-      <c r="Q594" s="20"/>
-      <c r="R594" s="20"/>
-      <c r="S594" s="20"/>
-      <c r="T594" s="21"/>
+      <c r="B594" s="22"/>
+      <c r="C594" s="22"/>
+      <c r="D594" s="22"/>
+      <c r="E594" s="22"/>
+      <c r="F594" s="22"/>
+      <c r="G594" s="22"/>
+      <c r="H594" s="22"/>
+      <c r="I594" s="22"/>
+      <c r="J594" s="22"/>
+      <c r="K594" s="22"/>
+      <c r="L594" s="22"/>
+      <c r="M594" s="22"/>
+      <c r="N594" s="22"/>
+      <c r="O594" s="22"/>
+      <c r="P594" s="22"/>
+      <c r="Q594" s="22"/>
+      <c r="R594" s="22"/>
+      <c r="S594" s="22"/>
+      <c r="T594" s="23"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4335,10 +4335,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D402" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A406" sqref="A406"/>
+      <selection pane="bottomRight" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -9874,7 +9874,7 @@
       <c r="B93" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D93" s="1">
@@ -16146,7 +16146,7 @@
       <c r="B197" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="17" t="s">
         <v>458</v>
       </c>
       <c r="D197" s="1">
@@ -22124,7 +22124,7 @@
       <c r="B295" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C295" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D295" s="1">
@@ -22368,7 +22368,7 @@
       <c r="B299" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D299" s="1">
@@ -22978,7 +22978,7 @@
       <c r="B309" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D309" s="1">
@@ -23735,7 +23735,7 @@
       <c r="B322" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C322" s="17" t="s">
         <v>516</v>
       </c>
       <c r="D322" s="1">
@@ -23918,7 +23918,7 @@
       <c r="B325" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C325" s="17" t="s">
         <v>270</v>
       </c>
       <c r="D325" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4335,10 +4335,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A227" sqref="A227"/>
+      <selection pane="bottomRight" activeCell="A322" sqref="A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -9874,7 +9874,7 @@
       <c r="B93" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D93" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3934,7 +3934,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3997,6 +3997,9 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4335,10 +4338,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A322" sqref="A322"/>
+      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -9874,7 +9877,7 @@
       <c r="B93" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D93" s="1">
@@ -16390,7 +16393,7 @@
       <c r="B201" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="17" t="s">
         <v>461</v>
       </c>
       <c r="D201" s="1">
@@ -17366,7 +17369,7 @@
       <c r="B217" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D217" s="1">
@@ -17970,7 +17973,7 @@
       </c>
     </row>
     <row r="227" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="17" t="s">
         <v>399</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -18342,7 +18345,7 @@
       <c r="B233" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D233" s="1">
@@ -20782,7 +20785,7 @@
       <c r="B273" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D273" s="1">
@@ -21691,13 +21694,13 @@
       </c>
     </row>
     <row r="288" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C288" s="17" t="s">
+      <c r="C288" s="24" t="s">
         <v>187</v>
       </c>
       <c r="D288" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4338,10 +4338,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomRight" activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -17735,7 +17735,7 @@
       <c r="B223" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D223" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1104">
   <si>
     <t>Codigo</t>
   </si>
@@ -3994,12 +3994,12 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4338,10 +4338,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A223" sqref="A223"/>
+      <selection pane="bottomRight" activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4412,28 +4412,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4601,28 +4601,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -7431,14 +7431,14 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>213</v>
+      <c r="C53" s="21">
+        <v>85</v>
       </c>
       <c r="D53" s="1">
         <v>6.22</v>
@@ -11488,7 +11488,7 @@
       <c r="B120" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D120" s="1">
@@ -12159,7 +12159,7 @@
       <c r="B131" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D131" s="1">
@@ -12220,7 +12220,7 @@
       <c r="B132" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D132" s="1">
@@ -12464,7 +12464,7 @@
       <c r="B136" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D136" s="1">
@@ -12586,7 +12586,7 @@
       <c r="B138" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D138" s="1">
@@ -16027,7 +16027,7 @@
       <c r="B195" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D195" s="1">
@@ -16454,7 +16454,7 @@
       <c r="B202" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="17" t="s">
         <v>461</v>
       </c>
       <c r="D202" s="1">
@@ -16637,7 +16637,7 @@
       <c r="B205" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="17" t="s">
         <v>483</v>
       </c>
       <c r="D205" s="1">
@@ -16698,7 +16698,7 @@
       <c r="B206" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="17" t="s">
         <v>485</v>
       </c>
       <c r="D206" s="1">
@@ -17674,7 +17674,7 @@
       <c r="B222" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D222" s="1">
@@ -17979,7 +17979,7 @@
       <c r="B227" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D227" s="1">
@@ -18040,7 +18040,7 @@
       <c r="B228" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D228" s="1">
@@ -18589,7 +18589,7 @@
       <c r="B237" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D237" s="1">
@@ -18772,7 +18772,7 @@
       <c r="B240" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="17" t="s">
         <v>329</v>
       </c>
       <c r="D240" s="1">
@@ -19016,7 +19016,7 @@
       <c r="B244" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D244" s="1">
@@ -20053,7 +20053,7 @@
       <c r="B261" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="17" t="s">
         <v>305</v>
       </c>
       <c r="D261" s="1">
@@ -20114,7 +20114,7 @@
       <c r="B262" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="17" t="s">
         <v>307</v>
       </c>
       <c r="D262" s="1">
@@ -20175,7 +20175,7 @@
       <c r="B263" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="17" t="s">
         <v>309</v>
       </c>
       <c r="D263" s="1">
@@ -20297,7 +20297,7 @@
       <c r="B265" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="17" t="s">
         <v>313</v>
       </c>
       <c r="D265" s="1">
@@ -20419,7 +20419,7 @@
       <c r="B267" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="17" t="s">
         <v>298</v>
       </c>
       <c r="D267" s="1">
@@ -20907,7 +20907,7 @@
       <c r="B275" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D275" s="1">
@@ -21700,7 +21700,7 @@
       <c r="B288" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C288" s="24" t="s">
+      <c r="C288" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D288" s="1">
@@ -22005,7 +22005,7 @@
       <c r="B293" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C293" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D293" s="1">
@@ -22432,7 +22432,7 @@
       <c r="B300" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D300" s="1">
@@ -23225,7 +23225,7 @@
       <c r="B313" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="C313" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D313" s="1">
@@ -24049,28 +24049,28 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="21" t="s">
+      <c r="A328" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
-      <c r="D328" s="22"/>
-      <c r="E328" s="22"/>
-      <c r="F328" s="22"/>
-      <c r="G328" s="22"/>
-      <c r="H328" s="22"/>
-      <c r="I328" s="22"/>
-      <c r="J328" s="22"/>
-      <c r="K328" s="22"/>
-      <c r="L328" s="22"/>
-      <c r="M328" s="22"/>
-      <c r="N328" s="22"/>
-      <c r="O328" s="22"/>
-      <c r="P328" s="22"/>
-      <c r="Q328" s="22"/>
-      <c r="R328" s="22"/>
-      <c r="S328" s="22"/>
-      <c r="T328" s="23"/>
+      <c r="B328" s="23"/>
+      <c r="C328" s="23"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="23"/>
+      <c r="G328" s="23"/>
+      <c r="H328" s="23"/>
+      <c r="I328" s="23"/>
+      <c r="J328" s="23"/>
+      <c r="K328" s="23"/>
+      <c r="L328" s="23"/>
+      <c r="M328" s="23"/>
+      <c r="N328" s="23"/>
+      <c r="O328" s="23"/>
+      <c r="P328" s="23"/>
+      <c r="Q328" s="23"/>
+      <c r="R328" s="23"/>
+      <c r="S328" s="23"/>
+      <c r="T328" s="24"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
@@ -24528,7 +24528,7 @@
       <c r="B337" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C337" s="17" t="s">
         <v>893</v>
       </c>
       <c r="D337" s="1">
@@ -27151,7 +27151,7 @@
       <c r="B380" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="C380" s="17" t="s">
         <v>795</v>
       </c>
       <c r="D380" s="1">
@@ -28554,7 +28554,7 @@
       <c r="B403" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="C403" s="17" t="s">
         <v>843</v>
       </c>
       <c r="D403" s="1">
@@ -28676,7 +28676,7 @@
       <c r="B405" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="C405" s="17" t="s">
         <v>747</v>
       </c>
       <c r="D405" s="1">
@@ -29225,7 +29225,7 @@
       <c r="B414" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C414" s="1" t="s">
+      <c r="C414" s="17" t="s">
         <v>728</v>
       </c>
       <c r="D414" s="1">
@@ -34782,28 +34782,28 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="21" t="s">
+      <c r="A506" s="22" t="s">
         <v>928</v>
       </c>
-      <c r="B506" s="22"/>
-      <c r="C506" s="22"/>
-      <c r="D506" s="22"/>
-      <c r="E506" s="22"/>
-      <c r="F506" s="22"/>
-      <c r="G506" s="22"/>
-      <c r="H506" s="22"/>
-      <c r="I506" s="22"/>
-      <c r="J506" s="22"/>
-      <c r="K506" s="22"/>
-      <c r="L506" s="22"/>
-      <c r="M506" s="22"/>
-      <c r="N506" s="22"/>
-      <c r="O506" s="22"/>
-      <c r="P506" s="22"/>
-      <c r="Q506" s="22"/>
-      <c r="R506" s="22"/>
-      <c r="S506" s="22"/>
-      <c r="T506" s="23"/>
+      <c r="B506" s="23"/>
+      <c r="C506" s="23"/>
+      <c r="D506" s="23"/>
+      <c r="E506" s="23"/>
+      <c r="F506" s="23"/>
+      <c r="G506" s="23"/>
+      <c r="H506" s="23"/>
+      <c r="I506" s="23"/>
+      <c r="J506" s="23"/>
+      <c r="K506" s="23"/>
+      <c r="L506" s="23"/>
+      <c r="M506" s="23"/>
+      <c r="N506" s="23"/>
+      <c r="O506" s="23"/>
+      <c r="P506" s="23"/>
+      <c r="Q506" s="23"/>
+      <c r="R506" s="23"/>
+      <c r="S506" s="23"/>
+      <c r="T506" s="24"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
@@ -35206,28 +35206,28 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="21" t="s">
+      <c r="A515" s="22" t="s">
         <v>943</v>
       </c>
-      <c r="B515" s="22"/>
-      <c r="C515" s="22"/>
-      <c r="D515" s="22"/>
-      <c r="E515" s="22"/>
-      <c r="F515" s="22"/>
-      <c r="G515" s="22"/>
-      <c r="H515" s="22"/>
-      <c r="I515" s="22"/>
-      <c r="J515" s="22"/>
-      <c r="K515" s="22"/>
-      <c r="L515" s="22"/>
-      <c r="M515" s="22"/>
-      <c r="N515" s="22"/>
-      <c r="O515" s="22"/>
-      <c r="P515" s="22"/>
-      <c r="Q515" s="22"/>
-      <c r="R515" s="22"/>
-      <c r="S515" s="22"/>
-      <c r="T515" s="23"/>
+      <c r="B515" s="23"/>
+      <c r="C515" s="23"/>
+      <c r="D515" s="23"/>
+      <c r="E515" s="23"/>
+      <c r="F515" s="23"/>
+      <c r="G515" s="23"/>
+      <c r="H515" s="23"/>
+      <c r="I515" s="23"/>
+      <c r="J515" s="23"/>
+      <c r="K515" s="23"/>
+      <c r="L515" s="23"/>
+      <c r="M515" s="23"/>
+      <c r="N515" s="23"/>
+      <c r="O515" s="23"/>
+      <c r="P515" s="23"/>
+      <c r="Q515" s="23"/>
+      <c r="R515" s="23"/>
+      <c r="S515" s="23"/>
+      <c r="T515" s="24"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
@@ -35702,28 +35702,28 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="21" t="s">
+      <c r="A524" s="22" t="s">
         <v>962</v>
       </c>
-      <c r="B524" s="22"/>
-      <c r="C524" s="22"/>
-      <c r="D524" s="22"/>
-      <c r="E524" s="22"/>
-      <c r="F524" s="22"/>
-      <c r="G524" s="22"/>
-      <c r="H524" s="22"/>
-      <c r="I524" s="22"/>
-      <c r="J524" s="22"/>
-      <c r="K524" s="22"/>
-      <c r="L524" s="22"/>
-      <c r="M524" s="22"/>
-      <c r="N524" s="22"/>
-      <c r="O524" s="22"/>
-      <c r="P524" s="22"/>
-      <c r="Q524" s="22"/>
-      <c r="R524" s="22"/>
-      <c r="S524" s="22"/>
-      <c r="T524" s="23"/>
+      <c r="B524" s="23"/>
+      <c r="C524" s="23"/>
+      <c r="D524" s="23"/>
+      <c r="E524" s="23"/>
+      <c r="F524" s="23"/>
+      <c r="G524" s="23"/>
+      <c r="H524" s="23"/>
+      <c r="I524" s="23"/>
+      <c r="J524" s="23"/>
+      <c r="K524" s="23"/>
+      <c r="L524" s="23"/>
+      <c r="M524" s="23"/>
+      <c r="N524" s="23"/>
+      <c r="O524" s="23"/>
+      <c r="P524" s="23"/>
+      <c r="Q524" s="23"/>
+      <c r="R524" s="23"/>
+      <c r="S524" s="23"/>
+      <c r="T524" s="24"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
@@ -36489,7 +36489,7 @@
       <c r="B538" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C538" s="1" t="s">
+      <c r="C538" s="17" t="s">
         <v>990</v>
       </c>
       <c r="D538" s="1">
@@ -38869,28 +38869,28 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="21" t="s">
+      <c r="A578" s="22" t="s">
         <v>1081</v>
       </c>
-      <c r="B578" s="22"/>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22"/>
-      <c r="G578" s="22"/>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22"/>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22"/>
-      <c r="M578" s="22"/>
-      <c r="N578" s="22"/>
-      <c r="O578" s="22"/>
-      <c r="P578" s="22"/>
-      <c r="Q578" s="22"/>
-      <c r="R578" s="22"/>
-      <c r="S578" s="22"/>
-      <c r="T578" s="23"/>
+      <c r="B578" s="23"/>
+      <c r="C578" s="23"/>
+      <c r="D578" s="23"/>
+      <c r="E578" s="23"/>
+      <c r="F578" s="23"/>
+      <c r="G578" s="23"/>
+      <c r="H578" s="23"/>
+      <c r="I578" s="23"/>
+      <c r="J578" s="23"/>
+      <c r="K578" s="23"/>
+      <c r="L578" s="23"/>
+      <c r="M578" s="23"/>
+      <c r="N578" s="23"/>
+      <c r="O578" s="23"/>
+      <c r="P578" s="23"/>
+      <c r="Q578" s="23"/>
+      <c r="R578" s="23"/>
+      <c r="S578" s="23"/>
+      <c r="T578" s="24"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
@@ -39232,28 +39232,28 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="21" t="s">
+      <c r="A586" s="22" t="s">
         <v>1091</v>
       </c>
-      <c r="B586" s="22"/>
-      <c r="C586" s="22"/>
-      <c r="D586" s="22"/>
-      <c r="E586" s="22"/>
-      <c r="F586" s="22"/>
-      <c r="G586" s="22"/>
-      <c r="H586" s="22"/>
-      <c r="I586" s="22"/>
-      <c r="J586" s="22"/>
-      <c r="K586" s="22"/>
-      <c r="L586" s="22"/>
-      <c r="M586" s="22"/>
-      <c r="N586" s="22"/>
-      <c r="O586" s="22"/>
-      <c r="P586" s="22"/>
-      <c r="Q586" s="22"/>
-      <c r="R586" s="22"/>
-      <c r="S586" s="22"/>
-      <c r="T586" s="23"/>
+      <c r="B586" s="23"/>
+      <c r="C586" s="23"/>
+      <c r="D586" s="23"/>
+      <c r="E586" s="23"/>
+      <c r="F586" s="23"/>
+      <c r="G586" s="23"/>
+      <c r="H586" s="23"/>
+      <c r="I586" s="23"/>
+      <c r="J586" s="23"/>
+      <c r="K586" s="23"/>
+      <c r="L586" s="23"/>
+      <c r="M586" s="23"/>
+      <c r="N586" s="23"/>
+      <c r="O586" s="23"/>
+      <c r="P586" s="23"/>
+      <c r="Q586" s="23"/>
+      <c r="R586" s="23"/>
+      <c r="S586" s="23"/>
+      <c r="T586" s="24"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
@@ -39448,28 +39448,28 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="21" t="s">
+      <c r="A591" s="22" t="s">
         <v>1097</v>
       </c>
-      <c r="B591" s="22"/>
-      <c r="C591" s="22"/>
-      <c r="D591" s="22"/>
-      <c r="E591" s="22"/>
-      <c r="F591" s="22"/>
-      <c r="G591" s="22"/>
-      <c r="H591" s="22"/>
-      <c r="I591" s="22"/>
-      <c r="J591" s="22"/>
-      <c r="K591" s="22"/>
-      <c r="L591" s="22"/>
-      <c r="M591" s="22"/>
-      <c r="N591" s="22"/>
-      <c r="O591" s="22"/>
-      <c r="P591" s="22"/>
-      <c r="Q591" s="22"/>
-      <c r="R591" s="22"/>
-      <c r="S591" s="22"/>
-      <c r="T591" s="23"/>
+      <c r="B591" s="23"/>
+      <c r="C591" s="23"/>
+      <c r="D591" s="23"/>
+      <c r="E591" s="23"/>
+      <c r="F591" s="23"/>
+      <c r="G591" s="23"/>
+      <c r="H591" s="23"/>
+      <c r="I591" s="23"/>
+      <c r="J591" s="23"/>
+      <c r="K591" s="23"/>
+      <c r="L591" s="23"/>
+      <c r="M591" s="23"/>
+      <c r="N591" s="23"/>
+      <c r="O591" s="23"/>
+      <c r="P591" s="23"/>
+      <c r="Q591" s="23"/>
+      <c r="R591" s="23"/>
+      <c r="S591" s="23"/>
+      <c r="T591" s="24"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
@@ -39578,28 +39578,28 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="21" t="s">
+      <c r="A594" s="22" t="s">
         <v>1100</v>
       </c>
-      <c r="B594" s="22"/>
-      <c r="C594" s="22"/>
-      <c r="D594" s="22"/>
-      <c r="E594" s="22"/>
-      <c r="F594" s="22"/>
-      <c r="G594" s="22"/>
-      <c r="H594" s="22"/>
-      <c r="I594" s="22"/>
-      <c r="J594" s="22"/>
-      <c r="K594" s="22"/>
-      <c r="L594" s="22"/>
-      <c r="M594" s="22"/>
-      <c r="N594" s="22"/>
-      <c r="O594" s="22"/>
-      <c r="P594" s="22"/>
-      <c r="Q594" s="22"/>
-      <c r="R594" s="22"/>
-      <c r="S594" s="22"/>
-      <c r="T594" s="23"/>
+      <c r="B594" s="23"/>
+      <c r="C594" s="23"/>
+      <c r="D594" s="23"/>
+      <c r="E594" s="23"/>
+      <c r="F594" s="23"/>
+      <c r="G594" s="23"/>
+      <c r="H594" s="23"/>
+      <c r="I594" s="23"/>
+      <c r="J594" s="23"/>
+      <c r="K594" s="23"/>
+      <c r="L594" s="23"/>
+      <c r="M594" s="23"/>
+      <c r="N594" s="23"/>
+      <c r="O594" s="23"/>
+      <c r="P594" s="23"/>
+      <c r="Q594" s="23"/>
+      <c r="R594" s="23"/>
+      <c r="S594" s="23"/>
+      <c r="T594" s="24"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4338,10 +4338,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A244" sqref="A244"/>
+      <selection pane="bottomRight" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -21029,7 +21029,7 @@
       <c r="B277" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D277" s="1">
@@ -21151,7 +21151,7 @@
       <c r="B279" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D279" s="1">
@@ -24589,7 +24589,7 @@
       <c r="B338" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C338" s="17" t="s">
         <v>895</v>
       </c>
       <c r="D338" s="1">
@@ -24650,7 +24650,7 @@
       <c r="B339" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="17" t="s">
         <v>897</v>
       </c>
       <c r="D339" s="1">
@@ -24772,7 +24772,7 @@
       <c r="B341" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="C341" s="17" t="s">
         <v>901</v>
       </c>
       <c r="D341" s="1">
@@ -25016,7 +25016,7 @@
       <c r="B345" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C345" s="17" t="s">
         <v>909</v>
       </c>
       <c r="D345" s="1">
@@ -29774,7 +29774,7 @@
       <c r="B423" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C423" s="1" t="s">
+      <c r="C423" s="17" t="s">
         <v>701</v>
       </c>
       <c r="D423" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3934,7 +3934,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4000,6 +4000,9 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4338,10 +4341,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A339" sqref="A339"/>
+      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -11732,7 +11735,7 @@
       <c r="B124" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D124" s="1">
@@ -16088,7 +16091,7 @@
       <c r="B196" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D196" s="1">
@@ -16332,7 +16335,7 @@
       <c r="B200" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D200" s="1">
@@ -16576,7 +16579,7 @@
       <c r="B204" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D204" s="1">
@@ -17857,7 +17860,7 @@
       <c r="B225" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D225" s="1">
@@ -17918,7 +17921,7 @@
       <c r="B226" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D226" s="1">
@@ -18101,7 +18104,7 @@
       <c r="B229" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D229" s="1">
@@ -19687,7 +19690,7 @@
       <c r="B255" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D255" s="1">
@@ -19809,7 +19812,7 @@
       <c r="B257" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D257" s="1">
@@ -19931,7 +19934,7 @@
       <c r="B259" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D259" s="1">
@@ -19992,7 +19995,7 @@
       <c r="B260" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D260" s="1">
@@ -24711,7 +24714,7 @@
       <c r="B340" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="17" t="s">
         <v>899</v>
       </c>
       <c r="D340" s="1">
@@ -25260,7 +25263,7 @@
       <c r="B349" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="C349" s="17" t="s">
         <v>889</v>
       </c>
       <c r="D349" s="1">
@@ -26663,7 +26666,7 @@
       <c r="B372" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="C372" s="17" t="s">
         <v>781</v>
       </c>
       <c r="D372" s="1">
@@ -26724,7 +26727,7 @@
       <c r="B373" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="C373" s="17" t="s">
         <v>783</v>
       </c>
       <c r="D373" s="1">
@@ -27267,13 +27270,13 @@
       </c>
     </row>
     <row r="382" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="25" t="s">
         <v>798</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C382" s="17" t="s">
         <v>799</v>
       </c>
       <c r="D382" s="1">
@@ -27761,7 +27764,7 @@
       <c r="B390" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C390" s="17" t="s">
         <v>815</v>
       </c>
       <c r="D390" s="1">
@@ -27822,7 +27825,7 @@
       <c r="B391" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="C391" s="17" t="s">
         <v>817</v>
       </c>
       <c r="D391" s="1">
@@ -27883,7 +27886,7 @@
       <c r="B392" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="C392" s="17" t="s">
         <v>819</v>
       </c>
       <c r="D392" s="1">
@@ -27944,7 +27947,7 @@
       <c r="B393" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="C393" s="17" t="s">
         <v>821</v>
       </c>
       <c r="D393" s="1">
@@ -28005,7 +28008,7 @@
       <c r="B394" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="C394" s="17" t="s">
         <v>823</v>
       </c>
       <c r="D394" s="1">
@@ -29103,7 +29106,7 @@
       <c r="B412" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C412" s="1" t="s">
+      <c r="C412" s="17" t="s">
         <v>742</v>
       </c>
       <c r="D412" s="1">
@@ -29896,7 +29899,7 @@
       <c r="B425" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="C425" s="17" t="s">
         <v>683</v>
       </c>
       <c r="D425" s="1">
@@ -30018,7 +30021,7 @@
       <c r="B427" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C427" s="1" t="s">
+      <c r="C427" s="17" t="s">
         <v>687</v>
       </c>
       <c r="D427" s="1">
@@ -30079,7 +30082,7 @@
       <c r="B428" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C428" s="1" t="s">
+      <c r="C428" s="17" t="s">
         <v>689</v>
       </c>
       <c r="D428" s="1">
@@ -33190,7 +33193,7 @@
       <c r="B479" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C479" s="1" t="s">
+      <c r="C479" s="17" t="s">
         <v>583</v>
       </c>
       <c r="D479" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3997,12 +3997,12 @@
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4341,10 +4341,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
+      <selection pane="bottomRight" activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4415,28 +4415,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4604,28 +4604,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -16823,7 +16823,7 @@
       <c r="B208" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="17" t="s">
         <v>487</v>
       </c>
       <c r="D208" s="1">
@@ -17128,7 +17128,7 @@
       <c r="B213" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D213" s="1">
@@ -17189,7 +17189,7 @@
       <c r="B214" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D214" s="1">
@@ -17250,7 +17250,7 @@
       <c r="B215" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D215" s="1">
@@ -17311,7 +17311,7 @@
       <c r="B216" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="17" t="s">
         <v>503</v>
       </c>
       <c r="D216" s="1">
@@ -17854,7 +17854,7 @@
       </c>
     </row>
     <row r="225" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="17" t="s">
         <v>394</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -18226,7 +18226,7 @@
       <c r="B231" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D231" s="1">
@@ -18470,7 +18470,7 @@
       <c r="B235" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D235" s="1">
@@ -19385,7 +19385,7 @@
       <c r="B250" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D250" s="1">
@@ -19507,7 +19507,7 @@
       <c r="B252" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D252" s="1">
@@ -19568,7 +19568,7 @@
       <c r="B253" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D253" s="1">
@@ -20483,7 +20483,7 @@
       <c r="B268" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="17" t="s">
         <v>302</v>
       </c>
       <c r="D268" s="1">
@@ -23350,7 +23350,7 @@
       <c r="B315" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D315" s="1">
@@ -23594,7 +23594,7 @@
       <c r="B319" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C319" s="17" t="s">
         <v>521</v>
       </c>
       <c r="D319" s="1">
@@ -24052,28 +24052,28 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="22" t="s">
+      <c r="A328" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="B328" s="23"/>
-      <c r="C328" s="23"/>
-      <c r="D328" s="23"/>
-      <c r="E328" s="23"/>
-      <c r="F328" s="23"/>
-      <c r="G328" s="23"/>
-      <c r="H328" s="23"/>
-      <c r="I328" s="23"/>
-      <c r="J328" s="23"/>
-      <c r="K328" s="23"/>
-      <c r="L328" s="23"/>
-      <c r="M328" s="23"/>
-      <c r="N328" s="23"/>
-      <c r="O328" s="23"/>
-      <c r="P328" s="23"/>
-      <c r="Q328" s="23"/>
-      <c r="R328" s="23"/>
-      <c r="S328" s="23"/>
-      <c r="T328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="24"/>
+      <c r="F328" s="24"/>
+      <c r="G328" s="24"/>
+      <c r="H328" s="24"/>
+      <c r="I328" s="24"/>
+      <c r="J328" s="24"/>
+      <c r="K328" s="24"/>
+      <c r="L328" s="24"/>
+      <c r="M328" s="24"/>
+      <c r="N328" s="24"/>
+      <c r="O328" s="24"/>
+      <c r="P328" s="24"/>
+      <c r="Q328" s="24"/>
+      <c r="R328" s="24"/>
+      <c r="S328" s="24"/>
+      <c r="T328" s="25"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
@@ -25080,7 +25080,7 @@
       <c r="B346" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C346" s="17" t="s">
         <v>911</v>
       </c>
       <c r="D346" s="1">
@@ -27270,7 +27270,7 @@
       </c>
     </row>
     <row r="382" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A382" s="25" t="s">
+      <c r="A382" s="22" t="s">
         <v>798</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -27398,7 +27398,7 @@
       <c r="B384" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="C384" s="17" t="s">
         <v>803</v>
       </c>
       <c r="D384" s="1">
@@ -27459,7 +27459,7 @@
       <c r="B385" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C385" s="17" t="s">
         <v>805</v>
       </c>
       <c r="D385" s="1">
@@ -27520,7 +27520,7 @@
       <c r="B386" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="C386" s="17" t="s">
         <v>807</v>
       </c>
       <c r="D386" s="1">
@@ -27581,7 +27581,7 @@
       <c r="B387" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="C387" s="17" t="s">
         <v>809</v>
       </c>
       <c r="D387" s="1">
@@ -27642,7 +27642,7 @@
       <c r="B388" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="C388" s="17" t="s">
         <v>811</v>
       </c>
       <c r="D388" s="1">
@@ -27703,7 +27703,7 @@
       <c r="B389" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C389" s="17" t="s">
         <v>813</v>
       </c>
       <c r="D389" s="1">
@@ -34785,28 +34785,28 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="22" t="s">
+      <c r="A506" s="23" t="s">
         <v>928</v>
       </c>
-      <c r="B506" s="23"/>
-      <c r="C506" s="23"/>
-      <c r="D506" s="23"/>
-      <c r="E506" s="23"/>
-      <c r="F506" s="23"/>
-      <c r="G506" s="23"/>
-      <c r="H506" s="23"/>
-      <c r="I506" s="23"/>
-      <c r="J506" s="23"/>
-      <c r="K506" s="23"/>
-      <c r="L506" s="23"/>
-      <c r="M506" s="23"/>
-      <c r="N506" s="23"/>
-      <c r="O506" s="23"/>
-      <c r="P506" s="23"/>
-      <c r="Q506" s="23"/>
-      <c r="R506" s="23"/>
-      <c r="S506" s="23"/>
-      <c r="T506" s="24"/>
+      <c r="B506" s="24"/>
+      <c r="C506" s="24"/>
+      <c r="D506" s="24"/>
+      <c r="E506" s="24"/>
+      <c r="F506" s="24"/>
+      <c r="G506" s="24"/>
+      <c r="H506" s="24"/>
+      <c r="I506" s="24"/>
+      <c r="J506" s="24"/>
+      <c r="K506" s="24"/>
+      <c r="L506" s="24"/>
+      <c r="M506" s="24"/>
+      <c r="N506" s="24"/>
+      <c r="O506" s="24"/>
+      <c r="P506" s="24"/>
+      <c r="Q506" s="24"/>
+      <c r="R506" s="24"/>
+      <c r="S506" s="24"/>
+      <c r="T506" s="25"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
@@ -35209,28 +35209,28 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="22" t="s">
+      <c r="A515" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="B515" s="23"/>
-      <c r="C515" s="23"/>
-      <c r="D515" s="23"/>
-      <c r="E515" s="23"/>
-      <c r="F515" s="23"/>
-      <c r="G515" s="23"/>
-      <c r="H515" s="23"/>
-      <c r="I515" s="23"/>
-      <c r="J515" s="23"/>
-      <c r="K515" s="23"/>
-      <c r="L515" s="23"/>
-      <c r="M515" s="23"/>
-      <c r="N515" s="23"/>
-      <c r="O515" s="23"/>
-      <c r="P515" s="23"/>
-      <c r="Q515" s="23"/>
-      <c r="R515" s="23"/>
-      <c r="S515" s="23"/>
-      <c r="T515" s="24"/>
+      <c r="B515" s="24"/>
+      <c r="C515" s="24"/>
+      <c r="D515" s="24"/>
+      <c r="E515" s="24"/>
+      <c r="F515" s="24"/>
+      <c r="G515" s="24"/>
+      <c r="H515" s="24"/>
+      <c r="I515" s="24"/>
+      <c r="J515" s="24"/>
+      <c r="K515" s="24"/>
+      <c r="L515" s="24"/>
+      <c r="M515" s="24"/>
+      <c r="N515" s="24"/>
+      <c r="O515" s="24"/>
+      <c r="P515" s="24"/>
+      <c r="Q515" s="24"/>
+      <c r="R515" s="24"/>
+      <c r="S515" s="24"/>
+      <c r="T515" s="25"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
@@ -35705,28 +35705,28 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="22" t="s">
+      <c r="A524" s="23" t="s">
         <v>962</v>
       </c>
-      <c r="B524" s="23"/>
-      <c r="C524" s="23"/>
-      <c r="D524" s="23"/>
-      <c r="E524" s="23"/>
-      <c r="F524" s="23"/>
-      <c r="G524" s="23"/>
-      <c r="H524" s="23"/>
-      <c r="I524" s="23"/>
-      <c r="J524" s="23"/>
-      <c r="K524" s="23"/>
-      <c r="L524" s="23"/>
-      <c r="M524" s="23"/>
-      <c r="N524" s="23"/>
-      <c r="O524" s="23"/>
-      <c r="P524" s="23"/>
-      <c r="Q524" s="23"/>
-      <c r="R524" s="23"/>
-      <c r="S524" s="23"/>
-      <c r="T524" s="24"/>
+      <c r="B524" s="24"/>
+      <c r="C524" s="24"/>
+      <c r="D524" s="24"/>
+      <c r="E524" s="24"/>
+      <c r="F524" s="24"/>
+      <c r="G524" s="24"/>
+      <c r="H524" s="24"/>
+      <c r="I524" s="24"/>
+      <c r="J524" s="24"/>
+      <c r="K524" s="24"/>
+      <c r="L524" s="24"/>
+      <c r="M524" s="24"/>
+      <c r="N524" s="24"/>
+      <c r="O524" s="24"/>
+      <c r="P524" s="24"/>
+      <c r="Q524" s="24"/>
+      <c r="R524" s="24"/>
+      <c r="S524" s="24"/>
+      <c r="T524" s="25"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
@@ -38589,7 +38589,7 @@
       <c r="B573" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C573" s="1" t="s">
+      <c r="C573" s="17" t="s">
         <v>995</v>
       </c>
       <c r="D573" s="1">
@@ -38872,28 +38872,28 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="22" t="s">
+      <c r="A578" s="23" t="s">
         <v>1081</v>
       </c>
-      <c r="B578" s="23"/>
-      <c r="C578" s="23"/>
-      <c r="D578" s="23"/>
-      <c r="E578" s="23"/>
-      <c r="F578" s="23"/>
-      <c r="G578" s="23"/>
-      <c r="H578" s="23"/>
-      <c r="I578" s="23"/>
-      <c r="J578" s="23"/>
-      <c r="K578" s="23"/>
-      <c r="L578" s="23"/>
-      <c r="M578" s="23"/>
-      <c r="N578" s="23"/>
-      <c r="O578" s="23"/>
-      <c r="P578" s="23"/>
-      <c r="Q578" s="23"/>
-      <c r="R578" s="23"/>
-      <c r="S578" s="23"/>
-      <c r="T578" s="24"/>
+      <c r="B578" s="24"/>
+      <c r="C578" s="24"/>
+      <c r="D578" s="24"/>
+      <c r="E578" s="24"/>
+      <c r="F578" s="24"/>
+      <c r="G578" s="24"/>
+      <c r="H578" s="24"/>
+      <c r="I578" s="24"/>
+      <c r="J578" s="24"/>
+      <c r="K578" s="24"/>
+      <c r="L578" s="24"/>
+      <c r="M578" s="24"/>
+      <c r="N578" s="24"/>
+      <c r="O578" s="24"/>
+      <c r="P578" s="24"/>
+      <c r="Q578" s="24"/>
+      <c r="R578" s="24"/>
+      <c r="S578" s="24"/>
+      <c r="T578" s="25"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
@@ -39235,28 +39235,28 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="22" t="s">
+      <c r="A586" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="B586" s="23"/>
-      <c r="C586" s="23"/>
-      <c r="D586" s="23"/>
-      <c r="E586" s="23"/>
-      <c r="F586" s="23"/>
-      <c r="G586" s="23"/>
-      <c r="H586" s="23"/>
-      <c r="I586" s="23"/>
-      <c r="J586" s="23"/>
-      <c r="K586" s="23"/>
-      <c r="L586" s="23"/>
-      <c r="M586" s="23"/>
-      <c r="N586" s="23"/>
-      <c r="O586" s="23"/>
-      <c r="P586" s="23"/>
-      <c r="Q586" s="23"/>
-      <c r="R586" s="23"/>
-      <c r="S586" s="23"/>
-      <c r="T586" s="24"/>
+      <c r="B586" s="24"/>
+      <c r="C586" s="24"/>
+      <c r="D586" s="24"/>
+      <c r="E586" s="24"/>
+      <c r="F586" s="24"/>
+      <c r="G586" s="24"/>
+      <c r="H586" s="24"/>
+      <c r="I586" s="24"/>
+      <c r="J586" s="24"/>
+      <c r="K586" s="24"/>
+      <c r="L586" s="24"/>
+      <c r="M586" s="24"/>
+      <c r="N586" s="24"/>
+      <c r="O586" s="24"/>
+      <c r="P586" s="24"/>
+      <c r="Q586" s="24"/>
+      <c r="R586" s="24"/>
+      <c r="S586" s="24"/>
+      <c r="T586" s="25"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
@@ -39451,28 +39451,28 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="22" t="s">
+      <c r="A591" s="23" t="s">
         <v>1097</v>
       </c>
-      <c r="B591" s="23"/>
-      <c r="C591" s="23"/>
-      <c r="D591" s="23"/>
-      <c r="E591" s="23"/>
-      <c r="F591" s="23"/>
-      <c r="G591" s="23"/>
-      <c r="H591" s="23"/>
-      <c r="I591" s="23"/>
-      <c r="J591" s="23"/>
-      <c r="K591" s="23"/>
-      <c r="L591" s="23"/>
-      <c r="M591" s="23"/>
-      <c r="N591" s="23"/>
-      <c r="O591" s="23"/>
-      <c r="P591" s="23"/>
-      <c r="Q591" s="23"/>
-      <c r="R591" s="23"/>
-      <c r="S591" s="23"/>
-      <c r="T591" s="24"/>
+      <c r="B591" s="24"/>
+      <c r="C591" s="24"/>
+      <c r="D591" s="24"/>
+      <c r="E591" s="24"/>
+      <c r="F591" s="24"/>
+      <c r="G591" s="24"/>
+      <c r="H591" s="24"/>
+      <c r="I591" s="24"/>
+      <c r="J591" s="24"/>
+      <c r="K591" s="24"/>
+      <c r="L591" s="24"/>
+      <c r="M591" s="24"/>
+      <c r="N591" s="24"/>
+      <c r="O591" s="24"/>
+      <c r="P591" s="24"/>
+      <c r="Q591" s="24"/>
+      <c r="R591" s="24"/>
+      <c r="S591" s="24"/>
+      <c r="T591" s="25"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
@@ -39581,28 +39581,28 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="22" t="s">
+      <c r="A594" s="23" t="s">
         <v>1100</v>
       </c>
-      <c r="B594" s="23"/>
-      <c r="C594" s="23"/>
-      <c r="D594" s="23"/>
-      <c r="E594" s="23"/>
-      <c r="F594" s="23"/>
-      <c r="G594" s="23"/>
-      <c r="H594" s="23"/>
-      <c r="I594" s="23"/>
-      <c r="J594" s="23"/>
-      <c r="K594" s="23"/>
-      <c r="L594" s="23"/>
-      <c r="M594" s="23"/>
-      <c r="N594" s="23"/>
-      <c r="O594" s="23"/>
-      <c r="P594" s="23"/>
-      <c r="Q594" s="23"/>
-      <c r="R594" s="23"/>
-      <c r="S594" s="23"/>
-      <c r="T594" s="24"/>
+      <c r="B594" s="24"/>
+      <c r="C594" s="24"/>
+      <c r="D594" s="24"/>
+      <c r="E594" s="24"/>
+      <c r="F594" s="24"/>
+      <c r="G594" s="24"/>
+      <c r="H594" s="24"/>
+      <c r="I594" s="24"/>
+      <c r="J594" s="24"/>
+      <c r="K594" s="24"/>
+      <c r="L594" s="24"/>
+      <c r="M594" s="24"/>
+      <c r="N594" s="24"/>
+      <c r="O594" s="24"/>
+      <c r="P594" s="24"/>
+      <c r="Q594" s="24"/>
+      <c r="R594" s="24"/>
+      <c r="S594" s="24"/>
+      <c r="T594" s="25"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4341,10 +4341,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A178" sqref="A178"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -6403,7 +6403,7 @@
       <c r="B36" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D36" s="1">
@@ -6464,7 +6464,7 @@
       <c r="B37" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D37" s="1">
@@ -6525,7 +6525,7 @@
       <c r="B38" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="17" t="s">
         <v>329</v>
       </c>
       <c r="D38" s="1">
@@ -8050,7 +8050,7 @@
       <c r="B63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D63" s="1">
@@ -10002,7 +10002,7 @@
       <c r="B95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D95" s="1">
@@ -10576,7 +10576,7 @@
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="17" t="s">
         <v>454</v>
       </c>
       <c r="D105" s="1">
@@ -17616,7 +17616,7 @@
       <c r="B221" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="17" t="s">
         <v>510</v>
       </c>
       <c r="D221" s="1">
@@ -21276,7 +21276,7 @@
       <c r="B281" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D281" s="1">
@@ -25141,7 +25141,7 @@
       <c r="B347" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C347" s="17" t="s">
         <v>913</v>
       </c>
       <c r="D347" s="1">
@@ -36431,7 +36431,7 @@
       <c r="B537" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C537" s="1" t="s">
+      <c r="C537" s="17" t="s">
         <v>992</v>
       </c>
       <c r="D537" s="1">
@@ -36858,7 +36858,7 @@
       <c r="B544" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C544" s="1" t="s">
+      <c r="C544" s="17" t="s">
         <v>1013</v>
       </c>
       <c r="D544" s="1">
@@ -38711,7 +38711,7 @@
       <c r="B575" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C575" s="1" t="s">
+      <c r="C575" s="17" t="s">
         <v>979</v>
       </c>
       <c r="D575" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4341,10 +4341,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -6342,7 +6342,7 @@
       <c r="B35" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D35" s="1">
@@ -17494,7 +17494,7 @@
       <c r="B219" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D219" s="1">
@@ -17555,7 +17555,7 @@
       <c r="B220" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D220" s="1">
@@ -25202,7 +25202,7 @@
       <c r="B348" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C348" s="17" t="s">
         <v>915</v>
       </c>
       <c r="D348" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4341,10 +4341,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D340" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A219" sqref="A219"/>
+      <selection pane="bottomRight" activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -11064,7 +11064,7 @@
       <c r="B113" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="17" t="s">
         <v>497</v>
       </c>
       <c r="D113" s="1">
@@ -18409,7 +18409,7 @@
       <c r="B234" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D234" s="1">
@@ -20849,7 +20849,7 @@
       <c r="B274" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D274" s="1">
@@ -24958,7 +24958,7 @@
       <c r="B344" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C344" s="17" t="s">
         <v>907</v>
       </c>
       <c r="D344" s="1">
@@ -27337,7 +27337,7 @@
       <c r="B383" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="C383" s="17" t="s">
         <v>801</v>
       </c>
       <c r="D383" s="1">
@@ -35918,7 +35918,7 @@
       <c r="B528" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C528" s="1" t="s">
+      <c r="C528" s="19" t="s">
         <v>982</v>
       </c>
       <c r="D528" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4341,10 +4341,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D340" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D473" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A344" sqref="A344"/>
+      <selection pane="bottomRight" activeCell="A477" sqref="A477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -5366,7 +5366,7 @@
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D19" s="1">
@@ -11125,7 +11125,7 @@
       <c r="B114" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D114" s="1">
@@ -11430,7 +11430,7 @@
       <c r="B119" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D119" s="1">
@@ -12284,7 +12284,7 @@
       <c r="B133" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D133" s="1">
@@ -13870,7 +13870,7 @@
       <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="17" t="s">
         <v>159</v>
       </c>
       <c r="D159" s="1">
@@ -21764,7 +21764,7 @@
       <c r="B289" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="17" t="s">
         <v>175</v>
       </c>
       <c r="D289" s="1">
@@ -22069,7 +22069,7 @@
       <c r="B294" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C294" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D294" s="1">
@@ -24836,7 +24836,7 @@
       <c r="B342" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C342" s="17" t="s">
         <v>903</v>
       </c>
       <c r="D342" s="1">
@@ -25629,7 +25629,7 @@
       <c r="B355" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="17" t="s">
         <v>865</v>
       </c>
       <c r="D355" s="1">
@@ -25995,7 +25995,7 @@
       <c r="B361" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="C361" s="17" t="s">
         <v>759</v>
       </c>
       <c r="D361" s="1">
@@ -28130,7 +28130,7 @@
       <c r="B396" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="C396" s="17" t="s">
         <v>827</v>
       </c>
       <c r="D396" s="1">
@@ -28252,7 +28252,7 @@
       <c r="B398" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="C398" s="17" t="s">
         <v>831</v>
       </c>
       <c r="D398" s="1">
@@ -33071,7 +33071,7 @@
       <c r="B477" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C477" s="1" t="s">
+      <c r="C477" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D477" s="1">
@@ -33254,7 +33254,7 @@
       <c r="B480" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C480" s="1" t="s">
+      <c r="C480" s="17" t="s">
         <v>580</v>
       </c>
       <c r="D480" s="1">
@@ -35483,7 +35483,7 @@
       <c r="B520" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C520" s="1" t="s">
+      <c r="C520" s="17" t="s">
         <v>956</v>
       </c>
       <c r="D520" s="1">
@@ -35544,7 +35544,7 @@
       <c r="B521" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C521" s="1" t="s">
+      <c r="C521" s="17" t="s">
         <v>958</v>
       </c>
       <c r="D521" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3332,7 +3332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -3495,6 +3495,11 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3934,7 +3939,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4003,6 +4008,9 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4341,10 +4349,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D473" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A477" sqref="A477"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -5610,7 +5618,7 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="17" t="s">
         <v>435</v>
       </c>
       <c r="D23" s="1">
@@ -7684,7 +7692,7 @@
       <c r="B57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="17" t="s">
         <v>222</v>
       </c>
       <c r="D57" s="1">
@@ -17067,7 +17075,7 @@
       <c r="B212" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D212" s="1">
@@ -27215,7 +27223,7 @@
       <c r="B381" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="C381" s="17" t="s">
         <v>795</v>
       </c>
       <c r="D381" s="1">
@@ -28191,7 +28199,7 @@
       <c r="B397" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="C397" s="17" t="s">
         <v>829</v>
       </c>
       <c r="D397" s="1">
@@ -28313,7 +28321,7 @@
       <c r="B399" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="C399" s="17" t="s">
         <v>833</v>
       </c>
       <c r="D399" s="1">
@@ -28374,7 +28382,7 @@
       <c r="B400" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="C400" s="26" t="s">
         <v>835</v>
       </c>
       <c r="D400" s="1">
@@ -28435,7 +28443,7 @@
       <c r="B401" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="C401" s="17" t="s">
         <v>837</v>
       </c>
       <c r="D401" s="1">
@@ -28496,7 +28504,7 @@
       <c r="B402" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="C402" s="17" t="s">
         <v>839</v>
       </c>
       <c r="D402" s="1">
@@ -30143,7 +30151,7 @@
       <c r="B429" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C429" s="1" t="s">
+      <c r="C429" s="17" t="s">
         <v>691</v>
       </c>
       <c r="D429" s="1">
@@ -30204,7 +30212,7 @@
       <c r="B430" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="C430" s="17" t="s">
         <v>693</v>
       </c>
       <c r="D430" s="1">
@@ -30265,7 +30273,7 @@
       <c r="B431" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="C431" s="17" t="s">
         <v>695</v>
       </c>
       <c r="D431" s="1">
@@ -35918,7 +35926,7 @@
       <c r="B528" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C528" s="19" t="s">
+      <c r="C528" s="17" t="s">
         <v>982</v>
       </c>
       <c r="D528" s="1">
@@ -37224,7 +37232,7 @@
       <c r="B550" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C550" s="1" t="s">
+      <c r="C550" s="17" t="s">
         <v>1030</v>
       </c>
       <c r="D550" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -1378,9 +1378,6 @@
     <t>20.08.03.00012</t>
   </si>
   <si>
-    <t>1 PZA. TABURETE DE MADERA CON ASIENTO FORRADO CON CUERINA CAFÃ</t>
-  </si>
-  <si>
     <t>30.11.03.00050</t>
   </si>
   <si>
@@ -2575,9 +2572,6 @@
     <t>2000-07-21</t>
   </si>
   <si>
-    <t>1 GLB. TRANSFORMADOR TRIFÃSICO DE 5KVA, COLOR PLOMO NÂº 24274, POTENCIA 5000 VA</t>
-  </si>
-  <si>
     <t>30.11.04.00024</t>
   </si>
   <si>
@@ -2689,9 +2683,6 @@
     <t>10.05.04.00127</t>
   </si>
   <si>
-    <t>1 GLB. TRANSFORMADOR ELÃCTRICO ROMAGNOLE E INSTALACIÃN ELÃCTRICA</t>
-  </si>
-  <si>
     <t>30.11.04.00073</t>
   </si>
   <si>
@@ -2818,18 +2809,12 @@
     <t>2003-12-08</t>
   </si>
   <si>
-    <t>1 GLOB. FURGONETA MARCA FIAT MODELO FIORINO PLACA B 1195 FLD COLOR BLANCO MOTOR NO 6355113 AÃO 2002 CHASIS NO 9BD25521338723207</t>
-  </si>
-  <si>
     <t>20.19.05.00006</t>
   </si>
   <si>
     <t>1999-10-18</t>
   </si>
   <si>
-    <t>1 GLOB. CAMIONETA MARCA KIA MODELO CERES 4X2 B CHASIS NoKNCSB2122W6848334 MOTOR No SC- 031124 COLOR BLANCO AÃO 1998 PLACA 984 XTY</t>
-  </si>
-  <si>
     <t>20.19.05.00010</t>
   </si>
   <si>
@@ -3326,6 +3311,21 @@
   </si>
   <si>
     <t>EDIFICACIONES(GALPONES, PORTERIA, UNIDAD EXPORTACION, AREAS AUXILIARE)CONFORME INMUEBLES H.A.M.</t>
+  </si>
+  <si>
+    <t>1 PZA. TABURETE DE MADERA CON ASIENTO FORRADO CON CUERINA CAFÉ</t>
+  </si>
+  <si>
+    <t>1 GLB. TRANSFORMADOR ELECTRICO ROMAGNOLE E INSTALACION ELECTRICA</t>
+  </si>
+  <si>
+    <t>1 GLB. TRANSFORMADOR TRIFÃSICO DE 5KVA, COLOR PLOMO No. 24274, POTENCIA 5000 VA</t>
+  </si>
+  <si>
+    <t>1 GLOB. CAMIONETA MARCA KIA MODELO CERES 4X2 B CHASIS NoKNCSB2122W6848334 MOTOR No SC- 031124 COLOR BLANCO AÑO 1998 PLACA 984 XTY</t>
+  </si>
+  <si>
+    <t>1 GLOB. FURGONETA MARCA FIAT MODELO FIORINO PLACA B 1195 FLD COLOR BLANCO MOTOR NO 6355113 AÑO 2002 CHASIS NO 9BD25521338723207</t>
   </si>
 </sst>
 </file>
@@ -3504,7 +3504,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3705,12 +3705,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3939,7 +3933,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3987,28 +3981,25 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4349,10 +4340,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4423,28 +4414,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4612,28 +4603,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -5191,7 +5182,7 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="16" t="s">
         <v>422</v>
       </c>
       <c r="D16" s="1">
@@ -5252,7 +5243,7 @@
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="16" t="s">
         <v>422</v>
       </c>
       <c r="D17" s="1">
@@ -5374,7 +5365,7 @@
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D19" s="1">
@@ -5435,7 +5426,7 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>429</v>
       </c>
       <c r="D20" s="1">
@@ -5557,7 +5548,7 @@
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="16" t="s">
         <v>433</v>
       </c>
       <c r="D22" s="1">
@@ -5618,7 +5609,7 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>435</v>
       </c>
       <c r="D23" s="1">
@@ -6101,13 +6092,13 @@
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D31" s="1">
         <v>5.85</v>
@@ -6162,7 +6153,7 @@
     </row>
     <row r="32" spans="1:20" ht="24.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -6223,13 +6214,13 @@
     </row>
     <row r="33" spans="1:20" ht="24.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>477</v>
+      <c r="C33" s="16" t="s">
+        <v>476</v>
       </c>
       <c r="D33" s="1">
         <v>5.85</v>
@@ -6289,7 +6280,7 @@
       <c r="B34" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>405</v>
       </c>
       <c r="D34" s="1">
@@ -6350,7 +6341,7 @@
       <c r="B35" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D35" s="1">
@@ -6411,7 +6402,7 @@
       <c r="B36" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D36" s="1">
@@ -6472,7 +6463,7 @@
       <c r="B37" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D37" s="1">
@@ -6533,7 +6524,7 @@
       <c r="B38" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>329</v>
       </c>
       <c r="D38" s="1">
@@ -6655,7 +6646,7 @@
       <c r="B40" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D40" s="1">
@@ -6716,7 +6707,7 @@
       <c r="B41" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>291</v>
       </c>
       <c r="D41" s="1">
@@ -6777,7 +6768,7 @@
       <c r="B42" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D42" s="1">
@@ -6899,7 +6890,7 @@
       <c r="B44" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D44" s="1">
@@ -6960,7 +6951,7 @@
       <c r="B45" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D45" s="1">
@@ -7204,7 +7195,7 @@
       <c r="B49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D49" s="1">
@@ -7265,7 +7256,7 @@
       <c r="B50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D50" s="1">
@@ -7326,7 +7317,7 @@
       <c r="B51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="1">
@@ -7387,7 +7378,7 @@
       <c r="B52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>213</v>
       </c>
       <c r="D52" s="1">
@@ -7442,13 +7433,13 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="19">
         <v>85</v>
       </c>
       <c r="D53" s="1">
@@ -7509,7 +7500,7 @@
       <c r="B54" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D54" s="1">
@@ -7570,7 +7561,7 @@
       <c r="B55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>218</v>
       </c>
       <c r="D55" s="1">
@@ -7631,7 +7622,7 @@
       <c r="B56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D56" s="1">
@@ -7692,7 +7683,7 @@
       <c r="B57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>222</v>
       </c>
       <c r="D57" s="1">
@@ -7753,7 +7744,7 @@
       <c r="B58" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="16" t="s">
         <v>225</v>
       </c>
       <c r="D58" s="1">
@@ -7814,7 +7805,7 @@
       <c r="B59" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D59" s="1">
@@ -8058,7 +8049,7 @@
       <c r="B63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D63" s="1">
@@ -8119,7 +8110,7 @@
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>256</v>
       </c>
       <c r="D64" s="1">
@@ -8424,7 +8415,7 @@
       <c r="B69" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D69" s="1">
@@ -8607,7 +8598,7 @@
       <c r="B72" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D72" s="1">
@@ -8729,7 +8720,7 @@
       <c r="B74" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>156</v>
       </c>
       <c r="D74" s="1">
@@ -8973,7 +8964,7 @@
       <c r="B78" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D78" s="1">
@@ -9034,7 +9025,7 @@
       <c r="B79" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D79" s="1">
@@ -9089,13 +9080,13 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="1">
@@ -9156,7 +9147,7 @@
       <c r="B81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="1">
@@ -9888,7 +9879,7 @@
       <c r="B93" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D93" s="1">
@@ -9949,7 +9940,7 @@
       <c r="B94" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D94" s="1">
@@ -10010,7 +10001,7 @@
       <c r="B95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D95" s="1">
@@ -10132,7 +10123,7 @@
       <c r="B97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D97" s="1">
@@ -10315,7 +10306,7 @@
       <c r="B100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="1">
@@ -10371,13 +10362,13 @@
     </row>
     <row r="101" spans="1:20" ht="24.75" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>532</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>533</v>
       </c>
       <c r="D101" s="1">
         <v>7.59</v>
@@ -10432,13 +10423,13 @@
     </row>
     <row r="102" spans="1:20" ht="24.75" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D102" s="1">
         <v>7.03</v>
@@ -10523,7 +10514,7 @@
       <c r="B104" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="16" t="s">
         <v>452</v>
       </c>
       <c r="D104" s="1">
@@ -10584,8 +10575,8 @@
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>454</v>
+      <c r="C105" s="18" t="s">
+        <v>1099</v>
       </c>
       <c r="D105" s="1">
         <v>5.85</v>
@@ -10640,13 +10631,13 @@
     </row>
     <row r="106" spans="1:20" ht="24.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>461</v>
+      <c r="C106" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="D106" s="1">
         <v>5.85</v>
@@ -10701,13 +10692,13 @@
     </row>
     <row r="107" spans="1:20" ht="24.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D107" s="1">
         <v>5.85</v>
@@ -10762,13 +10753,13 @@
     </row>
     <row r="108" spans="1:20" ht="24.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D108" s="1">
         <v>5.85</v>
@@ -10823,13 +10814,13 @@
     </row>
     <row r="109" spans="1:20" ht="24.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D109" s="1">
         <v>5.85</v>
@@ -10884,13 +10875,13 @@
     </row>
     <row r="110" spans="1:20" ht="24.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>475</v>
+      <c r="C110" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="D110" s="1">
         <v>5.85</v>
@@ -10945,13 +10936,13 @@
     </row>
     <row r="111" spans="1:20" ht="24.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D111" s="1">
         <v>5.85</v>
@@ -11006,13 +10997,13 @@
     </row>
     <row r="112" spans="1:20" ht="24.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="17" t="s">
-        <v>492</v>
+      <c r="C112" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="D112" s="1">
         <v>5.85</v>
@@ -11067,13 +11058,13 @@
     </row>
     <row r="113" spans="1:20" ht="24.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>497</v>
+      <c r="C113" s="16" t="s">
+        <v>496</v>
       </c>
       <c r="D113" s="1">
         <v>5.85</v>
@@ -11133,7 +11124,7 @@
       <c r="B114" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="16" t="s">
         <v>392</v>
       </c>
       <c r="D114" s="1">
@@ -11194,7 +11185,7 @@
       <c r="B115" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="16" t="s">
         <v>392</v>
       </c>
       <c r="D115" s="1">
@@ -11255,7 +11246,7 @@
       <c r="B116" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="16" t="s">
         <v>396</v>
       </c>
       <c r="D116" s="1">
@@ -11438,7 +11429,7 @@
       <c r="B119" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D119" s="1">
@@ -11499,7 +11490,7 @@
       <c r="B120" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D120" s="1">
@@ -11560,7 +11551,7 @@
       <c r="B121" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D121" s="1">
@@ -11743,7 +11734,7 @@
       <c r="B124" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D124" s="1">
@@ -11804,7 +11795,7 @@
       <c r="B125" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D125" s="1">
@@ -11926,7 +11917,7 @@
       <c r="B127" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="16" t="s">
         <v>352</v>
       </c>
       <c r="D127" s="1">
@@ -11987,7 +11978,7 @@
       <c r="B128" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="16" t="s">
         <v>325</v>
       </c>
       <c r="D128" s="1">
@@ -12048,7 +12039,7 @@
       <c r="B129" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D129" s="1">
@@ -12170,7 +12161,7 @@
       <c r="B131" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D131" s="1">
@@ -12231,7 +12222,7 @@
       <c r="B132" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D132" s="1">
@@ -12292,7 +12283,7 @@
       <c r="B133" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D133" s="1">
@@ -12353,7 +12344,7 @@
       <c r="B134" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D134" s="1">
@@ -12475,7 +12466,7 @@
       <c r="B136" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D136" s="1">
@@ -12597,7 +12588,7 @@
       <c r="B138" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D138" s="1">
@@ -12719,7 +12710,7 @@
       <c r="B140" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D140" s="1">
@@ -12780,7 +12771,7 @@
       <c r="B141" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D141" s="1">
@@ -12841,7 +12832,7 @@
       <c r="B142" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D142" s="1">
@@ -12902,7 +12893,7 @@
       <c r="B143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D143" s="1">
@@ -12963,7 +12954,7 @@
       <c r="B144" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="16" t="s">
         <v>300</v>
       </c>
       <c r="D144" s="1">
@@ -13024,7 +13015,7 @@
       <c r="B145" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D145" s="1">
@@ -13085,7 +13076,7 @@
       <c r="B146" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D146" s="1">
@@ -13146,7 +13137,7 @@
       <c r="B147" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D147" s="1">
@@ -13207,7 +13198,7 @@
       <c r="B148" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D148" s="1">
@@ -13451,7 +13442,7 @@
       <c r="B152" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="18" t="s">
         <v>240</v>
       </c>
       <c r="D152" s="1">
@@ -13512,7 +13503,7 @@
       <c r="B153" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D153" s="1">
@@ -13695,7 +13686,7 @@
       <c r="B156" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D156" s="1">
@@ -13756,7 +13747,7 @@
       <c r="B157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D157" s="1">
@@ -13817,7 +13808,7 @@
       <c r="B158" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>178</v>
       </c>
       <c r="D158" s="1">
@@ -13878,7 +13869,7 @@
       <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>159</v>
       </c>
       <c r="D159" s="1">
@@ -13939,7 +13930,7 @@
       <c r="B160" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>143</v>
       </c>
       <c r="D160" s="1">
@@ -14427,7 +14418,7 @@
       <c r="B168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D168" s="1">
@@ -14488,7 +14479,7 @@
       <c r="B169" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D169" s="1">
@@ -14549,7 +14540,7 @@
       <c r="B170" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="1">
@@ -14793,7 +14784,7 @@
       <c r="B174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D174" s="1">
@@ -14915,7 +14906,7 @@
       <c r="B176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D176" s="1">
@@ -14971,13 +14962,13 @@
     </row>
     <row r="177" spans="1:20" ht="24.75" customHeight="1">
       <c r="A177" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="D177" s="1">
         <v>7.65</v>
@@ -15032,13 +15023,13 @@
     </row>
     <row r="178" spans="1:20" ht="24.75" customHeight="1">
       <c r="A178" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="16" t="s">
         <v>530</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>531</v>
       </c>
       <c r="D178" s="1">
         <v>7.59</v>
@@ -15093,13 +15084,13 @@
     </row>
     <row r="179" spans="1:20" ht="24.75" customHeight="1">
       <c r="A179" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="16" t="s">
         <v>523</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>524</v>
       </c>
       <c r="D179" s="1">
         <v>7.59</v>
@@ -15154,13 +15145,13 @@
     </row>
     <row r="180" spans="1:20" ht="24.75" customHeight="1">
       <c r="A180" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C180" s="16" t="s">
         <v>525</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>526</v>
       </c>
       <c r="D180" s="1">
         <v>7.59</v>
@@ -15215,13 +15206,13 @@
     </row>
     <row r="181" spans="1:20" ht="24.75" customHeight="1">
       <c r="A181" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C181" s="16" t="s">
         <v>527</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>528</v>
       </c>
       <c r="D181" s="1">
         <v>7.59</v>
@@ -15276,13 +15267,13 @@
     </row>
     <row r="182" spans="1:20" ht="24.75" customHeight="1">
       <c r="A182" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D182" s="1">
         <v>7.07</v>
@@ -15337,13 +15328,13 @@
     </row>
     <row r="183" spans="1:20" ht="24.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D183" s="1">
         <v>7.07</v>
@@ -15398,13 +15389,13 @@
     </row>
     <row r="184" spans="1:20" ht="24.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D184" s="1">
         <v>7.07</v>
@@ -15459,13 +15450,13 @@
     </row>
     <row r="185" spans="1:20" ht="24.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D185" s="1">
         <v>7.07</v>
@@ -15520,13 +15511,13 @@
     </row>
     <row r="186" spans="1:20" ht="24.75" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D186" s="1">
         <v>7.02</v>
@@ -15581,13 +15572,13 @@
     </row>
     <row r="187" spans="1:20" ht="24.75" customHeight="1">
       <c r="A187" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="D187" s="1">
         <v>7.02</v>
@@ -15642,13 +15633,13 @@
     </row>
     <row r="188" spans="1:20" ht="24.75" customHeight="1">
       <c r="A188" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="D188" s="1">
         <v>7.02</v>
@@ -15703,13 +15694,13 @@
     </row>
     <row r="189" spans="1:20" ht="24.75" customHeight="1">
       <c r="A189" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="D189" s="1">
         <v>6.97</v>
@@ -15764,13 +15755,13 @@
     </row>
     <row r="190" spans="1:20" ht="24.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="D190" s="1">
         <v>6.97</v>
@@ -15855,7 +15846,7 @@
       <c r="B192" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D192" s="1">
@@ -15977,7 +15968,7 @@
       <c r="B194" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="16" t="s">
         <v>437</v>
       </c>
       <c r="D194" s="1">
@@ -16033,12 +16024,12 @@
     </row>
     <row r="195" spans="1:20" ht="24.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D195" s="1">
@@ -16094,12 +16085,12 @@
     </row>
     <row r="196" spans="1:20" ht="24.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D196" s="1">
@@ -16155,13 +16146,13 @@
     </row>
     <row r="197" spans="1:20" ht="24.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C197" s="17" t="s">
-        <v>458</v>
+      <c r="C197" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="D197" s="1">
         <v>5.85</v>
@@ -16216,13 +16207,13 @@
     </row>
     <row r="198" spans="1:20" ht="24.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="17" t="s">
-        <v>460</v>
+      <c r="C198" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="D198" s="1">
         <v>5.85</v>
@@ -16283,7 +16274,7 @@
         <v>23</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D199" s="1">
         <v>5.85</v>
@@ -16338,12 +16329,12 @@
     </row>
     <row r="200" spans="1:20" ht="24.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D200" s="1">
@@ -16399,13 +16390,13 @@
     </row>
     <row r="201" spans="1:20" ht="24.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="17" t="s">
-        <v>461</v>
+      <c r="C201" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="D201" s="1">
         <v>5.85</v>
@@ -16460,13 +16451,13 @@
     </row>
     <row r="202" spans="1:20" ht="24.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C202" s="17" t="s">
-        <v>461</v>
+      <c r="C202" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="D202" s="1">
         <v>5.85</v>
@@ -16521,7 +16512,7 @@
     </row>
     <row r="203" spans="1:20" ht="24.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>23</v>
@@ -16582,12 +16573,12 @@
     </row>
     <row r="204" spans="1:20" ht="24.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D204" s="1">
@@ -16643,13 +16634,13 @@
     </row>
     <row r="205" spans="1:20" ht="24.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C205" s="17" t="s">
-        <v>483</v>
+      <c r="C205" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="D205" s="1">
         <v>5.85</v>
@@ -16704,13 +16695,13 @@
     </row>
     <row r="206" spans="1:20" ht="24.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C206" s="17" t="s">
-        <v>485</v>
+      <c r="C206" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="D206" s="1">
         <v>5.85</v>
@@ -16765,13 +16756,13 @@
     </row>
     <row r="207" spans="1:20" ht="24.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D207" s="1">
         <v>5.85</v>
@@ -16826,13 +16817,13 @@
     </row>
     <row r="208" spans="1:20" ht="24.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C208" s="17" t="s">
-        <v>487</v>
+      <c r="C208" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="D208" s="1">
         <v>5.85</v>
@@ -16887,13 +16878,13 @@
     </row>
     <row r="209" spans="1:20" ht="24.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D209" s="1">
         <v>5.85</v>
@@ -16948,13 +16939,13 @@
     </row>
     <row r="210" spans="1:20" ht="24.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D210" s="1">
         <v>5.85</v>
@@ -17009,13 +17000,13 @@
     </row>
     <row r="211" spans="1:20" ht="24.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D211" s="1">
         <v>5.85</v>
@@ -17070,12 +17061,12 @@
     </row>
     <row r="212" spans="1:20" ht="24.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D212" s="1">
@@ -17131,12 +17122,12 @@
     </row>
     <row r="213" spans="1:20" ht="24.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D213" s="1">
@@ -17192,12 +17183,12 @@
     </row>
     <row r="214" spans="1:20" ht="24.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D214" s="1">
@@ -17253,12 +17244,12 @@
     </row>
     <row r="215" spans="1:20" ht="24.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="16" t="s">
         <v>398</v>
       </c>
       <c r="D215" s="1">
@@ -17314,13 +17305,13 @@
     </row>
     <row r="216" spans="1:20" ht="24.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C216" s="17" t="s">
-        <v>503</v>
+      <c r="C216" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="D216" s="1">
         <v>5.85</v>
@@ -17375,12 +17366,12 @@
     </row>
     <row r="217" spans="1:20" ht="24.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D217" s="1">
@@ -17436,7 +17427,7 @@
     </row>
     <row r="218" spans="1:20" ht="24.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>23</v>
@@ -17497,12 +17488,12 @@
     </row>
     <row r="219" spans="1:20" ht="24.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D219" s="1">
@@ -17558,13 +17549,13 @@
     </row>
     <row r="220" spans="1:20" ht="24.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C220" s="17" t="s">
-        <v>508</v>
+      <c r="C220" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="D220" s="1">
         <v>5.85</v>
@@ -17619,13 +17610,13 @@
     </row>
     <row r="221" spans="1:20" ht="24.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C221" s="17" t="s">
-        <v>510</v>
+      <c r="C221" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="D221" s="1">
         <v>5.85</v>
@@ -17680,12 +17671,12 @@
     </row>
     <row r="222" spans="1:20" ht="24.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D222" s="1">
@@ -17741,12 +17732,12 @@
     </row>
     <row r="223" spans="1:20" ht="24.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D223" s="1">
@@ -17862,13 +17853,13 @@
       </c>
     </row>
     <row r="225" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="16" t="s">
         <v>394</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="16" t="s">
         <v>392</v>
       </c>
       <c r="D225" s="1">
@@ -17929,7 +17920,7 @@
       <c r="B226" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="16" t="s">
         <v>398</v>
       </c>
       <c r="D226" s="1">
@@ -17984,13 +17975,13 @@
       </c>
     </row>
     <row r="227" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="16" t="s">
         <v>399</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="16" t="s">
         <v>398</v>
       </c>
       <c r="D227" s="1">
@@ -18051,7 +18042,7 @@
       <c r="B228" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="16" t="s">
         <v>325</v>
       </c>
       <c r="D228" s="1">
@@ -18112,7 +18103,7 @@
       <c r="B229" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="16" t="s">
         <v>325</v>
       </c>
       <c r="D229" s="1">
@@ -18234,7 +18225,7 @@
       <c r="B231" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D231" s="1">
@@ -18356,7 +18347,7 @@
       <c r="B233" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D233" s="1">
@@ -18417,7 +18408,7 @@
       <c r="B234" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D234" s="1">
@@ -18478,7 +18469,7 @@
       <c r="B235" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D235" s="1">
@@ -18600,7 +18591,7 @@
       <c r="B237" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D237" s="1">
@@ -18783,7 +18774,7 @@
       <c r="B240" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C240" s="17" t="s">
+      <c r="C240" s="16" t="s">
         <v>329</v>
       </c>
       <c r="D240" s="1">
@@ -18844,7 +18835,7 @@
       <c r="B241" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C241" s="17" t="s">
+      <c r="C241" s="16" t="s">
         <v>325</v>
       </c>
       <c r="D241" s="1">
@@ -19027,7 +19018,7 @@
       <c r="B244" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C244" s="17" t="s">
+      <c r="C244" s="16" t="s">
         <v>325</v>
       </c>
       <c r="D244" s="1">
@@ -19088,7 +19079,7 @@
       <c r="B245" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="19" t="s">
         <v>331</v>
       </c>
       <c r="D245" s="1">
@@ -19393,7 +19384,7 @@
       <c r="B250" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C250" s="17" t="s">
+      <c r="C250" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D250" s="1">
@@ -19515,7 +19506,7 @@
       <c r="B252" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C252" s="17" t="s">
+      <c r="C252" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D252" s="1">
@@ -19576,7 +19567,7 @@
       <c r="B253" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C253" s="17" t="s">
+      <c r="C253" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D253" s="1">
@@ -19637,7 +19628,7 @@
       <c r="B254" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C254" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D254" s="1">
@@ -19698,7 +19689,7 @@
       <c r="B255" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C255" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D255" s="1">
@@ -19820,7 +19811,7 @@
       <c r="B257" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D257" s="1">
@@ -19881,7 +19872,7 @@
       <c r="B258" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D258" s="1">
@@ -19942,7 +19933,7 @@
       <c r="B259" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D259" s="1">
@@ -20003,7 +19994,7 @@
       <c r="B260" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D260" s="1">
@@ -20064,7 +20055,7 @@
       <c r="B261" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="16" t="s">
         <v>305</v>
       </c>
       <c r="D261" s="1">
@@ -20125,7 +20116,7 @@
       <c r="B262" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C262" s="17" t="s">
+      <c r="C262" s="16" t="s">
         <v>307</v>
       </c>
       <c r="D262" s="1">
@@ -20186,7 +20177,7 @@
       <c r="B263" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="16" t="s">
         <v>309</v>
       </c>
       <c r="D263" s="1">
@@ -20308,7 +20299,7 @@
       <c r="B265" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="16" t="s">
         <v>313</v>
       </c>
       <c r="D265" s="1">
@@ -20430,7 +20421,7 @@
       <c r="B267" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="16" t="s">
         <v>298</v>
       </c>
       <c r="D267" s="1">
@@ -20491,7 +20482,7 @@
       <c r="B268" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="16" t="s">
         <v>302</v>
       </c>
       <c r="D268" s="1">
@@ -20552,7 +20543,7 @@
       <c r="B269" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C269" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D269" s="1">
@@ -20613,7 +20604,7 @@
       <c r="B270" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="C270" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D270" s="1">
@@ -20674,7 +20665,7 @@
       <c r="B271" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C271" s="16" t="s">
         <v>222</v>
       </c>
       <c r="D271" s="1">
@@ -20735,7 +20726,7 @@
       <c r="B272" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="16" t="s">
         <v>229</v>
       </c>
       <c r="D272" s="1">
@@ -20796,7 +20787,7 @@
       <c r="B273" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="16" t="s">
         <v>238</v>
       </c>
       <c r="D273" s="1">
@@ -20857,7 +20848,7 @@
       <c r="B274" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D274" s="1">
@@ -20918,7 +20909,7 @@
       <c r="B275" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D275" s="1">
@@ -21040,7 +21031,7 @@
       <c r="B277" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C277" s="17" t="s">
+      <c r="C277" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D277" s="1">
@@ -21162,7 +21153,7 @@
       <c r="B279" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C279" s="17" t="s">
+      <c r="C279" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D279" s="1">
@@ -21284,7 +21275,7 @@
       <c r="B281" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="C281" s="16" t="s">
         <v>263</v>
       </c>
       <c r="D281" s="1">
@@ -21345,7 +21336,7 @@
       <c r="B282" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D282" s="1">
@@ -21589,7 +21580,7 @@
       <c r="B286" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="C286" s="16" t="s">
         <v>201</v>
       </c>
       <c r="D286" s="1">
@@ -21705,13 +21696,13 @@
       </c>
     </row>
     <row r="288" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A288" s="18" t="s">
+      <c r="A288" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B288" s="18" t="s">
+      <c r="B288" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D288" s="1">
@@ -21772,7 +21763,7 @@
       <c r="B289" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C289" s="17" t="s">
+      <c r="C289" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D289" s="1">
@@ -21833,7 +21824,7 @@
       <c r="B290" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="C290" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D290" s="1">
@@ -22016,7 +22007,7 @@
       <c r="B293" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C293" s="17" t="s">
+      <c r="C293" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D293" s="1">
@@ -22077,7 +22068,7 @@
       <c r="B294" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C294" s="17" t="s">
+      <c r="C294" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D294" s="1">
@@ -22138,7 +22129,7 @@
       <c r="B295" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C295" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D295" s="1">
@@ -22199,7 +22190,7 @@
       <c r="B296" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C296" s="17" t="s">
+      <c r="C296" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D296" s="1">
@@ -22382,7 +22373,7 @@
       <c r="B299" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C299" s="17" t="s">
+      <c r="C299" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D299" s="1">
@@ -22443,7 +22434,7 @@
       <c r="B300" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="C300" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D300" s="1">
@@ -22565,7 +22556,7 @@
       <c r="B302" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C302" s="20" t="s">
+      <c r="C302" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D302" s="1">
@@ -22626,7 +22617,7 @@
       <c r="B303" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C303" s="17" t="s">
+      <c r="C303" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D303" s="1">
@@ -22748,7 +22739,7 @@
       <c r="B305" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C305" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D305" s="1">
@@ -22931,7 +22922,7 @@
       <c r="B308" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C308" s="17" t="s">
+      <c r="C308" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D308" s="1">
@@ -22992,7 +22983,7 @@
       <c r="B309" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C309" s="17" t="s">
+      <c r="C309" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D309" s="1">
@@ -23236,7 +23227,7 @@
       <c r="B313" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C313" s="17" t="s">
+      <c r="C313" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D313" s="1">
@@ -23358,7 +23349,7 @@
       <c r="B315" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C315" s="17" t="s">
+      <c r="C315" s="16" t="s">
         <v>112</v>
       </c>
       <c r="D315" s="1">
@@ -23419,7 +23410,7 @@
       <c r="B316" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="C316" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D316" s="1">
@@ -23480,7 +23471,7 @@
       <c r="B317" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C317" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D317" s="1">
@@ -23597,13 +23588,13 @@
     </row>
     <row r="319" spans="1:20" ht="24.75" customHeight="1">
       <c r="A319" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="16" t="s">
         <v>520</v>
-      </c>
-      <c r="C319" s="17" t="s">
-        <v>521</v>
       </c>
       <c r="D319" s="1">
         <v>7.54</v>
@@ -23683,13 +23674,13 @@
     </row>
     <row r="321" spans="1:20" ht="24.75" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D321" s="1">
         <v>5.85</v>
@@ -23744,13 +23735,13 @@
     </row>
     <row r="322" spans="1:20" ht="24.75" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C322" s="17" t="s">
-        <v>516</v>
+      <c r="C322" s="16" t="s">
+        <v>515</v>
       </c>
       <c r="D322" s="1">
         <v>5.85</v>
@@ -23805,13 +23796,13 @@
     </row>
     <row r="323" spans="1:20" ht="24.75" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D323" s="1">
         <v>5.85</v>
@@ -23932,7 +23923,7 @@
       <c r="B325" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="16" t="s">
         <v>270</v>
       </c>
       <c r="D325" s="1">
@@ -24060,38 +24051,38 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="B328" s="24"/>
-      <c r="C328" s="24"/>
-      <c r="D328" s="24"/>
-      <c r="E328" s="24"/>
-      <c r="F328" s="24"/>
-      <c r="G328" s="24"/>
-      <c r="H328" s="24"/>
-      <c r="I328" s="24"/>
-      <c r="J328" s="24"/>
-      <c r="K328" s="24"/>
-      <c r="L328" s="24"/>
-      <c r="M328" s="24"/>
-      <c r="N328" s="24"/>
-      <c r="O328" s="24"/>
-      <c r="P328" s="24"/>
-      <c r="Q328" s="24"/>
-      <c r="R328" s="24"/>
-      <c r="S328" s="24"/>
-      <c r="T328" s="25"/>
+      <c r="A328" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="B328" s="23"/>
+      <c r="C328" s="23"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="23"/>
+      <c r="G328" s="23"/>
+      <c r="H328" s="23"/>
+      <c r="I328" s="23"/>
+      <c r="J328" s="23"/>
+      <c r="K328" s="23"/>
+      <c r="L328" s="23"/>
+      <c r="M328" s="23"/>
+      <c r="N328" s="23"/>
+      <c r="O328" s="23"/>
+      <c r="P328" s="23"/>
+      <c r="Q328" s="23"/>
+      <c r="R328" s="23"/>
+      <c r="S328" s="23"/>
+      <c r="T328" s="24"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>891</v>
+      <c r="C329" s="20" t="s">
+        <v>1100</v>
       </c>
       <c r="D329" s="1">
         <v>5.85</v>
@@ -24146,13 +24137,13 @@
     </row>
     <row r="330" spans="1:20" ht="24.75" customHeight="1">
       <c r="A330" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>853</v>
+      <c r="C330" s="20" t="s">
+        <v>1101</v>
       </c>
       <c r="D330" s="1">
         <v>6.21</v>
@@ -24207,13 +24198,13 @@
     </row>
     <row r="331" spans="1:20" ht="24.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D331" s="1">
         <v>6.22</v>
@@ -24268,13 +24259,13 @@
     </row>
     <row r="332" spans="1:20" ht="24.75" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D332" s="1">
         <v>6.22</v>
@@ -24329,13 +24320,13 @@
     </row>
     <row r="333" spans="1:20" ht="24.75" customHeight="1">
       <c r="A333" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="16" t="s">
         <v>730</v>
-      </c>
-      <c r="C333" s="17" t="s">
-        <v>731</v>
       </c>
       <c r="D333" s="1">
         <v>6.49</v>
@@ -24390,13 +24381,13 @@
     </row>
     <row r="334" spans="1:20" ht="24.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D334" s="1">
         <v>8.1</v>
@@ -24451,13 +24442,13 @@
     </row>
     <row r="335" spans="1:20" ht="24.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D335" s="1">
         <v>6.22</v>
@@ -24534,13 +24525,13 @@
     </row>
     <row r="337" spans="1:20" ht="24.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C337" s="17" t="s">
-        <v>893</v>
+      <c r="C337" s="16" t="s">
+        <v>890</v>
       </c>
       <c r="D337" s="1">
         <v>5.85</v>
@@ -24595,13 +24586,13 @@
     </row>
     <row r="338" spans="1:20" ht="24.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C338" s="17" t="s">
-        <v>895</v>
+      <c r="C338" s="16" t="s">
+        <v>892</v>
       </c>
       <c r="D338" s="1">
         <v>5.85</v>
@@ -24656,13 +24647,13 @@
     </row>
     <row r="339" spans="1:20" ht="24.75" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C339" s="17" t="s">
-        <v>897</v>
+      <c r="C339" s="16" t="s">
+        <v>894</v>
       </c>
       <c r="D339" s="1">
         <v>5.85</v>
@@ -24717,13 +24708,13 @@
     </row>
     <row r="340" spans="1:20" ht="24.75" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C340" s="17" t="s">
-        <v>899</v>
+      <c r="C340" s="16" t="s">
+        <v>896</v>
       </c>
       <c r="D340" s="1">
         <v>5.85</v>
@@ -24778,13 +24769,13 @@
     </row>
     <row r="341" spans="1:20" ht="24.75" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C341" s="17" t="s">
-        <v>901</v>
+      <c r="C341" s="16" t="s">
+        <v>898</v>
       </c>
       <c r="D341" s="1">
         <v>5.85</v>
@@ -24839,13 +24830,13 @@
     </row>
     <row r="342" spans="1:20" ht="24.75" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C342" s="17" t="s">
-        <v>903</v>
+      <c r="C342" s="16" t="s">
+        <v>900</v>
       </c>
       <c r="D342" s="1">
         <v>5.85</v>
@@ -24900,13 +24891,13 @@
     </row>
     <row r="343" spans="1:20" ht="24.75" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D343" s="1">
         <v>5.85</v>
@@ -24961,13 +24952,13 @@
     </row>
     <row r="344" spans="1:20" ht="24.75" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C344" s="17" t="s">
-        <v>907</v>
+      <c r="C344" s="16" t="s">
+        <v>904</v>
       </c>
       <c r="D344" s="1">
         <v>5.85</v>
@@ -25022,13 +25013,13 @@
     </row>
     <row r="345" spans="1:20" ht="24.75" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C345" s="17" t="s">
-        <v>909</v>
+      <c r="C345" s="16" t="s">
+        <v>906</v>
       </c>
       <c r="D345" s="1">
         <v>5.85</v>
@@ -25083,13 +25074,13 @@
     </row>
     <row r="346" spans="1:20" ht="24.75" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C346" s="17" t="s">
-        <v>911</v>
+      <c r="C346" s="16" t="s">
+        <v>908</v>
       </c>
       <c r="D346" s="1">
         <v>5.85</v>
@@ -25144,13 +25135,13 @@
     </row>
     <row r="347" spans="1:20" ht="24.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C347" s="17" t="s">
-        <v>913</v>
+      <c r="C347" s="16" t="s">
+        <v>910</v>
       </c>
       <c r="D347" s="1">
         <v>5.85</v>
@@ -25205,13 +25196,13 @@
     </row>
     <row r="348" spans="1:20" ht="24.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C348" s="17" t="s">
-        <v>915</v>
+      <c r="C348" s="16" t="s">
+        <v>912</v>
       </c>
       <c r="D348" s="1">
         <v>5.85</v>
@@ -25266,13 +25257,13 @@
     </row>
     <row r="349" spans="1:20" ht="24.75" customHeight="1">
       <c r="A349" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C349" s="16" t="s">
         <v>887</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C349" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="D349" s="1">
         <v>5.93</v>
@@ -25327,13 +25318,13 @@
     </row>
     <row r="350" spans="1:20" ht="24.75" customHeight="1">
       <c r="A350" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="D350" s="1">
         <v>5.99</v>
@@ -25388,13 +25379,13 @@
     </row>
     <row r="351" spans="1:20" ht="24.75" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D351" s="1">
         <v>5.99</v>
@@ -25449,13 +25440,13 @@
     </row>
     <row r="352" spans="1:20" ht="24.75" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D352" s="1">
         <v>5.99</v>
@@ -25510,13 +25501,13 @@
     </row>
     <row r="353" spans="1:20" ht="24.75" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D353" s="1">
         <v>5.99</v>
@@ -25571,13 +25562,13 @@
     </row>
     <row r="354" spans="1:20" ht="24.75" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D354" s="1">
         <v>5.99</v>
@@ -25632,13 +25623,13 @@
     </row>
     <row r="355" spans="1:20" ht="24.75" customHeight="1">
       <c r="A355" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C355" s="16" t="s">
         <v>863</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C355" s="17" t="s">
-        <v>865</v>
       </c>
       <c r="D355" s="1">
         <v>6.15</v>
@@ -25693,13 +25684,13 @@
     </row>
     <row r="356" spans="1:20" ht="24.75" customHeight="1">
       <c r="A356" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="D356" s="1">
         <v>6.21</v>
@@ -25754,13 +25745,13 @@
     </row>
     <row r="357" spans="1:20" ht="24.75" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D357" s="1">
         <v>6.21</v>
@@ -25815,13 +25806,13 @@
     </row>
     <row r="358" spans="1:20" ht="24.75" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D358" s="1">
         <v>6.21</v>
@@ -25876,13 +25867,13 @@
     </row>
     <row r="359" spans="1:20" ht="24.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D359" s="1">
         <v>6.21</v>
@@ -25937,13 +25928,13 @@
     </row>
     <row r="360" spans="1:20" ht="24.75" customHeight="1">
       <c r="A360" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="D360" s="1">
         <v>6.21</v>
@@ -25998,13 +25989,13 @@
     </row>
     <row r="361" spans="1:20" ht="24.75" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C361" s="17" t="s">
-        <v>759</v>
+      <c r="C361" s="16" t="s">
+        <v>758</v>
       </c>
       <c r="D361" s="1">
         <v>6.22</v>
@@ -26059,13 +26050,13 @@
     </row>
     <row r="362" spans="1:20" ht="24.75" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C362" s="17" t="s">
-        <v>761</v>
+      <c r="C362" s="16" t="s">
+        <v>760</v>
       </c>
       <c r="D362" s="1">
         <v>6.22</v>
@@ -26120,13 +26111,13 @@
     </row>
     <row r="363" spans="1:20" ht="24.75" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D363" s="1">
         <v>6.22</v>
@@ -26181,13 +26172,13 @@
     </row>
     <row r="364" spans="1:20" ht="24.75" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D364" s="1">
         <v>6.22</v>
@@ -26242,13 +26233,13 @@
     </row>
     <row r="365" spans="1:20" ht="24.75" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D365" s="1">
         <v>6.22</v>
@@ -26303,13 +26294,13 @@
     </row>
     <row r="366" spans="1:20" ht="24.75" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D366" s="1">
         <v>6.22</v>
@@ -26364,13 +26355,13 @@
     </row>
     <row r="367" spans="1:20" ht="24.75" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D367" s="1">
         <v>6.22</v>
@@ -26425,13 +26416,13 @@
     </row>
     <row r="368" spans="1:20" ht="24.75" customHeight="1">
       <c r="A368" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D368" s="1">
         <v>6.22</v>
@@ -26486,13 +26477,13 @@
     </row>
     <row r="369" spans="1:20" ht="24.75" customHeight="1">
       <c r="A369" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D369" s="1">
         <v>6.22</v>
@@ -26547,13 +26538,13 @@
     </row>
     <row r="370" spans="1:20" ht="24.75" customHeight="1">
       <c r="A370" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D370" s="1">
         <v>6.22</v>
@@ -26608,13 +26599,13 @@
     </row>
     <row r="371" spans="1:20" ht="24.75" customHeight="1">
       <c r="A371" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D371" s="1">
         <v>6.22</v>
@@ -26669,13 +26660,13 @@
     </row>
     <row r="372" spans="1:20" ht="24.75" customHeight="1">
       <c r="A372" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C372" s="17" t="s">
-        <v>781</v>
+      <c r="C372" s="16" t="s">
+        <v>780</v>
       </c>
       <c r="D372" s="1">
         <v>6.22</v>
@@ -26730,13 +26721,13 @@
     </row>
     <row r="373" spans="1:20" ht="24.75" customHeight="1">
       <c r="A373" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C373" s="17" t="s">
-        <v>783</v>
+      <c r="C373" s="16" t="s">
+        <v>782</v>
       </c>
       <c r="D373" s="1">
         <v>6.22</v>
@@ -26791,13 +26782,13 @@
     </row>
     <row r="374" spans="1:20" ht="24.75" customHeight="1">
       <c r="A374" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D374" s="1">
         <v>6.22</v>
@@ -26852,13 +26843,13 @@
     </row>
     <row r="375" spans="1:20" ht="24.75" customHeight="1">
       <c r="A375" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D375" s="1">
         <v>6.22</v>
@@ -26913,13 +26904,13 @@
     </row>
     <row r="376" spans="1:20" ht="24.75" customHeight="1">
       <c r="A376" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D376" s="1">
         <v>6.22</v>
@@ -26974,13 +26965,13 @@
     </row>
     <row r="377" spans="1:20" ht="24.75" customHeight="1">
       <c r="A377" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D377" s="1">
         <v>6.22</v>
@@ -27035,13 +27026,13 @@
     </row>
     <row r="378" spans="1:20" ht="24.75" customHeight="1">
       <c r="A378" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D378" s="1">
         <v>6.22</v>
@@ -27096,13 +27087,13 @@
     </row>
     <row r="379" spans="1:20" ht="24.75" customHeight="1">
       <c r="A379" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C379" s="17" t="s">
-        <v>795</v>
+      <c r="C379" s="16" t="s">
+        <v>794</v>
       </c>
       <c r="D379" s="1">
         <v>6.22</v>
@@ -27157,13 +27148,13 @@
     </row>
     <row r="380" spans="1:20" ht="24.75" customHeight="1">
       <c r="A380" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C380" s="17" t="s">
-        <v>795</v>
+      <c r="C380" s="16" t="s">
+        <v>794</v>
       </c>
       <c r="D380" s="1">
         <v>6.22</v>
@@ -27218,13 +27209,13 @@
     </row>
     <row r="381" spans="1:20" ht="24.75" customHeight="1">
       <c r="A381" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C381" s="17" t="s">
-        <v>795</v>
+      <c r="C381" s="16" t="s">
+        <v>794</v>
       </c>
       <c r="D381" s="1">
         <v>6.22</v>
@@ -27278,14 +27269,14 @@
       </c>
     </row>
     <row r="382" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A382" s="22" t="s">
-        <v>798</v>
+      <c r="A382" s="20" t="s">
+        <v>797</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C382" s="17" t="s">
-        <v>799</v>
+      <c r="C382" s="16" t="s">
+        <v>798</v>
       </c>
       <c r="D382" s="1">
         <v>6.22</v>
@@ -27340,13 +27331,13 @@
     </row>
     <row r="383" spans="1:20" ht="24.75" customHeight="1">
       <c r="A383" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C383" s="17" t="s">
-        <v>801</v>
+      <c r="C383" s="16" t="s">
+        <v>800</v>
       </c>
       <c r="D383" s="1">
         <v>6.22</v>
@@ -27401,13 +27392,13 @@
     </row>
     <row r="384" spans="1:20" ht="24.75" customHeight="1">
       <c r="A384" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C384" s="17" t="s">
-        <v>803</v>
+      <c r="C384" s="16" t="s">
+        <v>802</v>
       </c>
       <c r="D384" s="1">
         <v>6.22</v>
@@ -27462,13 +27453,13 @@
     </row>
     <row r="385" spans="1:20" ht="24.75" customHeight="1">
       <c r="A385" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C385" s="17" t="s">
-        <v>805</v>
+      <c r="C385" s="16" t="s">
+        <v>804</v>
       </c>
       <c r="D385" s="1">
         <v>6.22</v>
@@ -27523,13 +27514,13 @@
     </row>
     <row r="386" spans="1:20" ht="24.75" customHeight="1">
       <c r="A386" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C386" s="17" t="s">
-        <v>807</v>
+      <c r="C386" s="16" t="s">
+        <v>806</v>
       </c>
       <c r="D386" s="1">
         <v>6.22</v>
@@ -27584,13 +27575,13 @@
     </row>
     <row r="387" spans="1:20" ht="24.75" customHeight="1">
       <c r="A387" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C387" s="17" t="s">
-        <v>809</v>
+      <c r="C387" s="16" t="s">
+        <v>808</v>
       </c>
       <c r="D387" s="1">
         <v>6.22</v>
@@ -27645,13 +27636,13 @@
     </row>
     <row r="388" spans="1:20" ht="24.75" customHeight="1">
       <c r="A388" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C388" s="17" t="s">
-        <v>811</v>
+      <c r="C388" s="16" t="s">
+        <v>810</v>
       </c>
       <c r="D388" s="1">
         <v>6.22</v>
@@ -27706,13 +27697,13 @@
     </row>
     <row r="389" spans="1:20" ht="24.75" customHeight="1">
       <c r="A389" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C389" s="17" t="s">
-        <v>813</v>
+      <c r="C389" s="16" t="s">
+        <v>812</v>
       </c>
       <c r="D389" s="1">
         <v>6.22</v>
@@ -27767,13 +27758,13 @@
     </row>
     <row r="390" spans="1:20" ht="24.75" customHeight="1">
       <c r="A390" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C390" s="17" t="s">
-        <v>815</v>
+      <c r="C390" s="16" t="s">
+        <v>814</v>
       </c>
       <c r="D390" s="1">
         <v>6.22</v>
@@ -27828,13 +27819,13 @@
     </row>
     <row r="391" spans="1:20" ht="24.75" customHeight="1">
       <c r="A391" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C391" s="17" t="s">
-        <v>817</v>
+      <c r="C391" s="16" t="s">
+        <v>816</v>
       </c>
       <c r="D391" s="1">
         <v>6.22</v>
@@ -27889,13 +27880,13 @@
     </row>
     <row r="392" spans="1:20" ht="24.75" customHeight="1">
       <c r="A392" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C392" s="17" t="s">
-        <v>819</v>
+      <c r="C392" s="16" t="s">
+        <v>818</v>
       </c>
       <c r="D392" s="1">
         <v>6.22</v>
@@ -27950,13 +27941,13 @@
     </row>
     <row r="393" spans="1:20" ht="24.75" customHeight="1">
       <c r="A393" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C393" s="17" t="s">
-        <v>821</v>
+      <c r="C393" s="16" t="s">
+        <v>820</v>
       </c>
       <c r="D393" s="1">
         <v>6.22</v>
@@ -28011,13 +28002,13 @@
     </row>
     <row r="394" spans="1:20" ht="24.75" customHeight="1">
       <c r="A394" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C394" s="17" t="s">
-        <v>823</v>
+      <c r="C394" s="16" t="s">
+        <v>822</v>
       </c>
       <c r="D394" s="1">
         <v>6.22</v>
@@ -28072,13 +28063,13 @@
     </row>
     <row r="395" spans="1:20" ht="24.75" customHeight="1">
       <c r="A395" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D395" s="1">
         <v>6.22</v>
@@ -28133,13 +28124,13 @@
     </row>
     <row r="396" spans="1:20" ht="24.75" customHeight="1">
       <c r="A396" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C396" s="17" t="s">
-        <v>827</v>
+      <c r="C396" s="16" t="s">
+        <v>826</v>
       </c>
       <c r="D396" s="1">
         <v>6.22</v>
@@ -28194,13 +28185,13 @@
     </row>
     <row r="397" spans="1:20" ht="24.75" customHeight="1">
       <c r="A397" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C397" s="17" t="s">
-        <v>829</v>
+      <c r="C397" s="16" t="s">
+        <v>828</v>
       </c>
       <c r="D397" s="1">
         <v>6.22</v>
@@ -28255,13 +28246,13 @@
     </row>
     <row r="398" spans="1:20" ht="24.75" customHeight="1">
       <c r="A398" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C398" s="17" t="s">
-        <v>831</v>
+      <c r="C398" s="16" t="s">
+        <v>830</v>
       </c>
       <c r="D398" s="1">
         <v>6.22</v>
@@ -28316,13 +28307,13 @@
     </row>
     <row r="399" spans="1:20" ht="24.75" customHeight="1">
       <c r="A399" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C399" s="17" t="s">
-        <v>833</v>
+      <c r="C399" s="16" t="s">
+        <v>832</v>
       </c>
       <c r="D399" s="1">
         <v>6.22</v>
@@ -28377,13 +28368,13 @@
     </row>
     <row r="400" spans="1:20" ht="24.75" customHeight="1">
       <c r="A400" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C400" s="26" t="s">
-        <v>835</v>
+      <c r="C400" s="21" t="s">
+        <v>834</v>
       </c>
       <c r="D400" s="1">
         <v>6.22</v>
@@ -28438,13 +28429,13 @@
     </row>
     <row r="401" spans="1:20" ht="24.75" customHeight="1">
       <c r="A401" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C401" s="17" t="s">
-        <v>837</v>
+      <c r="C401" s="16" t="s">
+        <v>836</v>
       </c>
       <c r="D401" s="1">
         <v>6.22</v>
@@ -28499,13 +28490,13 @@
     </row>
     <row r="402" spans="1:20" ht="24.75" customHeight="1">
       <c r="A402" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C402" s="17" t="s">
-        <v>839</v>
+      <c r="C402" s="16" t="s">
+        <v>838</v>
       </c>
       <c r="D402" s="1">
         <v>6.22</v>
@@ -28560,13 +28551,13 @@
     </row>
     <row r="403" spans="1:20" ht="24.75" customHeight="1">
       <c r="A403" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C403" s="17" t="s">
-        <v>843</v>
+      <c r="C403" s="16" t="s">
+        <v>842</v>
       </c>
       <c r="D403" s="1">
         <v>6.22</v>
@@ -28621,13 +28612,13 @@
     </row>
     <row r="404" spans="1:20" ht="24.75" customHeight="1">
       <c r="A404" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D404" s="1">
         <v>6.22</v>
@@ -28682,13 +28673,13 @@
     </row>
     <row r="405" spans="1:20" ht="24.75" customHeight="1">
       <c r="A405" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="C405" s="16" t="s">
         <v>746</v>
-      </c>
-      <c r="C405" s="17" t="s">
-        <v>747</v>
       </c>
       <c r="D405" s="1">
         <v>6.42</v>
@@ -28743,13 +28734,13 @@
     </row>
     <row r="406" spans="1:20" ht="24.75" customHeight="1">
       <c r="A406" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C406" s="16" t="s">
         <v>748</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C406" s="17" t="s">
-        <v>749</v>
       </c>
       <c r="D406" s="1">
         <v>6.42</v>
@@ -28804,13 +28795,13 @@
     </row>
     <row r="407" spans="1:20" ht="24.75" customHeight="1">
       <c r="A407" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="D407" s="1">
         <v>6.42</v>
@@ -28865,13 +28856,13 @@
     </row>
     <row r="408" spans="1:20" ht="24.75" customHeight="1">
       <c r="A408" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="C408" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="D408" s="1">
         <v>6.47</v>
@@ -28926,13 +28917,13 @@
     </row>
     <row r="409" spans="1:20" ht="24.75" customHeight="1">
       <c r="A409" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="D409" s="1">
         <v>6.47</v>
@@ -28987,13 +28978,13 @@
     </row>
     <row r="410" spans="1:20" ht="24.75" customHeight="1">
       <c r="A410" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="D410" s="1">
         <v>6.47</v>
@@ -29048,13 +29039,13 @@
     </row>
     <row r="411" spans="1:20" ht="24.75" customHeight="1">
       <c r="A411" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="D411" s="1">
         <v>6.47</v>
@@ -29109,13 +29100,13 @@
     </row>
     <row r="412" spans="1:20" ht="24.75" customHeight="1">
       <c r="A412" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C412" s="16" t="s">
         <v>741</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C412" s="17" t="s">
-        <v>742</v>
       </c>
       <c r="D412" s="1">
         <v>6.47</v>
@@ -29170,13 +29161,13 @@
     </row>
     <row r="413" spans="1:20" ht="24.75" customHeight="1">
       <c r="A413" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C413" s="16" t="s">
         <v>743</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C413" s="17" t="s">
-        <v>744</v>
       </c>
       <c r="D413" s="1">
         <v>6.47</v>
@@ -29231,13 +29222,13 @@
     </row>
     <row r="414" spans="1:20" ht="24.75" customHeight="1">
       <c r="A414" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="C414" s="16" t="s">
         <v>727</v>
-      </c>
-      <c r="C414" s="17" t="s">
-        <v>728</v>
       </c>
       <c r="D414" s="1">
         <v>6.51</v>
@@ -29292,13 +29283,13 @@
     </row>
     <row r="415" spans="1:20" ht="24.75" customHeight="1">
       <c r="A415" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="D415" s="1">
         <v>6.6</v>
@@ -29353,13 +29344,13 @@
     </row>
     <row r="416" spans="1:20" ht="24.75" customHeight="1">
       <c r="A416" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="D416" s="1">
         <v>6.6</v>
@@ -29414,13 +29405,13 @@
     </row>
     <row r="417" spans="1:20" ht="24.75" customHeight="1">
       <c r="A417" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="D417" s="1">
         <v>6.6</v>
@@ -29475,13 +29466,13 @@
     </row>
     <row r="418" spans="1:20" ht="24.75" customHeight="1">
       <c r="A418" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="D418" s="1">
         <v>6.6</v>
@@ -29536,13 +29527,13 @@
     </row>
     <row r="419" spans="1:20" ht="24.75" customHeight="1">
       <c r="A419" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="D419" s="1">
         <v>6.6</v>
@@ -29597,13 +29588,13 @@
     </row>
     <row r="420" spans="1:20" ht="24.75" customHeight="1">
       <c r="A420" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="D420" s="1">
         <v>7.1150000000000002</v>
@@ -29658,13 +29649,13 @@
     </row>
     <row r="421" spans="1:20" ht="24.75" customHeight="1">
       <c r="A421" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C421" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="D421" s="1">
         <v>7.1150000000000002</v>
@@ -29719,13 +29710,13 @@
     </row>
     <row r="422" spans="1:20" ht="24.75" customHeight="1">
       <c r="A422" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="C422" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="D422" s="1">
         <v>6.71</v>
@@ -29780,13 +29771,13 @@
     </row>
     <row r="423" spans="1:20" ht="24.75" customHeight="1">
       <c r="A423" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="C423" s="16" t="s">
         <v>700</v>
-      </c>
-      <c r="C423" s="17" t="s">
-        <v>701</v>
       </c>
       <c r="D423" s="1">
         <v>6.81</v>
@@ -29841,13 +29832,13 @@
     </row>
     <row r="424" spans="1:20" ht="24.75" customHeight="1">
       <c r="A424" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="C424" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="D424" s="1">
         <v>6.83</v>
@@ -29902,13 +29893,13 @@
     </row>
     <row r="425" spans="1:20" ht="24.75" customHeight="1">
       <c r="A425" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="C425" s="16" t="s">
         <v>682</v>
-      </c>
-      <c r="C425" s="17" t="s">
-        <v>683</v>
       </c>
       <c r="D425" s="1">
         <v>6.99</v>
@@ -29963,13 +29954,13 @@
     </row>
     <row r="426" spans="1:20" ht="24.75" customHeight="1">
       <c r="A426" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="D426" s="1">
         <v>6.99</v>
@@ -30024,13 +30015,13 @@
     </row>
     <row r="427" spans="1:20" ht="24.75" customHeight="1">
       <c r="A427" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C427" s="16" t="s">
         <v>686</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C427" s="17" t="s">
-        <v>687</v>
       </c>
       <c r="D427" s="1">
         <v>6.99</v>
@@ -30085,13 +30076,13 @@
     </row>
     <row r="428" spans="1:20" ht="24.75" customHeight="1">
       <c r="A428" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C428" s="16" t="s">
         <v>688</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C428" s="17" t="s">
-        <v>689</v>
       </c>
       <c r="D428" s="1">
         <v>6.99</v>
@@ -30146,13 +30137,13 @@
     </row>
     <row r="429" spans="1:20" ht="24.75" customHeight="1">
       <c r="A429" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C429" s="16" t="s">
         <v>690</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C429" s="17" t="s">
-        <v>691</v>
       </c>
       <c r="D429" s="1">
         <v>6.99</v>
@@ -30207,13 +30198,13 @@
     </row>
     <row r="430" spans="1:20" ht="24.75" customHeight="1">
       <c r="A430" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C430" s="16" t="s">
         <v>692</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C430" s="17" t="s">
-        <v>693</v>
       </c>
       <c r="D430" s="1">
         <v>6.99</v>
@@ -30268,13 +30259,13 @@
     </row>
     <row r="431" spans="1:20" ht="24.75" customHeight="1">
       <c r="A431" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C431" s="16" t="s">
         <v>694</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C431" s="17" t="s">
-        <v>695</v>
       </c>
       <c r="D431" s="1">
         <v>6.99</v>
@@ -30329,13 +30320,13 @@
     </row>
     <row r="432" spans="1:20" ht="24.75" customHeight="1">
       <c r="A432" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="C432" s="16" t="s">
         <v>675</v>
-      </c>
-      <c r="C432" s="17" t="s">
-        <v>676</v>
       </c>
       <c r="D432" s="1">
         <v>6.99</v>
@@ -30390,13 +30381,13 @@
     </row>
     <row r="433" spans="1:20" ht="24.75" customHeight="1">
       <c r="A433" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C433" s="16" t="s">
         <v>677</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C433" s="17" t="s">
-        <v>678</v>
       </c>
       <c r="D433" s="1">
         <v>6.99</v>
@@ -30451,13 +30442,13 @@
     </row>
     <row r="434" spans="1:20" ht="24.75" customHeight="1">
       <c r="A434" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C434" s="16" t="s">
         <v>679</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C434" s="17" t="s">
-        <v>680</v>
       </c>
       <c r="D434" s="1">
         <v>6.99</v>
@@ -30512,13 +30503,13 @@
     </row>
     <row r="435" spans="1:20" ht="24.75" customHeight="1">
       <c r="A435" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C435" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="D435" s="1">
         <v>7.05</v>
@@ -30573,13 +30564,13 @@
     </row>
     <row r="436" spans="1:20" ht="24.75" customHeight="1">
       <c r="A436" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C436" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="D436" s="1">
         <v>7.14</v>
@@ -30634,13 +30625,13 @@
     </row>
     <row r="437" spans="1:20" ht="24.75" customHeight="1">
       <c r="A437" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="D437" s="1">
         <v>7.61</v>
@@ -30695,13 +30686,13 @@
     </row>
     <row r="438" spans="1:20" ht="24.75" customHeight="1">
       <c r="A438" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C438" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="D438" s="1">
         <v>7.61</v>
@@ -30756,13 +30747,13 @@
     </row>
     <row r="439" spans="1:20" ht="24.75" customHeight="1">
       <c r="A439" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="D439" s="1">
         <v>7.69</v>
@@ -30817,13 +30808,13 @@
     </row>
     <row r="440" spans="1:20" ht="24.75" customHeight="1">
       <c r="A440" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D440" s="1">
         <v>7.77</v>
@@ -30878,13 +30869,13 @@
     </row>
     <row r="441" spans="1:20" ht="24.75" customHeight="1">
       <c r="A441" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="D441" s="1">
         <v>7.79</v>
@@ -30939,13 +30930,13 @@
     </row>
     <row r="442" spans="1:20" ht="24.75" customHeight="1">
       <c r="A442" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D442" s="1">
         <v>7.93</v>
@@ -31000,13 +30991,13 @@
     </row>
     <row r="443" spans="1:20" ht="24.75" customHeight="1">
       <c r="A443" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D443" s="1">
         <v>7.93</v>
@@ -31061,13 +31052,13 @@
     </row>
     <row r="444" spans="1:20" ht="24.75" customHeight="1">
       <c r="A444" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D444" s="1">
         <v>7.93</v>
@@ -31122,13 +31113,13 @@
     </row>
     <row r="445" spans="1:20" ht="24.75" customHeight="1">
       <c r="A445" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D445" s="1">
         <v>7.93</v>
@@ -31183,13 +31174,13 @@
     </row>
     <row r="446" spans="1:20" ht="24.75" customHeight="1">
       <c r="A446" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D446" s="1">
         <v>7.93</v>
@@ -31244,13 +31235,13 @@
     </row>
     <row r="447" spans="1:20" ht="24.75" customHeight="1">
       <c r="A447" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D447" s="1">
         <v>7.93</v>
@@ -31305,13 +31296,13 @@
     </row>
     <row r="448" spans="1:20" ht="24.75" customHeight="1">
       <c r="A448" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D448" s="1">
         <v>7.93</v>
@@ -31366,13 +31357,13 @@
     </row>
     <row r="449" spans="1:20" ht="24.75" customHeight="1">
       <c r="A449" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D449" s="1">
         <v>7.93</v>
@@ -31427,13 +31418,13 @@
     </row>
     <row r="450" spans="1:20" ht="24.75" customHeight="1">
       <c r="A450" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D450" s="1">
         <v>7.93</v>
@@ -31488,13 +31479,13 @@
     </row>
     <row r="451" spans="1:20" ht="24.75" customHeight="1">
       <c r="A451" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D451" s="1">
         <v>7.93</v>
@@ -31549,13 +31540,13 @@
     </row>
     <row r="452" spans="1:20" ht="24.75" customHeight="1">
       <c r="A452" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D452" s="1">
         <v>7.94</v>
@@ -31610,13 +31601,13 @@
     </row>
     <row r="453" spans="1:20" ht="24.75" customHeight="1">
       <c r="A453" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D453" s="1">
         <v>7.94</v>
@@ -31671,13 +31662,13 @@
     </row>
     <row r="454" spans="1:20" ht="24.75" customHeight="1">
       <c r="A454" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D454" s="1">
         <v>7.94</v>
@@ -31732,13 +31723,13 @@
     </row>
     <row r="455" spans="1:20" ht="24.75" customHeight="1">
       <c r="A455" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D455" s="1">
         <v>7.94</v>
@@ -31793,13 +31784,13 @@
     </row>
     <row r="456" spans="1:20" ht="24.75" customHeight="1">
       <c r="A456" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D456" s="1">
         <v>7.94</v>
@@ -31854,13 +31845,13 @@
     </row>
     <row r="457" spans="1:20" ht="24.75" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D457" s="1">
         <v>7.94</v>
@@ -31915,13 +31906,13 @@
     </row>
     <row r="458" spans="1:20" ht="24.75" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D458" s="1">
         <v>7.94</v>
@@ -31976,13 +31967,13 @@
     </row>
     <row r="459" spans="1:20" ht="24.75" customHeight="1">
       <c r="A459" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D459" s="1">
         <v>7.94</v>
@@ -32037,13 +32028,13 @@
     </row>
     <row r="460" spans="1:20" ht="24.75" customHeight="1">
       <c r="A460" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D460" s="1">
         <v>7.94</v>
@@ -32098,13 +32089,13 @@
     </row>
     <row r="461" spans="1:20" ht="24.75" customHeight="1">
       <c r="A461" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D461" s="1">
         <v>7.94</v>
@@ -32159,13 +32150,13 @@
     </row>
     <row r="462" spans="1:20" ht="24.75" customHeight="1">
       <c r="A462" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D462" s="1">
         <v>7.94</v>
@@ -32220,13 +32211,13 @@
     </row>
     <row r="463" spans="1:20" ht="24.75" customHeight="1">
       <c r="A463" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D463" s="1">
         <v>7.94</v>
@@ -32281,13 +32272,13 @@
     </row>
     <row r="464" spans="1:20" ht="24.75" customHeight="1">
       <c r="A464" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D464" s="1">
         <v>7.94</v>
@@ -32342,13 +32333,13 @@
     </row>
     <row r="465" spans="1:20" ht="24.75" customHeight="1">
       <c r="A465" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D465" s="1">
         <v>7.94</v>
@@ -32403,13 +32394,13 @@
     </row>
     <row r="466" spans="1:20" ht="24.75" customHeight="1">
       <c r="A466" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D466" s="1">
         <v>7.94</v>
@@ -32464,13 +32455,13 @@
     </row>
     <row r="467" spans="1:20" ht="24.75" customHeight="1">
       <c r="A467" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B467" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="C467" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="D467" s="1">
         <v>7.95</v>
@@ -32525,13 +32516,13 @@
     </row>
     <row r="468" spans="1:20" ht="24.75" customHeight="1">
       <c r="A468" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="C468" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D468" s="1">
         <v>8.0399999999999991</v>
@@ -32586,13 +32577,13 @@
     </row>
     <row r="469" spans="1:20" ht="24.75" customHeight="1">
       <c r="A469" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B469" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D469" s="1">
         <v>8.0399999999999991</v>
@@ -32647,13 +32638,13 @@
     </row>
     <row r="470" spans="1:20" ht="24.75" customHeight="1">
       <c r="A470" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B470" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D470" s="1">
         <v>8.0399999999999991</v>
@@ -32708,13 +32699,13 @@
     </row>
     <row r="471" spans="1:20" ht="24.75" customHeight="1">
       <c r="A471" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B471" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D471" s="1">
         <v>8.0399999999999991</v>
@@ -32769,13 +32760,13 @@
     </row>
     <row r="472" spans="1:20" ht="24.75" customHeight="1">
       <c r="A472" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B472" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D472" s="1">
         <v>8.0399999999999991</v>
@@ -32830,13 +32821,13 @@
     </row>
     <row r="473" spans="1:20" ht="24.75" customHeight="1">
       <c r="A473" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B473" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D473" s="1">
         <v>8.0399999999999991</v>
@@ -32891,13 +32882,13 @@
     </row>
     <row r="474" spans="1:20" ht="24.75" customHeight="1">
       <c r="A474" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="C474" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="D474" s="1">
         <v>8.08</v>
@@ -32952,13 +32943,13 @@
     </row>
     <row r="475" spans="1:20" ht="24.75" customHeight="1">
       <c r="A475" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="D475" s="1">
         <v>8.08</v>
@@ -33013,13 +33004,13 @@
     </row>
     <row r="476" spans="1:20" ht="24.75" customHeight="1">
       <c r="A476" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="D476" s="1">
         <v>8.08</v>
@@ -33074,13 +33065,13 @@
     </row>
     <row r="477" spans="1:20" ht="24.75" customHeight="1">
       <c r="A477" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="C477" s="16" t="s">
         <v>590</v>
-      </c>
-      <c r="C477" s="17" t="s">
-        <v>591</v>
       </c>
       <c r="D477" s="1">
         <v>8.08</v>
@@ -33135,13 +33126,13 @@
     </row>
     <row r="478" spans="1:20" ht="24.75" customHeight="1">
       <c r="A478" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="C478" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="D478" s="1">
         <v>8.1</v>
@@ -33196,13 +33187,13 @@
     </row>
     <row r="479" spans="1:20" ht="24.75" customHeight="1">
       <c r="A479" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="C479" s="16" t="s">
         <v>582</v>
-      </c>
-      <c r="C479" s="17" t="s">
-        <v>583</v>
       </c>
       <c r="D479" s="1">
         <v>8.08</v>
@@ -33257,13 +33248,13 @@
     </row>
     <row r="480" spans="1:20" ht="24.75" customHeight="1">
       <c r="A480" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="C480" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="C480" s="17" t="s">
-        <v>580</v>
       </c>
       <c r="D480" s="1">
         <v>8.08</v>
@@ -33318,13 +33309,13 @@
     </row>
     <row r="481" spans="1:20" ht="24.75" customHeight="1">
       <c r="A481" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="C481" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="D481" s="1">
         <v>8.08</v>
@@ -33379,13 +33370,13 @@
     </row>
     <row r="482" spans="1:20" ht="24.75" customHeight="1">
       <c r="A482" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="C482" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="D482" s="1">
         <v>8.08</v>
@@ -33440,13 +33431,13 @@
     </row>
     <row r="483" spans="1:20" ht="24.75" customHeight="1">
       <c r="A483" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="D483" s="1">
         <v>8.08</v>
@@ -33501,13 +33492,13 @@
     </row>
     <row r="484" spans="1:20" ht="24.75" customHeight="1">
       <c r="A484" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="C484" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="D484" s="1">
         <v>8.06</v>
@@ -33562,13 +33553,13 @@
     </row>
     <row r="485" spans="1:20" ht="24.75" customHeight="1">
       <c r="A485" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="D485" s="1">
         <v>8.06</v>
@@ -33623,13 +33614,13 @@
     </row>
     <row r="486" spans="1:20" ht="24.75" customHeight="1">
       <c r="A486" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="C486" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D486" s="1">
         <v>8.0500000000000007</v>
@@ -33684,13 +33675,13 @@
     </row>
     <row r="487" spans="1:20" ht="24.75" customHeight="1">
       <c r="A487" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B487" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D487" s="1">
         <v>8.0500000000000007</v>
@@ -33745,13 +33736,13 @@
     </row>
     <row r="488" spans="1:20" ht="24.75" customHeight="1">
       <c r="A488" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="C488" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="D488" s="1">
         <v>7.99</v>
@@ -33806,13 +33797,13 @@
     </row>
     <row r="489" spans="1:20" ht="24.75" customHeight="1">
       <c r="A489" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D489" s="1">
         <v>7.07</v>
@@ -33867,13 +33858,13 @@
     </row>
     <row r="490" spans="1:20" ht="24.75" customHeight="1">
       <c r="A490" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D490" s="1">
         <v>7.07</v>
@@ -33928,13 +33919,13 @@
     </row>
     <row r="491" spans="1:20" ht="24.75" customHeight="1">
       <c r="A491" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D491" s="1">
         <v>7.07</v>
@@ -33989,13 +33980,13 @@
     </row>
     <row r="492" spans="1:20" ht="24.75" customHeight="1">
       <c r="A492" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D492" s="1">
         <v>7.05</v>
@@ -34075,13 +34066,13 @@
     </row>
     <row r="494" spans="1:20" ht="24.75" customHeight="1">
       <c r="A494" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D494" s="1">
         <v>5.99</v>
@@ -34136,13 +34127,13 @@
     </row>
     <row r="495" spans="1:20" ht="24.75" customHeight="1">
       <c r="A495" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D495" s="1">
         <v>5.99</v>
@@ -34197,13 +34188,13 @@
     </row>
     <row r="496" spans="1:20" ht="24.75" customHeight="1">
       <c r="A496" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D496" s="1">
         <v>5.99</v>
@@ -34258,13 +34249,13 @@
     </row>
     <row r="497" spans="1:20" ht="24.75" customHeight="1">
       <c r="A497" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D497" s="1">
         <v>5.99</v>
@@ -34319,13 +34310,13 @@
     </row>
     <row r="498" spans="1:20" ht="24.75" customHeight="1">
       <c r="A498" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D498" s="1">
         <v>5.99</v>
@@ -34380,13 +34371,13 @@
     </row>
     <row r="499" spans="1:20" ht="24.75" customHeight="1">
       <c r="A499" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D499" s="1">
         <v>6.22</v>
@@ -34441,13 +34432,13 @@
     </row>
     <row r="500" spans="1:20" ht="24.75" customHeight="1">
       <c r="A500" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D500" s="1">
         <v>6.22</v>
@@ -34502,13 +34493,13 @@
     </row>
     <row r="501" spans="1:20" ht="24.75" customHeight="1">
       <c r="A501" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="D501" s="1">
         <v>6.42</v>
@@ -34563,13 +34554,13 @@
     </row>
     <row r="502" spans="1:20" ht="24.75" customHeight="1">
       <c r="A502" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="D502" s="1">
         <v>7.1150000000000002</v>
@@ -34624,13 +34615,13 @@
     </row>
     <row r="503" spans="1:20" ht="24.75" customHeight="1">
       <c r="A503" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C503" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="D503" s="1">
         <v>7.1150000000000002</v>
@@ -34685,13 +34676,13 @@
     </row>
     <row r="504" spans="1:20" ht="24.75" customHeight="1">
       <c r="A504" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D504" s="1">
         <v>7.1150000000000002</v>
@@ -34793,38 +34784,38 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="23" t="s">
-        <v>928</v>
-      </c>
-      <c r="B506" s="24"/>
-      <c r="C506" s="24"/>
-      <c r="D506" s="24"/>
-      <c r="E506" s="24"/>
-      <c r="F506" s="24"/>
-      <c r="G506" s="24"/>
-      <c r="H506" s="24"/>
-      <c r="I506" s="24"/>
-      <c r="J506" s="24"/>
-      <c r="K506" s="24"/>
-      <c r="L506" s="24"/>
-      <c r="M506" s="24"/>
-      <c r="N506" s="24"/>
-      <c r="O506" s="24"/>
-      <c r="P506" s="24"/>
-      <c r="Q506" s="24"/>
-      <c r="R506" s="24"/>
-      <c r="S506" s="24"/>
-      <c r="T506" s="25"/>
+      <c r="A506" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="B506" s="23"/>
+      <c r="C506" s="23"/>
+      <c r="D506" s="23"/>
+      <c r="E506" s="23"/>
+      <c r="F506" s="23"/>
+      <c r="G506" s="23"/>
+      <c r="H506" s="23"/>
+      <c r="I506" s="23"/>
+      <c r="J506" s="23"/>
+      <c r="K506" s="23"/>
+      <c r="L506" s="23"/>
+      <c r="M506" s="23"/>
+      <c r="N506" s="23"/>
+      <c r="O506" s="23"/>
+      <c r="P506" s="23"/>
+      <c r="Q506" s="23"/>
+      <c r="R506" s="23"/>
+      <c r="S506" s="23"/>
+      <c r="T506" s="24"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D507" s="1">
         <v>7.07</v>
@@ -34904,13 +34895,13 @@
     </row>
     <row r="509" spans="1:20" ht="24.75" customHeight="1">
       <c r="A509" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C509" s="19" t="s">
-        <v>937</v>
+        <v>932</v>
+      </c>
+      <c r="C509" s="25" t="s">
+        <v>1102</v>
       </c>
       <c r="D509" s="1">
         <v>5.94</v>
@@ -34965,13 +34956,13 @@
     </row>
     <row r="510" spans="1:20" ht="24.75" customHeight="1">
       <c r="A510" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D510" s="1">
         <v>7.07</v>
@@ -35051,13 +35042,13 @@
     </row>
     <row r="512" spans="1:20" ht="24.75" customHeight="1">
       <c r="A512" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
+      </c>
+      <c r="C512" s="20" t="s">
+        <v>1103</v>
       </c>
       <c r="D512" s="1">
         <v>7.8</v>
@@ -35112,13 +35103,13 @@
     </row>
     <row r="513" spans="1:20" ht="24.75" customHeight="1">
       <c r="A513" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D513" s="1">
         <v>7.91</v>
@@ -35217,38 +35208,38 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="B515" s="24"/>
-      <c r="C515" s="24"/>
-      <c r="D515" s="24"/>
-      <c r="E515" s="24"/>
-      <c r="F515" s="24"/>
-      <c r="G515" s="24"/>
-      <c r="H515" s="24"/>
-      <c r="I515" s="24"/>
-      <c r="J515" s="24"/>
-      <c r="K515" s="24"/>
-      <c r="L515" s="24"/>
-      <c r="M515" s="24"/>
-      <c r="N515" s="24"/>
-      <c r="O515" s="24"/>
-      <c r="P515" s="24"/>
-      <c r="Q515" s="24"/>
-      <c r="R515" s="24"/>
-      <c r="S515" s="24"/>
-      <c r="T515" s="25"/>
+      <c r="A515" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="B515" s="23"/>
+      <c r="C515" s="23"/>
+      <c r="D515" s="23"/>
+      <c r="E515" s="23"/>
+      <c r="F515" s="23"/>
+      <c r="G515" s="23"/>
+      <c r="H515" s="23"/>
+      <c r="I515" s="23"/>
+      <c r="J515" s="23"/>
+      <c r="K515" s="23"/>
+      <c r="L515" s="23"/>
+      <c r="M515" s="23"/>
+      <c r="N515" s="23"/>
+      <c r="O515" s="23"/>
+      <c r="P515" s="23"/>
+      <c r="Q515" s="23"/>
+      <c r="R515" s="23"/>
+      <c r="S515" s="23"/>
+      <c r="T515" s="24"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D516" s="1">
         <v>7.99</v>
@@ -35303,13 +35294,13 @@
     </row>
     <row r="517" spans="1:20" ht="24.75" customHeight="1">
       <c r="A517" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D517" s="1">
         <v>7.55</v>
@@ -35364,13 +35355,13 @@
     </row>
     <row r="518" spans="1:20" ht="24.75" customHeight="1">
       <c r="A518" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D518" s="1">
         <v>7.55</v>
@@ -35425,13 +35416,13 @@
     </row>
     <row r="519" spans="1:20" ht="24.75" customHeight="1">
       <c r="A519" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D519" s="1">
         <v>6.41</v>
@@ -35486,13 +35477,13 @@
     </row>
     <row r="520" spans="1:20" ht="24.75" customHeight="1">
       <c r="A520" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C520" s="17" t="s">
-        <v>956</v>
+        <v>948</v>
+      </c>
+      <c r="C520" s="16" t="s">
+        <v>951</v>
       </c>
       <c r="D520" s="1">
         <v>6.41</v>
@@ -35547,13 +35538,13 @@
     </row>
     <row r="521" spans="1:20" ht="24.75" customHeight="1">
       <c r="A521" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B521" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C521" s="16" t="s">
         <v>953</v>
-      </c>
-      <c r="C521" s="17" t="s">
-        <v>958</v>
       </c>
       <c r="D521" s="1">
         <v>6.41</v>
@@ -35608,13 +35599,13 @@
     </row>
     <row r="522" spans="1:20" ht="24.75" customHeight="1">
       <c r="A522" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D522" s="1">
         <v>7.07</v>
@@ -35713,38 +35704,38 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="23" t="s">
-        <v>962</v>
-      </c>
-      <c r="B524" s="24"/>
-      <c r="C524" s="24"/>
-      <c r="D524" s="24"/>
-      <c r="E524" s="24"/>
-      <c r="F524" s="24"/>
-      <c r="G524" s="24"/>
-      <c r="H524" s="24"/>
-      <c r="I524" s="24"/>
-      <c r="J524" s="24"/>
-      <c r="K524" s="24"/>
-      <c r="L524" s="24"/>
-      <c r="M524" s="24"/>
-      <c r="N524" s="24"/>
-      <c r="O524" s="24"/>
-      <c r="P524" s="24"/>
-      <c r="Q524" s="24"/>
-      <c r="R524" s="24"/>
-      <c r="S524" s="24"/>
-      <c r="T524" s="25"/>
+      <c r="A524" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="B524" s="23"/>
+      <c r="C524" s="23"/>
+      <c r="D524" s="23"/>
+      <c r="E524" s="23"/>
+      <c r="F524" s="23"/>
+      <c r="G524" s="23"/>
+      <c r="H524" s="23"/>
+      <c r="I524" s="23"/>
+      <c r="J524" s="23"/>
+      <c r="K524" s="23"/>
+      <c r="L524" s="23"/>
+      <c r="M524" s="23"/>
+      <c r="N524" s="23"/>
+      <c r="O524" s="23"/>
+      <c r="P524" s="23"/>
+      <c r="Q524" s="23"/>
+      <c r="R524" s="23"/>
+      <c r="S524" s="23"/>
+      <c r="T524" s="24"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D525" s="1">
         <v>7.27</v>
@@ -35799,13 +35790,13 @@
     </row>
     <row r="526" spans="1:20" ht="24.75" customHeight="1">
       <c r="A526" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C526" s="18" t="s">
-        <v>992</v>
+        <v>927</v>
+      </c>
+      <c r="C526" s="21" t="s">
+        <v>987</v>
       </c>
       <c r="D526" s="1">
         <v>7.91</v>
@@ -35860,13 +35851,13 @@
     </row>
     <row r="527" spans="1:20" ht="24.75" customHeight="1">
       <c r="A527" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D527" s="1">
         <v>8.08</v>
@@ -35921,13 +35912,13 @@
     </row>
     <row r="528" spans="1:20" ht="24.75" customHeight="1">
       <c r="A528" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="C528" s="17" t="s">
-        <v>982</v>
+        <v>976</v>
+      </c>
+      <c r="C528" s="16" t="s">
+        <v>977</v>
       </c>
       <c r="D528" s="1">
         <v>8.0500000000000007</v>
@@ -35982,13 +35973,13 @@
     </row>
     <row r="529" spans="1:20" ht="24.75" customHeight="1">
       <c r="A529" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>1062</v>
+        <v>1054</v>
+      </c>
+      <c r="C529" s="16" t="s">
+        <v>1057</v>
       </c>
       <c r="D529" s="1">
         <v>6.96</v>
@@ -36043,13 +36034,13 @@
     </row>
     <row r="530" spans="1:20" ht="24.75" customHeight="1">
       <c r="A530" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B530" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C530" s="16" t="s">
         <v>1059</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="D530" s="1">
         <v>6.96</v>
@@ -36104,13 +36095,13 @@
     </row>
     <row r="531" spans="1:20" ht="24.75" customHeight="1">
       <c r="A531" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B531" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C531" s="16" t="s">
         <v>1068</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="D531" s="1">
         <v>6.96</v>
@@ -36190,13 +36181,13 @@
     </row>
     <row r="533" spans="1:20" ht="24.75" customHeight="1">
       <c r="A533" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D533" s="1">
         <v>6.22</v>
@@ -36251,13 +36242,13 @@
     </row>
     <row r="534" spans="1:20" ht="24.75" customHeight="1">
       <c r="A534" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C534" s="17" t="s">
-        <v>1005</v>
+        <v>671</v>
+      </c>
+      <c r="C534" s="16" t="s">
+        <v>1000</v>
       </c>
       <c r="D534" s="1">
         <v>7.05</v>
@@ -36312,13 +36303,13 @@
     </row>
     <row r="535" spans="1:20" ht="24.75" customHeight="1">
       <c r="A535" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D535" s="1">
         <v>7.91</v>
@@ -36373,13 +36364,13 @@
     </row>
     <row r="536" spans="1:20" ht="24.75" customHeight="1">
       <c r="A536" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C536" s="17" t="s">
-        <v>1000</v>
+        <v>992</v>
+      </c>
+      <c r="C536" s="16" t="s">
+        <v>995</v>
       </c>
       <c r="D536" s="1">
         <v>7.91</v>
@@ -36434,13 +36425,13 @@
     </row>
     <row r="537" spans="1:20" ht="24.75" customHeight="1">
       <c r="A537" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C537" s="17" t="s">
-        <v>992</v>
+        <v>927</v>
+      </c>
+      <c r="C537" s="16" t="s">
+        <v>987</v>
       </c>
       <c r="D537" s="1">
         <v>7.91</v>
@@ -36495,13 +36486,13 @@
     </row>
     <row r="538" spans="1:20" ht="24.75" customHeight="1">
       <c r="A538" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="C538" s="17" t="s">
-        <v>990</v>
+        <v>982</v>
+      </c>
+      <c r="C538" s="16" t="s">
+        <v>985</v>
       </c>
       <c r="D538" s="1">
         <v>8.08</v>
@@ -36556,13 +36547,13 @@
     </row>
     <row r="539" spans="1:20" ht="24.75" customHeight="1">
       <c r="A539" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="C539" s="17" t="s">
-        <v>975</v>
+        <v>969</v>
+      </c>
+      <c r="C539" s="16" t="s">
+        <v>970</v>
       </c>
       <c r="D539" s="1">
         <v>7.99</v>
@@ -36617,13 +36608,13 @@
     </row>
     <row r="540" spans="1:20" ht="24.75" customHeight="1">
       <c r="A540" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C540" s="16" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D540" s="1">
         <v>7.99</v>
@@ -36678,13 +36669,13 @@
     </row>
     <row r="541" spans="1:20" ht="24.75" customHeight="1">
       <c r="A541" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="C541" s="17" t="s">
-        <v>968</v>
+        <v>962</v>
+      </c>
+      <c r="C541" s="16" t="s">
+        <v>963</v>
       </c>
       <c r="D541" s="1">
         <v>7.81</v>
@@ -36739,13 +36730,13 @@
     </row>
     <row r="542" spans="1:20" ht="24.75" customHeight="1">
       <c r="A542" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D542" s="1">
         <v>7.81</v>
@@ -36800,13 +36791,13 @@
     </row>
     <row r="543" spans="1:20" ht="24.75" customHeight="1">
       <c r="A543" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B543" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C543" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="D543" s="1">
         <v>7.81</v>
@@ -36861,13 +36852,13 @@
     </row>
     <row r="544" spans="1:20" ht="24.75" customHeight="1">
       <c r="A544" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C544" s="17" t="s">
-        <v>1013</v>
+        <v>1007</v>
+      </c>
+      <c r="C544" s="16" t="s">
+        <v>1008</v>
       </c>
       <c r="D544" s="1">
         <v>7.07</v>
@@ -36922,13 +36913,13 @@
     </row>
     <row r="545" spans="1:20" ht="24.75" customHeight="1">
       <c r="A545" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C545" s="17" t="s">
-        <v>1016</v>
+        <v>1010</v>
+      </c>
+      <c r="C545" s="16" t="s">
+        <v>1011</v>
       </c>
       <c r="D545" s="1">
         <v>7.07</v>
@@ -36983,13 +36974,13 @@
     </row>
     <row r="546" spans="1:20" ht="24.75" customHeight="1">
       <c r="A546" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C546" s="17" t="s">
-        <v>1019</v>
+        <v>1013</v>
+      </c>
+      <c r="C546" s="16" t="s">
+        <v>1014</v>
       </c>
       <c r="D546" s="1">
         <v>7.07</v>
@@ -37044,13 +37035,13 @@
     </row>
     <row r="547" spans="1:20" ht="24.75" customHeight="1">
       <c r="A547" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D547" s="1">
         <v>7.07</v>
@@ -37105,13 +37096,13 @@
     </row>
     <row r="548" spans="1:20" ht="24.75" customHeight="1">
       <c r="A548" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C548" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
+      </c>
+      <c r="C548" s="16" t="s">
+        <v>1020</v>
       </c>
       <c r="D548" s="1">
         <v>7.07</v>
@@ -37166,13 +37157,13 @@
     </row>
     <row r="549" spans="1:20" ht="24.75" customHeight="1">
       <c r="A549" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C549" s="17" t="s">
-        <v>1027</v>
+        <v>1019</v>
+      </c>
+      <c r="C549" s="16" t="s">
+        <v>1022</v>
       </c>
       <c r="D549" s="1">
         <v>7.07</v>
@@ -37227,13 +37218,13 @@
     </row>
     <row r="550" spans="1:20" ht="24.75" customHeight="1">
       <c r="A550" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C550" s="17" t="s">
-        <v>1030</v>
+        <v>1024</v>
+      </c>
+      <c r="C550" s="16" t="s">
+        <v>1025</v>
       </c>
       <c r="D550" s="1">
         <v>7.07</v>
@@ -37288,13 +37279,13 @@
     </row>
     <row r="551" spans="1:20" ht="24.75" customHeight="1">
       <c r="A551" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C551" s="17" t="s">
-        <v>1032</v>
+        <v>1024</v>
+      </c>
+      <c r="C551" s="16" t="s">
+        <v>1027</v>
       </c>
       <c r="D551" s="1">
         <v>7.07</v>
@@ -37349,13 +37340,13 @@
     </row>
     <row r="552" spans="1:20" ht="24.75" customHeight="1">
       <c r="A552" s="1" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B552" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C552" s="16" t="s">
         <v>1029</v>
-      </c>
-      <c r="C552" s="17" t="s">
-        <v>1034</v>
       </c>
       <c r="D552" s="1">
         <v>7.07</v>
@@ -37410,13 +37401,13 @@
     </row>
     <row r="553" spans="1:20" ht="24.75" customHeight="1">
       <c r="A553" s="1" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C553" s="17" t="s">
-        <v>1036</v>
+        <v>1024</v>
+      </c>
+      <c r="C553" s="16" t="s">
+        <v>1031</v>
       </c>
       <c r="D553" s="1">
         <v>7.07</v>
@@ -37471,13 +37462,13 @@
     </row>
     <row r="554" spans="1:20" ht="24.75" customHeight="1">
       <c r="A554" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C554" s="17" t="s">
-        <v>1038</v>
+        <v>1024</v>
+      </c>
+      <c r="C554" s="16" t="s">
+        <v>1033</v>
       </c>
       <c r="D554" s="1">
         <v>7.07</v>
@@ -37532,13 +37523,13 @@
     </row>
     <row r="555" spans="1:20" ht="24.75" customHeight="1">
       <c r="A555" s="1" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C555" s="17" t="s">
-        <v>1040</v>
+        <v>1024</v>
+      </c>
+      <c r="C555" s="16" t="s">
+        <v>1035</v>
       </c>
       <c r="D555" s="1">
         <v>7.07</v>
@@ -37593,13 +37584,13 @@
     </row>
     <row r="556" spans="1:20" ht="24.75" customHeight="1">
       <c r="A556" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C556" s="17" t="s">
-        <v>1042</v>
+        <v>1024</v>
+      </c>
+      <c r="C556" s="16" t="s">
+        <v>1037</v>
       </c>
       <c r="D556" s="1">
         <v>7.07</v>
@@ -37654,13 +37645,13 @@
     </row>
     <row r="557" spans="1:20" ht="24.75" customHeight="1">
       <c r="A557" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C557" s="17" t="s">
-        <v>1044</v>
+        <v>1024</v>
+      </c>
+      <c r="C557" s="16" t="s">
+        <v>1039</v>
       </c>
       <c r="D557" s="1">
         <v>7.07</v>
@@ -37715,13 +37706,13 @@
     </row>
     <row r="558" spans="1:20" ht="24.75" customHeight="1">
       <c r="A558" s="1" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C558" s="17" t="s">
-        <v>1046</v>
+        <v>1024</v>
+      </c>
+      <c r="C558" s="16" t="s">
+        <v>1041</v>
       </c>
       <c r="D558" s="1">
         <v>7.07</v>
@@ -37776,13 +37767,13 @@
     </row>
     <row r="559" spans="1:20" ht="24.75" customHeight="1">
       <c r="A559" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C559" s="17" t="s">
-        <v>1048</v>
+        <v>1024</v>
+      </c>
+      <c r="C559" s="16" t="s">
+        <v>1043</v>
       </c>
       <c r="D559" s="1">
         <v>7.07</v>
@@ -37837,13 +37828,13 @@
     </row>
     <row r="560" spans="1:20" ht="24.75" customHeight="1">
       <c r="A560" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C560" s="17" t="s">
-        <v>1051</v>
+        <v>1045</v>
+      </c>
+      <c r="C560" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="D560" s="1">
         <v>7.07</v>
@@ -37898,13 +37889,13 @@
     </row>
     <row r="561" spans="1:20" ht="24.75" customHeight="1">
       <c r="A561" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D561" s="1">
         <v>7</v>
@@ -37959,13 +37950,13 @@
     </row>
     <row r="562" spans="1:20" ht="24.75" customHeight="1">
       <c r="A562" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C562" s="17" t="s">
-        <v>1060</v>
+        <v>1054</v>
+      </c>
+      <c r="C562" s="16" t="s">
+        <v>1055</v>
       </c>
       <c r="D562" s="1">
         <v>6.96</v>
@@ -38020,13 +38011,13 @@
     </row>
     <row r="563" spans="1:20" ht="24.75" customHeight="1">
       <c r="A563" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D563" s="1">
         <v>6.96</v>
@@ -38081,13 +38072,13 @@
     </row>
     <row r="564" spans="1:20" ht="24.75" customHeight="1">
       <c r="A564" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D564" s="1">
         <v>6.96</v>
@@ -38142,13 +38133,13 @@
     </row>
     <row r="565" spans="1:20" ht="24.75" customHeight="1">
       <c r="A565" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C565" s="17" t="s">
-        <v>1071</v>
+        <v>1063</v>
+      </c>
+      <c r="C565" s="16" t="s">
+        <v>1066</v>
       </c>
       <c r="D565" s="1">
         <v>6.96</v>
@@ -38203,13 +38194,13 @@
     </row>
     <row r="566" spans="1:20" ht="24.75" customHeight="1">
       <c r="A566" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C566" s="17" t="s">
-        <v>1075</v>
+        <v>1063</v>
+      </c>
+      <c r="C566" s="16" t="s">
+        <v>1070</v>
       </c>
       <c r="D566" s="1">
         <v>6.96</v>
@@ -38264,13 +38255,13 @@
     </row>
     <row r="567" spans="1:20" ht="24.75" customHeight="1">
       <c r="A567" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D567" s="1">
         <v>6.96</v>
@@ -38325,13 +38316,13 @@
     </row>
     <row r="568" spans="1:20" ht="24.75" customHeight="1">
       <c r="A568" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C568" s="17" t="s">
-        <v>1080</v>
+        <v>1074</v>
+      </c>
+      <c r="C568" s="16" t="s">
+        <v>1075</v>
       </c>
       <c r="D568" s="1">
         <v>6.96</v>
@@ -38384,13 +38375,13 @@
     </row>
     <row r="569" spans="1:20" ht="24.75" customHeight="1">
       <c r="A569" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D569" s="1">
         <v>7</v>
@@ -38445,13 +38436,13 @@
     </row>
     <row r="570" spans="1:20" ht="24.75" customHeight="1">
       <c r="A570" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D570" s="1">
         <v>7</v>
@@ -38531,13 +38522,13 @@
     </row>
     <row r="572" spans="1:20" ht="24.75" customHeight="1">
       <c r="A572" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C572" s="17" t="s">
-        <v>1008</v>
+        <v>1002</v>
+      </c>
+      <c r="C572" s="16" t="s">
+        <v>1003</v>
       </c>
       <c r="D572" s="1">
         <v>6.74</v>
@@ -38592,13 +38583,13 @@
     </row>
     <row r="573" spans="1:20" ht="24.75" customHeight="1">
       <c r="A573" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C573" s="17" t="s">
-        <v>995</v>
+        <v>927</v>
+      </c>
+      <c r="C573" s="16" t="s">
+        <v>990</v>
       </c>
       <c r="D573" s="1">
         <v>7.91</v>
@@ -38653,13 +38644,13 @@
     </row>
     <row r="574" spans="1:20" ht="24.75" customHeight="1">
       <c r="A574" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C574" s="17" t="s">
-        <v>985</v>
+        <v>979</v>
+      </c>
+      <c r="C574" s="16" t="s">
+        <v>980</v>
       </c>
       <c r="D574" s="1">
         <v>8.0500000000000007</v>
@@ -38714,13 +38705,13 @@
     </row>
     <row r="575" spans="1:20" ht="24.75" customHeight="1">
       <c r="A575" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B575" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C575" s="16" t="s">
         <v>974</v>
-      </c>
-      <c r="C575" s="17" t="s">
-        <v>979</v>
       </c>
       <c r="D575" s="1">
         <v>7.99</v>
@@ -38775,13 +38766,13 @@
     </row>
     <row r="576" spans="1:20" ht="24.75" customHeight="1">
       <c r="A576" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D576" s="1">
         <v>7.69</v>
@@ -38880,38 +38871,38 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B578" s="24"/>
-      <c r="C578" s="24"/>
-      <c r="D578" s="24"/>
-      <c r="E578" s="24"/>
-      <c r="F578" s="24"/>
-      <c r="G578" s="24"/>
-      <c r="H578" s="24"/>
-      <c r="I578" s="24"/>
-      <c r="J578" s="24"/>
-      <c r="K578" s="24"/>
-      <c r="L578" s="24"/>
-      <c r="M578" s="24"/>
-      <c r="N578" s="24"/>
-      <c r="O578" s="24"/>
-      <c r="P578" s="24"/>
-      <c r="Q578" s="24"/>
-      <c r="R578" s="24"/>
-      <c r="S578" s="24"/>
-      <c r="T578" s="25"/>
+      <c r="A578" s="22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B578" s="23"/>
+      <c r="C578" s="23"/>
+      <c r="D578" s="23"/>
+      <c r="E578" s="23"/>
+      <c r="F578" s="23"/>
+      <c r="G578" s="23"/>
+      <c r="H578" s="23"/>
+      <c r="I578" s="23"/>
+      <c r="J578" s="23"/>
+      <c r="K578" s="23"/>
+      <c r="L578" s="23"/>
+      <c r="M578" s="23"/>
+      <c r="N578" s="23"/>
+      <c r="O578" s="23"/>
+      <c r="P578" s="23"/>
+      <c r="Q578" s="23"/>
+      <c r="R578" s="23"/>
+      <c r="S578" s="23"/>
+      <c r="T578" s="24"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D579" s="1">
         <v>6.51</v>
@@ -38966,13 +38957,13 @@
     </row>
     <row r="580" spans="1:20" ht="24.75" customHeight="1">
       <c r="A580" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D580" s="1">
         <v>6.98</v>
@@ -39027,13 +39018,13 @@
     </row>
     <row r="581" spans="1:20" ht="24.75" customHeight="1">
       <c r="A581" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D581" s="1">
         <v>6.98</v>
@@ -39113,13 +39104,13 @@
     </row>
     <row r="583" spans="1:20" ht="24.75" customHeight="1">
       <c r="A583" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D583" s="1">
         <v>8.07</v>
@@ -39243,38 +39234,38 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="23" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B586" s="24"/>
-      <c r="C586" s="24"/>
-      <c r="D586" s="24"/>
-      <c r="E586" s="24"/>
-      <c r="F586" s="24"/>
-      <c r="G586" s="24"/>
-      <c r="H586" s="24"/>
-      <c r="I586" s="24"/>
-      <c r="J586" s="24"/>
-      <c r="K586" s="24"/>
-      <c r="L586" s="24"/>
-      <c r="M586" s="24"/>
-      <c r="N586" s="24"/>
-      <c r="O586" s="24"/>
-      <c r="P586" s="24"/>
-      <c r="Q586" s="24"/>
-      <c r="R586" s="24"/>
-      <c r="S586" s="24"/>
-      <c r="T586" s="25"/>
+      <c r="A586" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B586" s="23"/>
+      <c r="C586" s="23"/>
+      <c r="D586" s="23"/>
+      <c r="E586" s="23"/>
+      <c r="F586" s="23"/>
+      <c r="G586" s="23"/>
+      <c r="H586" s="23"/>
+      <c r="I586" s="23"/>
+      <c r="J586" s="23"/>
+      <c r="K586" s="23"/>
+      <c r="L586" s="23"/>
+      <c r="M586" s="23"/>
+      <c r="N586" s="23"/>
+      <c r="O586" s="23"/>
+      <c r="P586" s="23"/>
+      <c r="Q586" s="23"/>
+      <c r="R586" s="23"/>
+      <c r="S586" s="23"/>
+      <c r="T586" s="24"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D587" s="1">
         <v>6.5</v>
@@ -39329,13 +39320,13 @@
     </row>
     <row r="588" spans="1:20" ht="24.75" customHeight="1">
       <c r="A588" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D588" s="1">
         <v>5.85</v>
@@ -39459,38 +39450,38 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="23" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B591" s="24"/>
-      <c r="C591" s="24"/>
-      <c r="D591" s="24"/>
-      <c r="E591" s="24"/>
-      <c r="F591" s="24"/>
-      <c r="G591" s="24"/>
-      <c r="H591" s="24"/>
-      <c r="I591" s="24"/>
-      <c r="J591" s="24"/>
-      <c r="K591" s="24"/>
-      <c r="L591" s="24"/>
-      <c r="M591" s="24"/>
-      <c r="N591" s="24"/>
-      <c r="O591" s="24"/>
-      <c r="P591" s="24"/>
-      <c r="Q591" s="24"/>
-      <c r="R591" s="24"/>
-      <c r="S591" s="24"/>
-      <c r="T591" s="25"/>
+      <c r="A591" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B591" s="23"/>
+      <c r="C591" s="23"/>
+      <c r="D591" s="23"/>
+      <c r="E591" s="23"/>
+      <c r="F591" s="23"/>
+      <c r="G591" s="23"/>
+      <c r="H591" s="23"/>
+      <c r="I591" s="23"/>
+      <c r="J591" s="23"/>
+      <c r="K591" s="23"/>
+      <c r="L591" s="23"/>
+      <c r="M591" s="23"/>
+      <c r="N591" s="23"/>
+      <c r="O591" s="23"/>
+      <c r="P591" s="23"/>
+      <c r="Q591" s="23"/>
+      <c r="R591" s="23"/>
+      <c r="S591" s="23"/>
+      <c r="T591" s="24"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D592" s="1">
         <v>6.49</v>
@@ -39589,38 +39580,38 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="23" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B594" s="24"/>
-      <c r="C594" s="24"/>
-      <c r="D594" s="24"/>
-      <c r="E594" s="24"/>
-      <c r="F594" s="24"/>
-      <c r="G594" s="24"/>
-      <c r="H594" s="24"/>
-      <c r="I594" s="24"/>
-      <c r="J594" s="24"/>
-      <c r="K594" s="24"/>
-      <c r="L594" s="24"/>
-      <c r="M594" s="24"/>
-      <c r="N594" s="24"/>
-      <c r="O594" s="24"/>
-      <c r="P594" s="24"/>
-      <c r="Q594" s="24"/>
-      <c r="R594" s="24"/>
-      <c r="S594" s="24"/>
-      <c r="T594" s="25"/>
+      <c r="A594" s="22" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B594" s="23"/>
+      <c r="C594" s="23"/>
+      <c r="D594" s="23"/>
+      <c r="E594" s="23"/>
+      <c r="F594" s="23"/>
+      <c r="G594" s="23"/>
+      <c r="H594" s="23"/>
+      <c r="I594" s="23"/>
+      <c r="J594" s="23"/>
+      <c r="K594" s="23"/>
+      <c r="L594" s="23"/>
+      <c r="M594" s="23"/>
+      <c r="N594" s="23"/>
+      <c r="O594" s="23"/>
+      <c r="P594" s="23"/>
+      <c r="Q594" s="23"/>
+      <c r="R594" s="23"/>
+      <c r="S594" s="23"/>
+      <c r="T594" s="24"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D595" s="1">
         <v>8.1</v>

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3996,12 +3996,12 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4340,10 +4340,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C245" sqref="C245"/>
+      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -4414,28 +4414,28 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4603,28 +4603,28 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -12100,7 +12100,7 @@
       <c r="B130" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D130" s="1">
@@ -13564,7 +13564,7 @@
       <c r="B154" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="16" t="s">
         <v>244</v>
       </c>
       <c r="D154" s="1">
@@ -21153,7 +21153,7 @@
       <c r="B279" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C279" s="16" t="s">
+      <c r="C279" s="19" t="s">
         <v>258</v>
       </c>
       <c r="D279" s="1">
@@ -24051,28 +24051,28 @@
       <c r="T327" s="2"/>
     </row>
     <row r="328" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A328" s="22" t="s">
+      <c r="A328" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="B328" s="23"/>
-      <c r="C328" s="23"/>
-      <c r="D328" s="23"/>
-      <c r="E328" s="23"/>
-      <c r="F328" s="23"/>
-      <c r="G328" s="23"/>
-      <c r="H328" s="23"/>
-      <c r="I328" s="23"/>
-      <c r="J328" s="23"/>
-      <c r="K328" s="23"/>
-      <c r="L328" s="23"/>
-      <c r="M328" s="23"/>
-      <c r="N328" s="23"/>
-      <c r="O328" s="23"/>
-      <c r="P328" s="23"/>
-      <c r="Q328" s="23"/>
-      <c r="R328" s="23"/>
-      <c r="S328" s="23"/>
-      <c r="T328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="24"/>
+      <c r="F328" s="24"/>
+      <c r="G328" s="24"/>
+      <c r="H328" s="24"/>
+      <c r="I328" s="24"/>
+      <c r="J328" s="24"/>
+      <c r="K328" s="24"/>
+      <c r="L328" s="24"/>
+      <c r="M328" s="24"/>
+      <c r="N328" s="24"/>
+      <c r="O328" s="24"/>
+      <c r="P328" s="24"/>
+      <c r="Q328" s="24"/>
+      <c r="R328" s="24"/>
+      <c r="S328" s="24"/>
+      <c r="T328" s="25"/>
     </row>
     <row r="329" spans="1:20" ht="24.75" customHeight="1">
       <c r="A329" s="1" t="s">
@@ -34784,28 +34784,28 @@
       <c r="T505" s="2"/>
     </row>
     <row r="506" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A506" s="22" t="s">
+      <c r="A506" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="B506" s="23"/>
-      <c r="C506" s="23"/>
-      <c r="D506" s="23"/>
-      <c r="E506" s="23"/>
-      <c r="F506" s="23"/>
-      <c r="G506" s="23"/>
-      <c r="H506" s="23"/>
-      <c r="I506" s="23"/>
-      <c r="J506" s="23"/>
-      <c r="K506" s="23"/>
-      <c r="L506" s="23"/>
-      <c r="M506" s="23"/>
-      <c r="N506" s="23"/>
-      <c r="O506" s="23"/>
-      <c r="P506" s="23"/>
-      <c r="Q506" s="23"/>
-      <c r="R506" s="23"/>
-      <c r="S506" s="23"/>
-      <c r="T506" s="24"/>
+      <c r="B506" s="24"/>
+      <c r="C506" s="24"/>
+      <c r="D506" s="24"/>
+      <c r="E506" s="24"/>
+      <c r="F506" s="24"/>
+      <c r="G506" s="24"/>
+      <c r="H506" s="24"/>
+      <c r="I506" s="24"/>
+      <c r="J506" s="24"/>
+      <c r="K506" s="24"/>
+      <c r="L506" s="24"/>
+      <c r="M506" s="24"/>
+      <c r="N506" s="24"/>
+      <c r="O506" s="24"/>
+      <c r="P506" s="24"/>
+      <c r="Q506" s="24"/>
+      <c r="R506" s="24"/>
+      <c r="S506" s="24"/>
+      <c r="T506" s="25"/>
     </row>
     <row r="507" spans="1:20" ht="24.75" customHeight="1">
       <c r="A507" s="1" t="s">
@@ -34900,7 +34900,7 @@
       <c r="B509" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C509" s="25" t="s">
+      <c r="C509" s="22" t="s">
         <v>1102</v>
       </c>
       <c r="D509" s="1">
@@ -35208,28 +35208,28 @@
       <c r="T514" s="2"/>
     </row>
     <row r="515" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A515" s="22" t="s">
+      <c r="A515" s="23" t="s">
         <v>938</v>
       </c>
-      <c r="B515" s="23"/>
-      <c r="C515" s="23"/>
-      <c r="D515" s="23"/>
-      <c r="E515" s="23"/>
-      <c r="F515" s="23"/>
-      <c r="G515" s="23"/>
-      <c r="H515" s="23"/>
-      <c r="I515" s="23"/>
-      <c r="J515" s="23"/>
-      <c r="K515" s="23"/>
-      <c r="L515" s="23"/>
-      <c r="M515" s="23"/>
-      <c r="N515" s="23"/>
-      <c r="O515" s="23"/>
-      <c r="P515" s="23"/>
-      <c r="Q515" s="23"/>
-      <c r="R515" s="23"/>
-      <c r="S515" s="23"/>
-      <c r="T515" s="24"/>
+      <c r="B515" s="24"/>
+      <c r="C515" s="24"/>
+      <c r="D515" s="24"/>
+      <c r="E515" s="24"/>
+      <c r="F515" s="24"/>
+      <c r="G515" s="24"/>
+      <c r="H515" s="24"/>
+      <c r="I515" s="24"/>
+      <c r="J515" s="24"/>
+      <c r="K515" s="24"/>
+      <c r="L515" s="24"/>
+      <c r="M515" s="24"/>
+      <c r="N515" s="24"/>
+      <c r="O515" s="24"/>
+      <c r="P515" s="24"/>
+      <c r="Q515" s="24"/>
+      <c r="R515" s="24"/>
+      <c r="S515" s="24"/>
+      <c r="T515" s="25"/>
     </row>
     <row r="516" spans="1:20" ht="24.75" customHeight="1">
       <c r="A516" s="1" t="s">
@@ -35704,28 +35704,28 @@
       <c r="T523" s="2"/>
     </row>
     <row r="524" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A524" s="22" t="s">
+      <c r="A524" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="B524" s="23"/>
-      <c r="C524" s="23"/>
-      <c r="D524" s="23"/>
-      <c r="E524" s="23"/>
-      <c r="F524" s="23"/>
-      <c r="G524" s="23"/>
-      <c r="H524" s="23"/>
-      <c r="I524" s="23"/>
-      <c r="J524" s="23"/>
-      <c r="K524" s="23"/>
-      <c r="L524" s="23"/>
-      <c r="M524" s="23"/>
-      <c r="N524" s="23"/>
-      <c r="O524" s="23"/>
-      <c r="P524" s="23"/>
-      <c r="Q524" s="23"/>
-      <c r="R524" s="23"/>
-      <c r="S524" s="23"/>
-      <c r="T524" s="24"/>
+      <c r="B524" s="24"/>
+      <c r="C524" s="24"/>
+      <c r="D524" s="24"/>
+      <c r="E524" s="24"/>
+      <c r="F524" s="24"/>
+      <c r="G524" s="24"/>
+      <c r="H524" s="24"/>
+      <c r="I524" s="24"/>
+      <c r="J524" s="24"/>
+      <c r="K524" s="24"/>
+      <c r="L524" s="24"/>
+      <c r="M524" s="24"/>
+      <c r="N524" s="24"/>
+      <c r="O524" s="24"/>
+      <c r="P524" s="24"/>
+      <c r="Q524" s="24"/>
+      <c r="R524" s="24"/>
+      <c r="S524" s="24"/>
+      <c r="T524" s="25"/>
     </row>
     <row r="525" spans="1:20" ht="24.75" customHeight="1">
       <c r="A525" s="1" t="s">
@@ -38871,28 +38871,28 @@
       <c r="T577" s="2"/>
     </row>
     <row r="578" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A578" s="22" t="s">
+      <c r="A578" s="23" t="s">
         <v>1076</v>
       </c>
-      <c r="B578" s="23"/>
-      <c r="C578" s="23"/>
-      <c r="D578" s="23"/>
-      <c r="E578" s="23"/>
-      <c r="F578" s="23"/>
-      <c r="G578" s="23"/>
-      <c r="H578" s="23"/>
-      <c r="I578" s="23"/>
-      <c r="J578" s="23"/>
-      <c r="K578" s="23"/>
-      <c r="L578" s="23"/>
-      <c r="M578" s="23"/>
-      <c r="N578" s="23"/>
-      <c r="O578" s="23"/>
-      <c r="P578" s="23"/>
-      <c r="Q578" s="23"/>
-      <c r="R578" s="23"/>
-      <c r="S578" s="23"/>
-      <c r="T578" s="24"/>
+      <c r="B578" s="24"/>
+      <c r="C578" s="24"/>
+      <c r="D578" s="24"/>
+      <c r="E578" s="24"/>
+      <c r="F578" s="24"/>
+      <c r="G578" s="24"/>
+      <c r="H578" s="24"/>
+      <c r="I578" s="24"/>
+      <c r="J578" s="24"/>
+      <c r="K578" s="24"/>
+      <c r="L578" s="24"/>
+      <c r="M578" s="24"/>
+      <c r="N578" s="24"/>
+      <c r="O578" s="24"/>
+      <c r="P578" s="24"/>
+      <c r="Q578" s="24"/>
+      <c r="R578" s="24"/>
+      <c r="S578" s="24"/>
+      <c r="T578" s="25"/>
     </row>
     <row r="579" spans="1:20" ht="24.75" customHeight="1">
       <c r="A579" s="1" t="s">
@@ -39234,28 +39234,28 @@
       <c r="T585" s="2"/>
     </row>
     <row r="586" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A586" s="22" t="s">
+      <c r="A586" s="23" t="s">
         <v>1086</v>
       </c>
-      <c r="B586" s="23"/>
-      <c r="C586" s="23"/>
-      <c r="D586" s="23"/>
-      <c r="E586" s="23"/>
-      <c r="F586" s="23"/>
-      <c r="G586" s="23"/>
-      <c r="H586" s="23"/>
-      <c r="I586" s="23"/>
-      <c r="J586" s="23"/>
-      <c r="K586" s="23"/>
-      <c r="L586" s="23"/>
-      <c r="M586" s="23"/>
-      <c r="N586" s="23"/>
-      <c r="O586" s="23"/>
-      <c r="P586" s="23"/>
-      <c r="Q586" s="23"/>
-      <c r="R586" s="23"/>
-      <c r="S586" s="23"/>
-      <c r="T586" s="24"/>
+      <c r="B586" s="24"/>
+      <c r="C586" s="24"/>
+      <c r="D586" s="24"/>
+      <c r="E586" s="24"/>
+      <c r="F586" s="24"/>
+      <c r="G586" s="24"/>
+      <c r="H586" s="24"/>
+      <c r="I586" s="24"/>
+      <c r="J586" s="24"/>
+      <c r="K586" s="24"/>
+      <c r="L586" s="24"/>
+      <c r="M586" s="24"/>
+      <c r="N586" s="24"/>
+      <c r="O586" s="24"/>
+      <c r="P586" s="24"/>
+      <c r="Q586" s="24"/>
+      <c r="R586" s="24"/>
+      <c r="S586" s="24"/>
+      <c r="T586" s="25"/>
     </row>
     <row r="587" spans="1:20" ht="24.75" customHeight="1">
       <c r="A587" s="1" t="s">
@@ -39450,28 +39450,28 @@
       <c r="T590" s="2"/>
     </row>
     <row r="591" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A591" s="22" t="s">
+      <c r="A591" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="B591" s="23"/>
-      <c r="C591" s="23"/>
-      <c r="D591" s="23"/>
-      <c r="E591" s="23"/>
-      <c r="F591" s="23"/>
-      <c r="G591" s="23"/>
-      <c r="H591" s="23"/>
-      <c r="I591" s="23"/>
-      <c r="J591" s="23"/>
-      <c r="K591" s="23"/>
-      <c r="L591" s="23"/>
-      <c r="M591" s="23"/>
-      <c r="N591" s="23"/>
-      <c r="O591" s="23"/>
-      <c r="P591" s="23"/>
-      <c r="Q591" s="23"/>
-      <c r="R591" s="23"/>
-      <c r="S591" s="23"/>
-      <c r="T591" s="24"/>
+      <c r="B591" s="24"/>
+      <c r="C591" s="24"/>
+      <c r="D591" s="24"/>
+      <c r="E591" s="24"/>
+      <c r="F591" s="24"/>
+      <c r="G591" s="24"/>
+      <c r="H591" s="24"/>
+      <c r="I591" s="24"/>
+      <c r="J591" s="24"/>
+      <c r="K591" s="24"/>
+      <c r="L591" s="24"/>
+      <c r="M591" s="24"/>
+      <c r="N591" s="24"/>
+      <c r="O591" s="24"/>
+      <c r="P591" s="24"/>
+      <c r="Q591" s="24"/>
+      <c r="R591" s="24"/>
+      <c r="S591" s="24"/>
+      <c r="T591" s="25"/>
     </row>
     <row r="592" spans="1:20" ht="24.75" customHeight="1">
       <c r="A592" s="1" t="s">
@@ -39580,28 +39580,28 @@
       <c r="T593" s="2"/>
     </row>
     <row r="594" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A594" s="22" t="s">
+      <c r="A594" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="B594" s="23"/>
-      <c r="C594" s="23"/>
-      <c r="D594" s="23"/>
-      <c r="E594" s="23"/>
-      <c r="F594" s="23"/>
-      <c r="G594" s="23"/>
-      <c r="H594" s="23"/>
-      <c r="I594" s="23"/>
-      <c r="J594" s="23"/>
-      <c r="K594" s="23"/>
-      <c r="L594" s="23"/>
-      <c r="M594" s="23"/>
-      <c r="N594" s="23"/>
-      <c r="O594" s="23"/>
-      <c r="P594" s="23"/>
-      <c r="Q594" s="23"/>
-      <c r="R594" s="23"/>
-      <c r="S594" s="23"/>
-      <c r="T594" s="24"/>
+      <c r="B594" s="24"/>
+      <c r="C594" s="24"/>
+      <c r="D594" s="24"/>
+      <c r="E594" s="24"/>
+      <c r="F594" s="24"/>
+      <c r="G594" s="24"/>
+      <c r="H594" s="24"/>
+      <c r="I594" s="24"/>
+      <c r="J594" s="24"/>
+      <c r="K594" s="24"/>
+      <c r="L594" s="24"/>
+      <c r="M594" s="24"/>
+      <c r="N594" s="24"/>
+      <c r="O594" s="24"/>
+      <c r="P594" s="24"/>
+      <c r="Q594" s="24"/>
+      <c r="R594" s="24"/>
+      <c r="S594" s="24"/>
+      <c r="T594" s="25"/>
     </row>
     <row r="595" spans="1:20" ht="24.75" customHeight="1">
       <c r="A595" s="1" t="s">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4340,10 +4340,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
+      <selection pane="bottomRight" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -6585,7 +6585,7 @@
       <c r="B39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="18" t="s">
         <v>296</v>
       </c>
       <c r="D39" s="1">
@@ -8537,7 +8537,7 @@
       <c r="B71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="16" t="s">
         <v>169</v>
       </c>
       <c r="D71" s="1">
@@ -10819,7 +10819,7 @@
       <c r="B109" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="16" t="s">
         <v>472</v>
       </c>
       <c r="D109" s="1">
@@ -10935,13 +10935,13 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="20" t="s">
         <v>477</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="16" t="s">
         <v>478</v>
       </c>
       <c r="D111" s="1">
@@ -11307,7 +11307,7 @@
       <c r="B117" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="16" t="s">
         <v>329</v>
       </c>
       <c r="D117" s="1">
@@ -12405,7 +12405,7 @@
       <c r="B135" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D135" s="1">
@@ -13625,7 +13625,7 @@
       <c r="B155" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="16" t="s">
         <v>244</v>
       </c>
       <c r="D155" s="1">
@@ -21214,7 +21214,7 @@
       <c r="B280" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D280" s="1">
@@ -21513,13 +21513,13 @@
       </c>
     </row>
     <row r="285" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="20" t="s">
         <v>271</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="16" t="s">
         <v>270</v>
       </c>
       <c r="D285" s="1">
@@ -21946,7 +21946,7 @@
       <c r="B292" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="C292" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D292" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4340,10 +4340,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D433" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A155" sqref="A155"/>
+      <selection pane="bottomRight" activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4340,10 +4340,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D433" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C436" sqref="C436"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -11368,7 +11368,7 @@
       <c r="B118" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D118" s="1">
@@ -17432,7 +17432,7 @@
       <c r="B218" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="16" t="s">
         <v>448</v>
       </c>
       <c r="D218" s="1">
@@ -18530,7 +18530,7 @@
       <c r="B236" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D236" s="1">
@@ -18896,7 +18896,7 @@
       <c r="B242" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="16" t="s">
         <v>325</v>
       </c>
       <c r="D242" s="1">
@@ -22312,7 +22312,7 @@
       <c r="B298" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D298" s="1">
@@ -23288,7 +23288,7 @@
       <c r="B314" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C314" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D314" s="1">
@@ -24896,7 +24896,7 @@
       <c r="B343" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C343" s="16" t="s">
         <v>902</v>
       </c>
       <c r="D343" s="1">
@@ -25323,7 +25323,7 @@
       <c r="B350" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="16" t="s">
         <v>866</v>
       </c>
       <c r="D350" s="1">
@@ -25384,7 +25384,7 @@
       <c r="B351" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C351" s="16" t="s">
         <v>868</v>
       </c>
       <c r="D351" s="1">
@@ -25445,7 +25445,7 @@
       <c r="B352" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C352" s="16" t="s">
         <v>870</v>
       </c>
       <c r="D352" s="1">
@@ -25506,7 +25506,7 @@
       <c r="B353" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C353" s="16" t="s">
         <v>872</v>
       </c>
       <c r="D353" s="1">
@@ -26177,7 +26177,7 @@
       <c r="B364" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="C364" s="16" t="s">
         <v>764</v>
       </c>
       <c r="D364" s="1">
@@ -26360,7 +26360,7 @@
       <c r="B367" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="C367" s="16" t="s">
         <v>770</v>
       </c>
       <c r="D367" s="1">
@@ -26421,7 +26421,7 @@
       <c r="B368" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="C368" s="16" t="s">
         <v>772</v>
       </c>
       <c r="D368" s="1">
@@ -26482,7 +26482,7 @@
       <c r="B369" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="C369" s="16" t="s">
         <v>774</v>
       </c>
       <c r="D369" s="1">
@@ -26543,7 +26543,7 @@
       <c r="B370" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="C370" s="16" t="s">
         <v>776</v>
       </c>
       <c r="D370" s="1">
@@ -26604,7 +26604,7 @@
       <c r="B371" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="C371" s="16" t="s">
         <v>778</v>
       </c>
       <c r="D371" s="1">
@@ -26787,7 +26787,7 @@
       <c r="B374" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="C374" s="16" t="s">
         <v>784</v>
       </c>
       <c r="D374" s="1">
@@ -26848,7 +26848,7 @@
       <c r="B375" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C375" s="16" t="s">
         <v>786</v>
       </c>
       <c r="D375" s="1">
@@ -26909,7 +26909,7 @@
       <c r="B376" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C376" s="16" t="s">
         <v>788</v>
       </c>
       <c r="D376" s="1">
@@ -27031,7 +27031,7 @@
       <c r="B378" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="C378" s="16" t="s">
         <v>792</v>
       </c>
       <c r="D378" s="1">
@@ -28861,7 +28861,7 @@
       <c r="B408" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="C408" s="16" t="s">
         <v>733</v>
       </c>
       <c r="D408" s="1">
@@ -28922,7 +28922,7 @@
       <c r="B409" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="C409" s="16" t="s">
         <v>735</v>
       </c>
       <c r="D409" s="1">
@@ -29349,7 +29349,7 @@
       <c r="B416" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="C416" s="16" t="s">
         <v>708</v>
       </c>
       <c r="D416" s="1">
@@ -29471,7 +29471,7 @@
       <c r="B418" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C418" s="1" t="s">
+      <c r="C418" s="16" t="s">
         <v>712</v>
       </c>
       <c r="D418" s="1">
@@ -29532,7 +29532,7 @@
       <c r="B419" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C419" s="1" t="s">
+      <c r="C419" s="16" t="s">
         <v>714</v>
       </c>
       <c r="D419" s="1">
@@ -29593,7 +29593,7 @@
       <c r="B420" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C420" s="1" t="s">
+      <c r="C420" s="16" t="s">
         <v>716</v>
       </c>
       <c r="D420" s="1">
@@ -29654,7 +29654,7 @@
       <c r="B421" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C421" s="1" t="s">
+      <c r="C421" s="16" t="s">
         <v>720</v>
       </c>
       <c r="D421" s="1">
@@ -30508,7 +30508,7 @@
       <c r="B435" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="C435" s="16" t="s">
         <v>672</v>
       </c>
       <c r="D435" s="1">
@@ -30569,7 +30569,7 @@
       <c r="B436" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C436" s="16" t="s">
         <v>669</v>
       </c>
       <c r="D436" s="1">
@@ -30630,7 +30630,7 @@
       <c r="B437" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="C437" s="16" t="s">
         <v>666</v>
       </c>
       <c r="D437" s="1">
@@ -30691,7 +30691,7 @@
       <c r="B438" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="C438" s="16" t="s">
         <v>663</v>
       </c>
       <c r="D438" s="1">
@@ -30752,7 +30752,7 @@
       <c r="B439" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="C439" s="16" t="s">
         <v>660</v>
       </c>
       <c r="D439" s="1">
@@ -30813,7 +30813,7 @@
       <c r="B440" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C440" s="16" t="s">
         <v>657</v>
       </c>
       <c r="D440" s="1">
@@ -30935,7 +30935,7 @@
       <c r="B442" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="C442" s="16" t="s">
         <v>633</v>
       </c>
       <c r="D442" s="1">
@@ -30996,7 +30996,7 @@
       <c r="B443" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C443" s="16" t="s">
         <v>635</v>
       </c>
       <c r="D443" s="1">
@@ -31179,7 +31179,7 @@
       <c r="B446" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="C446" s="16" t="s">
         <v>641</v>
       </c>
       <c r="D446" s="1">
@@ -31301,7 +31301,7 @@
       <c r="B448" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="C448" s="16" t="s">
         <v>645</v>
       </c>
       <c r="D448" s="1">
@@ -31362,7 +31362,7 @@
       <c r="B449" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C449" s="1" t="s">
+      <c r="C449" s="16" t="s">
         <v>647</v>
       </c>
       <c r="D449" s="1">
@@ -31423,7 +31423,7 @@
       <c r="B450" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="C450" s="16" t="s">
         <v>649</v>
       </c>
       <c r="D450" s="1">
@@ -31484,7 +31484,7 @@
       <c r="B451" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="C451" s="16" t="s">
         <v>651</v>
       </c>
       <c r="D451" s="1">
@@ -31545,7 +31545,7 @@
       <c r="B452" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="C452" s="16" t="s">
         <v>610</v>
       </c>
       <c r="D452" s="1">
@@ -31606,7 +31606,7 @@
       <c r="B453" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="C453" s="16" t="s">
         <v>612</v>
       </c>
       <c r="D453" s="1">
@@ -31667,7 +31667,7 @@
       <c r="B454" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C454" s="1" t="s">
+      <c r="C454" s="16" t="s">
         <v>614</v>
       </c>
       <c r="D454" s="1">
@@ -31728,7 +31728,7 @@
       <c r="B455" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="C455" s="16" t="s">
         <v>612</v>
       </c>
       <c r="D455" s="1">
@@ -31789,7 +31789,7 @@
       <c r="B456" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C456" s="1" t="s">
+      <c r="C456" s="16" t="s">
         <v>617</v>
       </c>
       <c r="D456" s="1">
@@ -31972,7 +31972,7 @@
       <c r="B459" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C459" s="1" t="s">
+      <c r="C459" s="16" t="s">
         <v>621</v>
       </c>
       <c r="D459" s="1">
@@ -32033,7 +32033,7 @@
       <c r="B460" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C460" s="1" t="s">
+      <c r="C460" s="16" t="s">
         <v>623</v>
       </c>
       <c r="D460" s="1">
@@ -32094,7 +32094,7 @@
       <c r="B461" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C461" s="1" t="s">
+      <c r="C461" s="16" t="s">
         <v>621</v>
       </c>
       <c r="D461" s="1">
@@ -32155,7 +32155,7 @@
       <c r="B462" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C462" s="1" t="s">
+      <c r="C462" s="16" t="s">
         <v>626</v>
       </c>
       <c r="D462" s="1">
@@ -32216,7 +32216,7 @@
       <c r="B463" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="C463" s="16" t="s">
         <v>614</v>
       </c>
       <c r="D463" s="1">
@@ -32277,7 +32277,7 @@
       <c r="B464" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C464" s="1" t="s">
+      <c r="C464" s="16" t="s">
         <v>629</v>
       </c>
       <c r="D464" s="1">
@@ -32338,7 +32338,7 @@
       <c r="B465" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C465" s="1" t="s">
+      <c r="C465" s="16" t="s">
         <v>623</v>
       </c>
       <c r="D465" s="1">
@@ -32399,7 +32399,7 @@
       <c r="B466" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="C466" s="16" t="s">
         <v>623</v>
       </c>
       <c r="D466" s="1">
@@ -32887,7 +32887,7 @@
       <c r="B474" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C474" s="1" t="s">
+      <c r="C474" s="16" t="s">
         <v>593</v>
       </c>
       <c r="D474" s="1">
@@ -32948,7 +32948,7 @@
       <c r="B475" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C475" s="1" t="s">
+      <c r="C475" s="16" t="s">
         <v>595</v>
       </c>
       <c r="D475" s="1">
@@ -33009,7 +33009,7 @@
       <c r="B476" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="C476" s="16" t="s">
         <v>597</v>
       </c>
       <c r="D476" s="1">
@@ -33131,7 +33131,7 @@
       <c r="B478" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C478" s="1" t="s">
+      <c r="C478" s="16" t="s">
         <v>585</v>
       </c>
       <c r="D478" s="1">
@@ -33314,7 +33314,7 @@
       <c r="B481" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="C481" s="16" t="s">
         <v>576</v>
       </c>
       <c r="D481" s="1">
@@ -33375,7 +33375,7 @@
       <c r="B482" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="C482" s="16" t="s">
         <v>571</v>
       </c>
       <c r="D482" s="1">
@@ -33436,7 +33436,7 @@
       <c r="B483" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C483" s="1" t="s">
+      <c r="C483" s="16" t="s">
         <v>573</v>
       </c>
       <c r="D483" s="1">
@@ -33619,7 +33619,7 @@
       <c r="B486" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C486" s="1" t="s">
+      <c r="C486" s="16" t="s">
         <v>562</v>
       </c>
       <c r="D486" s="1">
@@ -33680,7 +33680,7 @@
       <c r="B487" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C487" s="1" t="s">
+      <c r="C487" s="16" t="s">
         <v>562</v>
       </c>
       <c r="D487" s="1">
@@ -33741,7 +33741,7 @@
       <c r="B488" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="C488" s="16" t="s">
         <v>559</v>
       </c>
       <c r="D488" s="1">
@@ -34071,7 +34071,7 @@
       <c r="B494" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C494" s="1" t="s">
+      <c r="C494" s="16" t="s">
         <v>876</v>
       </c>
       <c r="D494" s="1">
@@ -34132,7 +34132,7 @@
       <c r="B495" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="C495" s="16" t="s">
         <v>878</v>
       </c>
       <c r="D495" s="1">
@@ -34193,7 +34193,7 @@
       <c r="B496" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C496" s="1" t="s">
+      <c r="C496" s="16" t="s">
         <v>880</v>
       </c>
       <c r="D496" s="1">
@@ -34315,7 +34315,7 @@
       <c r="B498" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="C498" s="16" t="s">
         <v>884</v>
       </c>
       <c r="D498" s="1">
@@ -34376,7 +34376,7 @@
       <c r="B499" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C499" s="1" t="s">
+      <c r="C499" s="16" t="s">
         <v>840</v>
       </c>
       <c r="D499" s="1">
@@ -34498,7 +34498,7 @@
       <c r="B501" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C501" s="1" t="s">
+      <c r="C501" s="16" t="s">
         <v>750</v>
       </c>
       <c r="D501" s="1">
@@ -34559,7 +34559,7 @@
       <c r="B502" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C502" s="1" t="s">
+      <c r="C502" s="16" t="s">
         <v>718</v>
       </c>
       <c r="D502" s="1">
@@ -34620,7 +34620,7 @@
       <c r="B503" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C503" s="1" t="s">
+      <c r="C503" s="16" t="s">
         <v>722</v>
       </c>
       <c r="D503" s="1">
@@ -34681,7 +34681,7 @@
       <c r="B504" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C504" s="1" t="s">
+      <c r="C504" s="16" t="s">
         <v>724</v>
       </c>
       <c r="D504" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -4340,10 +4340,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -5670,7 +5670,7 @@
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>437</v>
       </c>
       <c r="D24" s="1">
@@ -5914,7 +5914,7 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="16" t="s">
         <v>446</v>
       </c>
       <c r="D28" s="1">
@@ -7012,7 +7012,7 @@
       <c r="B46" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D46" s="1">
@@ -7134,7 +7134,7 @@
       <c r="B48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D48" s="1">
@@ -9208,7 +9208,7 @@
       <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="1">
@@ -9269,7 +9269,7 @@
       <c r="B83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="1">
@@ -9330,7 +9330,7 @@
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
@@ -9391,7 +9391,7 @@
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D85" s="1">
@@ -9452,7 +9452,7 @@
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D86" s="1">
@@ -9513,7 +9513,7 @@
       <c r="B87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D87" s="1">
@@ -9574,7 +9574,7 @@
       <c r="B88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="1">
@@ -9635,7 +9635,7 @@
       <c r="B89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="1">
@@ -10428,7 +10428,7 @@
       <c r="B102" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="16" t="s">
         <v>544</v>
       </c>
       <c r="D102" s="1">
@@ -13259,7 +13259,7 @@
       <c r="B149" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D149" s="1">
@@ -13381,7 +13381,7 @@
       <c r="B151" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D151" s="1">
@@ -13991,7 +13991,7 @@
       <c r="B161" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D161" s="1">
@@ -14113,7 +14113,7 @@
       <c r="B163" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D163" s="1">
@@ -14174,7 +14174,7 @@
       <c r="B164" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D164" s="1">
@@ -14723,7 +14723,7 @@
       <c r="B173" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D173" s="1">
@@ -15516,7 +15516,7 @@
       <c r="B186" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="16" t="s">
         <v>547</v>
       </c>
       <c r="D186" s="1">
@@ -15577,7 +15577,7 @@
       <c r="B187" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="16" t="s">
         <v>549</v>
       </c>
       <c r="D187" s="1">
@@ -15638,7 +15638,7 @@
       <c r="B188" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="16" t="s">
         <v>551</v>
       </c>
       <c r="D188" s="1">
@@ -15907,7 +15907,7 @@
       <c r="B193" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="16" t="s">
         <v>437</v>
       </c>
       <c r="D193" s="1">
@@ -17005,7 +17005,7 @@
       <c r="B211" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="16" t="s">
         <v>494</v>
       </c>
       <c r="D211" s="1">
@@ -19262,7 +19262,7 @@
       <c r="B248" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D248" s="1">
@@ -19323,7 +19323,7 @@
       <c r="B249" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="16" t="s">
         <v>331</v>
       </c>
       <c r="D249" s="1">
@@ -19445,7 +19445,7 @@
       <c r="B251" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="16" t="s">
         <v>370</v>
       </c>
       <c r="D251" s="1">
@@ -21885,7 +21885,7 @@
       <c r="B291" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D291" s="1">
@@ -22251,7 +22251,7 @@
       <c r="B297" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D297" s="1">
@@ -23862,7 +23862,7 @@
       <c r="B324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="C324" s="16" t="s">
         <v>389</v>
       </c>
       <c r="D324" s="1">
@@ -37040,7 +37040,7 @@
       <c r="B547" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C547" s="1" t="s">
+      <c r="C547" s="16" t="s">
         <v>1017</v>
       </c>
       <c r="D547" s="1">
@@ -39109,7 +39109,7 @@
       <c r="B583" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C583" s="1" t="s">
+      <c r="C583" s="16" t="s">
         <v>1078</v>
       </c>
       <c r="D583" s="1">

--- a/script/af gastos 2013 11.xlsx
+++ b/script/af gastos 2013 11.xlsx
@@ -3933,7 +3933,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4002,6 +4002,9 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4340,10 +4343,10 @@
   <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C211" sqref="C211"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -5304,7 +5307,7 @@
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="16" t="s">
         <v>425</v>
       </c>
       <c r="D18" s="1">
@@ -17853,7 +17856,7 @@
       </c>
     </row>
     <row r="225" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A225" s="16" t="s">
+      <c r="A225" s="26" t="s">
         <v>394</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -17975,7 +17978,7 @@
       </c>
     </row>
     <row r="227" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A227" s="16" t="s">
+      <c r="A227" s="26" t="s">
         <v>399</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -24264,7 +24267,7 @@
       <c r="B332" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="C332" s="16" t="s">
         <v>754</v>
       </c>
       <c r="D332" s="1">
@@ -24386,7 +24389,7 @@
       <c r="B334" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C334" s="16" t="s">
         <v>587</v>
       </c>
       <c r="D334" s="1">
@@ -24447,7 +24450,7 @@
       <c r="B335" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="16" t="s">
         <v>754</v>
       </c>
       <c r="D335" s="1">
@@ -25750,7 +25753,7 @@
       <c r="B357" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="C357" s="16" t="s">
         <v>856</v>
       </c>
       <c r="D357" s="1">
@@ -25811,7 +25814,7 @@
       <c r="B358" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C358" s="16" t="s">
         <v>858</v>
       </c>
       <c r="D358" s="1">
@@ -26116,7 +26119,7 @@
       <c r="B363" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="C363" s="16" t="s">
         <v>762</v>
       </c>
       <c r="D363" s="1">
@@ -28617,7 +28620,7 @@
       <c r="B404" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="C404" s="16" t="s">
         <v>844</v>
       </c>
       <c r="D404" s="1">
@@ -33497,7 +33500,7 @@
       <c r="B484" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="C484" s="16" t="s">
         <v>566</v>
       </c>
       <c r="D484" s="1">
